--- a/data/master-2.xlsx
+++ b/data/master-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogwata/dev/pub-support/murakami-shinkan/works/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AE6747FB-0D7F-F34A-98ED-F82BBC6C9A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CEEC5F63-55B2-2B45-A709-068C9DD5C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="3020" windowWidth="35240" windowHeight="23900" xr2:uid="{4B520F98-5930-514C-BD16-7DA1FF5F44D9}"/>
+    <workbookView xWindow="18100" yWindow="500" windowWidth="48940" windowHeight="27640" xr2:uid="{4B520F98-5930-514C-BD16-7DA1FF5F44D9}"/>
   </bookViews>
   <sheets>
     <sheet name="master-2" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,37 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DDB04F1B-6BF2-374E-9D6C-BF36742B96B3}</author>
+    <author>tc={9210725B-AF37-D140-B09D-9BC04C4C2C30}</author>
+  </authors>
+  <commentList>
+    <comment ref="S18" authorId="0" shapeId="0" xr:uid="{DDB04F1B-6BF2-374E-9D6C-BF36742B96B3}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「」不要？</t>
+      </text>
+    </comment>
+    <comment ref="S72" authorId="1" shapeId="0" xr:uid="{9210725B-AF37-D140-B09D-9BC04C4C2C30}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「バハ」の「ハ」は捨仮名
+返信:
+小書き「ハ」のの入力方法があるか、調べてみます。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="611">
   <si>
     <t>ProjectID</t>
   </si>
@@ -180,13 +209,1847 @@
   </si>
   <si>
     <t>Keyword_Term</t>
+  </si>
+  <si>
+    <t>msk0010</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>msk0020</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>msk0030</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>msk0040</t>
+  </si>
+  <si>
+    <t>msk0050</t>
+  </si>
+  <si>
+    <t>msk0060</t>
+  </si>
+  <si>
+    <t>msk0070</t>
+  </si>
+  <si>
+    <t>msk0080</t>
+  </si>
+  <si>
+    <t>msk0090</t>
+  </si>
+  <si>
+    <t>msk0100</t>
+  </si>
+  <si>
+    <t>msk0110</t>
+  </si>
+  <si>
+    <t>msk0120</t>
+  </si>
+  <si>
+    <t>msk0130</t>
+  </si>
+  <si>
+    <t>msk0140</t>
+  </si>
+  <si>
+    <t>msk0150</t>
+  </si>
+  <si>
+    <t>msk0160</t>
+  </si>
+  <si>
+    <t>msk0170</t>
+  </si>
+  <si>
+    <t>msk0180</t>
+  </si>
+  <si>
+    <t>msk0190</t>
+  </si>
+  <si>
+    <t>msk0200</t>
+  </si>
+  <si>
+    <t>msk0210</t>
+  </si>
+  <si>
+    <t>msk0220</t>
+  </si>
+  <si>
+    <t>msk0230</t>
+  </si>
+  <si>
+    <t>msk0240</t>
+  </si>
+  <si>
+    <t>msk0250</t>
+  </si>
+  <si>
+    <t>msk0260</t>
+  </si>
+  <si>
+    <t>msk0270</t>
+  </si>
+  <si>
+    <t>msk0280</t>
+  </si>
+  <si>
+    <t>msk0290</t>
+  </si>
+  <si>
+    <t>msk0300</t>
+  </si>
+  <si>
+    <t>msk0310</t>
+  </si>
+  <si>
+    <t>msk0320</t>
+  </si>
+  <si>
+    <t>msk0330</t>
+  </si>
+  <si>
+    <t>msk0340</t>
+  </si>
+  <si>
+    <t>msk0350</t>
+  </si>
+  <si>
+    <t>msk0360</t>
+  </si>
+  <si>
+    <t>msk0370</t>
+  </si>
+  <si>
+    <t>msk0380</t>
+  </si>
+  <si>
+    <t>msk0390</t>
+  </si>
+  <si>
+    <t>msk0400</t>
+  </si>
+  <si>
+    <t>msk0410</t>
+  </si>
+  <si>
+    <t>msk0420</t>
+  </si>
+  <si>
+    <t>msk0430</t>
+  </si>
+  <si>
+    <t>msk0440</t>
+  </si>
+  <si>
+    <t>msk0450</t>
+  </si>
+  <si>
+    <t>msk0460</t>
+  </si>
+  <si>
+    <t>msk0470</t>
+  </si>
+  <si>
+    <t>msk0480</t>
+  </si>
+  <si>
+    <t>msk0490</t>
+  </si>
+  <si>
+    <t>msk0500</t>
+  </si>
+  <si>
+    <t>msk0510</t>
+  </si>
+  <si>
+    <t>msk0520</t>
+  </si>
+  <si>
+    <t>msk0530</t>
+  </si>
+  <si>
+    <t>msk0540</t>
+  </si>
+  <si>
+    <t>msk0550</t>
+  </si>
+  <si>
+    <t>msk0560</t>
+  </si>
+  <si>
+    <t>msk0570</t>
+  </si>
+  <si>
+    <t>msk0580</t>
+  </si>
+  <si>
+    <t>msk0590</t>
+  </si>
+  <si>
+    <t>msk0600</t>
+  </si>
+  <si>
+    <t>msk0610</t>
+  </si>
+  <si>
+    <t>msk0620</t>
+  </si>
+  <si>
+    <t>msk0630</t>
+  </si>
+  <si>
+    <t>msk0640</t>
+  </si>
+  <si>
+    <t>msk0650</t>
+  </si>
+  <si>
+    <t>msk0660</t>
+  </si>
+  <si>
+    <t>msk0670</t>
+  </si>
+  <si>
+    <t>msk0680</t>
+  </si>
+  <si>
+    <t>msk0690</t>
+  </si>
+  <si>
+    <t>msk0700</t>
+  </si>
+  <si>
+    <t>msk0710</t>
+  </si>
+  <si>
+    <t>msk0720</t>
+  </si>
+  <si>
+    <t>msk0730</t>
+  </si>
+  <si>
+    <t>msk0740</t>
+  </si>
+  <si>
+    <t>msk0750</t>
+  </si>
+  <si>
+    <t>msk0760</t>
+  </si>
+  <si>
+    <t>msk0770</t>
+  </si>
+  <si>
+    <t>msk0780</t>
+  </si>
+  <si>
+    <t>msk0790</t>
+  </si>
+  <si>
+    <t>msk0800</t>
+  </si>
+  <si>
+    <t>msk0810</t>
+  </si>
+  <si>
+    <t>msk0820</t>
+  </si>
+  <si>
+    <t>msk0830</t>
+  </si>
+  <si>
+    <t>msk0840</t>
+  </si>
+  <si>
+    <t>msk0850</t>
+  </si>
+  <si>
+    <t>msk0860</t>
+  </si>
+  <si>
+    <t>msk0870</t>
+  </si>
+  <si>
+    <t>msk0880</t>
+  </si>
+  <si>
+    <t>msk0890</t>
+  </si>
+  <si>
+    <t>msk0900</t>
+  </si>
+  <si>
+    <t>msk0910</t>
+  </si>
+  <si>
+    <t>msk0920</t>
+  </si>
+  <si>
+    <t>msk0930</t>
+  </si>
+  <si>
+    <t>msk0940</t>
+  </si>
+  <si>
+    <t>msk0950</t>
+  </si>
+  <si>
+    <t>msk0960</t>
+  </si>
+  <si>
+    <t>msk0970</t>
+  </si>
+  <si>
+    <t>msk0980</t>
+  </si>
+  <si>
+    <t>msk0990</t>
+  </si>
+  <si>
+    <t>msk1000</t>
+  </si>
+  <si>
+    <t>msk1010</t>
+  </si>
+  <si>
+    <t>msk1020</t>
+  </si>
+  <si>
+    <t>msk1030</t>
+  </si>
+  <si>
+    <t>msk1040</t>
+  </si>
+  <si>
+    <t>msk1050</t>
+  </si>
+  <si>
+    <t>msk1060</t>
+  </si>
+  <si>
+    <t>msk1070</t>
+  </si>
+  <si>
+    <t>msk1080</t>
+  </si>
+  <si>
+    <t>msk1090</t>
+  </si>
+  <si>
+    <t>msk1100</t>
+  </si>
+  <si>
+    <t>msk1110</t>
+  </si>
+  <si>
+    <t>msk1120</t>
+  </si>
+  <si>
+    <t>msk1130</t>
+  </si>
+  <si>
+    <t>msk1140</t>
+  </si>
+  <si>
+    <t>msk1150</t>
+  </si>
+  <si>
+    <t>msk1160</t>
+  </si>
+  <si>
+    <t>msk1170</t>
+  </si>
+  <si>
+    <t>msk1180</t>
+  </si>
+  <si>
+    <t>msk1190</t>
+  </si>
+  <si>
+    <t>msk1200</t>
+  </si>
+  <si>
+    <t>msk1210</t>
+  </si>
+  <si>
+    <t>msk1220</t>
+  </si>
+  <si>
+    <t>msk1230</t>
+  </si>
+  <si>
+    <t>msk1240</t>
+  </si>
+  <si>
+    <t>msk1250</t>
+  </si>
+  <si>
+    <t>msk1260</t>
+  </si>
+  <si>
+    <t>msk1270</t>
+  </si>
+  <si>
+    <t>msk1280</t>
+  </si>
+  <si>
+    <t>msk1290</t>
+  </si>
+  <si>
+    <t>msk1300</t>
+  </si>
+  <si>
+    <t>msk1310</t>
+  </si>
+  <si>
+    <t>msk1320</t>
+  </si>
+  <si>
+    <t>msk1330</t>
+  </si>
+  <si>
+    <t>msk1340</t>
+  </si>
+  <si>
+    <t>msk1350</t>
+  </si>
+  <si>
+    <t>msk1360</t>
+  </si>
+  <si>
+    <t>msk1370</t>
+  </si>
+  <si>
+    <t>msk1380</t>
+  </si>
+  <si>
+    <t>msk1390</t>
+  </si>
+  <si>
+    <t>msk1400</t>
+  </si>
+  <si>
+    <t>msk1410</t>
+  </si>
+  <si>
+    <t>msk1420</t>
+  </si>
+  <si>
+    <t>msk1430</t>
+  </si>
+  <si>
+    <t>msk1440</t>
+  </si>
+  <si>
+    <t>msk1450</t>
+  </si>
+  <si>
+    <t>msk1460</t>
+  </si>
+  <si>
+    <t>msk1470</t>
+  </si>
+  <si>
+    <t>msk1480</t>
+  </si>
+  <si>
+    <t>msk1490</t>
+  </si>
+  <si>
+    <t>msk1500</t>
+  </si>
+  <si>
+    <t>msk1510</t>
+  </si>
+  <si>
+    <t>msk1520</t>
+  </si>
+  <si>
+    <t>msk1530</t>
+  </si>
+  <si>
+    <t>msk1540</t>
+  </si>
+  <si>
+    <t>msk1550</t>
+  </si>
+  <si>
+    <t>msk1560</t>
+  </si>
+  <si>
+    <t>msk1570</t>
+  </si>
+  <si>
+    <t>msk1580</t>
+  </si>
+  <si>
+    <t>msk1590</t>
+  </si>
+  <si>
+    <t>msk1600</t>
+  </si>
+  <si>
+    <t>msk1610</t>
+  </si>
+  <si>
+    <t>msk1620</t>
+  </si>
+  <si>
+    <t>msk1630</t>
+  </si>
+  <si>
+    <t>msk1640</t>
+  </si>
+  <si>
+    <t>msk1650</t>
+  </si>
+  <si>
+    <t>msk1660</t>
+  </si>
+  <si>
+    <t>msk1670</t>
+  </si>
+  <si>
+    <t>msk1680</t>
+  </si>
+  <si>
+    <t>msk1690</t>
+  </si>
+  <si>
+    <t>msk1700</t>
+  </si>
+  <si>
+    <t>msk1710</t>
+  </si>
+  <si>
+    <t>msk1720</t>
+  </si>
+  <si>
+    <t>msk1730</t>
+  </si>
+  <si>
+    <t>msk1740</t>
+  </si>
+  <si>
+    <t>msk1750</t>
+  </si>
+  <si>
+    <t>msk1760</t>
+  </si>
+  <si>
+    <t>msk1770</t>
+  </si>
+  <si>
+    <t>msk1780</t>
+  </si>
+  <si>
+    <t>msk1790</t>
+  </si>
+  <si>
+    <t>msk1800</t>
+  </si>
+  <si>
+    <t>msk1810</t>
+  </si>
+  <si>
+    <t>msk1820</t>
+  </si>
+  <si>
+    <t>msk1830</t>
+  </si>
+  <si>
+    <t>msk1840</t>
+  </si>
+  <si>
+    <t>msk1850</t>
+  </si>
+  <si>
+    <t>msk1860</t>
+  </si>
+  <si>
+    <t>msk1870</t>
+  </si>
+  <si>
+    <t>msk1880</t>
+  </si>
+  <si>
+    <t>msk1890</t>
+  </si>
+  <si>
+    <t>msk1900</t>
+  </si>
+  <si>
+    <t>msk1910</t>
+  </si>
+  <si>
+    <t>msk1920</t>
+  </si>
+  <si>
+    <t>msk1930</t>
+  </si>
+  <si>
+    <t>msk1940</t>
+  </si>
+  <si>
+    <t>msk1950</t>
+  </si>
+  <si>
+    <t>msk1960</t>
+  </si>
+  <si>
+    <t>msk1970</t>
+  </si>
+  <si>
+    <t>msk1980</t>
+  </si>
+  <si>
+    <t>msk1990</t>
+  </si>
+  <si>
+    <t>msk2000</t>
+  </si>
+  <si>
+    <t>msk2010</t>
+  </si>
+  <si>
+    <t>msk2020</t>
+  </si>
+  <si>
+    <t>msk2030</t>
+  </si>
+  <si>
+    <t>msk2040</t>
+  </si>
+  <si>
+    <t>msk2050</t>
+  </si>
+  <si>
+    <t>msk2060</t>
+  </si>
+  <si>
+    <t>msk2070</t>
+  </si>
+  <si>
+    <t>msk2080</t>
+  </si>
+  <si>
+    <t>msk2090</t>
+  </si>
+  <si>
+    <t>msk2100</t>
+  </si>
+  <si>
+    <t>msk2110</t>
+  </si>
+  <si>
+    <t>msk2120</t>
+  </si>
+  <si>
+    <t>msk2130</t>
+  </si>
+  <si>
+    <t>msk2140</t>
+  </si>
+  <si>
+    <t>msk2150</t>
+  </si>
+  <si>
+    <t>msk2160</t>
+  </si>
+  <si>
+    <t>msk2170</t>
+  </si>
+  <si>
+    <t>msk2180</t>
+  </si>
+  <si>
+    <t>msk2190</t>
+  </si>
+  <si>
+    <t>msk2200</t>
+  </si>
+  <si>
+    <t>msk2210</t>
+  </si>
+  <si>
+    <t>msk2220</t>
+  </si>
+  <si>
+    <t>msk2230</t>
+  </si>
+  <si>
+    <t>msk2240</t>
+  </si>
+  <si>
+    <t>msk2250</t>
+  </si>
+  <si>
+    <t>msk2260</t>
+  </si>
+  <si>
+    <t>msk2270</t>
+  </si>
+  <si>
+    <t>阿含に於ける四梵住について</t>
+  </si>
+  <si>
+    <t>阿含に於ける生天思想の一断面</t>
+  </si>
+  <si>
+    <t>過去佛について</t>
+  </si>
+  <si>
+    <t>Mahāparinirvāṇasūtra（大般涅槃経）における二・三の問題</t>
+  </si>
+  <si>
+    <t>阿含ニカーヤの偈頌について</t>
+  </si>
+  <si>
+    <t>ベゼクリク第九号窟寺銘文による誓願画の考察</t>
+  </si>
+  <si>
+    <t>誓願について</t>
+  </si>
+  <si>
+    <t>Daśottarasūtra（十上経）について</t>
+  </si>
+  <si>
+    <t>因縁相応の梵文資料</t>
+  </si>
+  <si>
+    <t>Paṇidhi誓願</t>
+  </si>
+  <si>
+    <t>縁起成道説資料</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtraの本文発達について</t>
+  </si>
+  <si>
+    <t>月燈三昧経における仏陀観</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtra研究1</t>
+  </si>
+  <si>
+    <t>仏教における救いについて</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtra 第一章，第十七章，第三十八-三十九章</t>
+  </si>
+  <si>
+    <t>月燈三昧経における戒の問題</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtraの語彙研究</t>
+  </si>
+  <si>
+    <t>Samādhirājasūtraの成立について</t>
+  </si>
+  <si>
+    <t>前田恵学著『原始仏教聖典の成立史研究』における若干の問題について</t>
+  </si>
+  <si>
+    <t>慈悲・愛</t>
+  </si>
+  <si>
+    <t>Rāṣṭrapālaparipṛcchāの語彙</t>
+  </si>
+  <si>
+    <t>Pūrvayogaについて</t>
+  </si>
+  <si>
+    <t>佛伝としての過去現在因果経</t>
+  </si>
+  <si>
+    <t>阿含に関するサンスクリット資料について</t>
+  </si>
+  <si>
+    <t>Praśāntaviniścayaprātihāryasūtraについて</t>
+  </si>
+  <si>
+    <t>マイトリ・ウパニシャッドにおける無我について</t>
+  </si>
+  <si>
+    <t>原始仏教における愛と慈悲</t>
+  </si>
+  <si>
+    <t>Nirātmanとanātman</t>
+  </si>
+  <si>
+    <t>ヤージュニヤヴァルクヤのアートマン説と原始仏教</t>
+  </si>
+  <si>
+    <t>慈悲行の成立に関して</t>
+  </si>
+  <si>
+    <t>大乗における在家と出家の問題</t>
+  </si>
+  <si>
+    <t>Pūrvayoga（過去の因縁）</t>
+  </si>
+  <si>
+    <t>アートマンと光の表象</t>
+  </si>
+  <si>
+    <t>月燈三昧経と無量寿経</t>
+  </si>
+  <si>
+    <t>古ウパニシャドのアートマン（我）と原始仏教</t>
+  </si>
+  <si>
+    <t>サーンクャ（数論）の解脱の主体について</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学における解脱の問題</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学と無我の問題</t>
+  </si>
+  <si>
+    <t>サンスクリット本城邑経（nagara）</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学おけるプルシャ（霊我）の偏在と一・多の問題</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学と無我の問題（序説）</t>
+  </si>
+  <si>
+    <t>プルシャとアートマン</t>
+  </si>
+  <si>
+    <t>ヴァイシェーシカ・スートラにおけるアートマン</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学の霊我とヴェーダーンタ哲学の個我</t>
+  </si>
+  <si>
+    <t>いわゆるパンチャシカ断片（四）とヴェーダーンタ哲学の個我</t>
+  </si>
+  <si>
+    <t>山口恵照著『サーンキヤ哲学体系の展開　究極的な「転迷開悟」の道』（書評）</t>
+  </si>
+  <si>
+    <t>ヴァィシェーシカ哲学におけるアートマン存在の論証</t>
+  </si>
+  <si>
+    <t>ヴァィシェーシカ哲学のアートマン</t>
+  </si>
+  <si>
+    <t>Sāṃkhyakārikā註Jayamaṅgalā</t>
+  </si>
+  <si>
+    <t>プルシャとアートマン（2）</t>
+  </si>
+  <si>
+    <t>渇愛の滅と無所有</t>
+  </si>
+  <si>
+    <t>aṅguṣṭhamātra puruṣa（親指大のプルシャ）について</t>
+  </si>
+  <si>
+    <t>仏教における社会福祉の理念の原型</t>
+  </si>
+  <si>
+    <t>インド語</t>
+  </si>
+  <si>
+    <t>『玉城康四郎博士還暦記念論集　仏の研究』（書評）</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学における業、法・非法とヴァイシェーシカ哲学</t>
+  </si>
+  <si>
+    <t>四無量再考</t>
+  </si>
+  <si>
+    <t>雑阿含経（下）</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学と仏教</t>
+  </si>
+  <si>
+    <t>インドにおける哲学のはじめ</t>
+  </si>
+  <si>
+    <t>丸山孝雄『法華教学研究序説　吉蔵における受容と展開』（書評）</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学における業の問題</t>
+  </si>
+  <si>
+    <t>インド哲学における哲学の原語</t>
+  </si>
+  <si>
+    <t>五火二道説の展開</t>
+  </si>
+  <si>
+    <t>玉城康四郎先生の業績と学風</t>
+  </si>
+  <si>
+    <t>死後の運命と知と業</t>
+  </si>
+  <si>
+    <t>インド哲学史における心の発見</t>
+  </si>
+  <si>
+    <t>知行併合説（samuccaya-vāda）</t>
+  </si>
+  <si>
+    <t>Sannyāsa（捨離、遁世）考</t>
+  </si>
+  <si>
+    <t>無欲と無所有</t>
+  </si>
+  <si>
+    <t>江戸時代におけるインド哲学研究</t>
+  </si>
+  <si>
+    <t>インド哲学における知と行</t>
+  </si>
+  <si>
+    <t>永遠の有と転変</t>
+  </si>
+  <si>
+    <t>霊我とこころ</t>
+  </si>
+  <si>
+    <t>有神論サーンクヤ （Seśvara-Sāṃkhya）</t>
+  </si>
+  <si>
+    <t>金倉圓照『シャンカラの哲学　ブラフマ・スートラ釈論の全訳』上（書評）</t>
+  </si>
+  <si>
+    <t>塚本啓祥『改定増補　初期佛教　教団史の研究』（書評）</t>
+  </si>
+  <si>
+    <t>世界創造神の証明とその批判</t>
+  </si>
+  <si>
+    <t>ベゼクリクの誓願画とその仏陀観</t>
+  </si>
+  <si>
+    <t>無常観と出家志向</t>
+  </si>
+  <si>
+    <t>幸福をめぐる仏教とインド哲学諸学派との比較</t>
+  </si>
+  <si>
+    <t>インド思想史における心の問題</t>
+  </si>
+  <si>
+    <t>仏の成道以前の物語と時間について</t>
+  </si>
+  <si>
+    <t>アルスドルフ記念論文集『ジャイナ教と仏教についての諸研究』（書評）</t>
+  </si>
+  <si>
+    <t>認識から解脱への筋道</t>
+  </si>
+  <si>
+    <t>インドにおける儀礼とその批判</t>
+  </si>
+  <si>
+    <t>出家遁世考</t>
+  </si>
+  <si>
+    <t>火焔にゆらぐベゼクリク千仏洞</t>
+  </si>
+  <si>
+    <t>古代インドの身心観と仏教</t>
+  </si>
+  <si>
+    <t>ユクテｨ・デｨーピカー訳註（一）</t>
+  </si>
+  <si>
+    <t>二元論的世界観の成立とその崩壊の傾向</t>
+  </si>
+  <si>
+    <t>シュヴェーターシュヴァタラ・ウパニシャド第一章考</t>
+  </si>
+  <si>
+    <t>中村了昭『サーンクヤ哲学の研究　インドの二元論』（書評）</t>
+  </si>
+  <si>
+    <t>インド思想史における心の発見</t>
+  </si>
+  <si>
+    <r>
+      <t>Sa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ṃ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>skāra（行）考</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サーンキヤ・ヨーガ学派の人間観</t>
+  </si>
+  <si>
+    <t>Benares-Manuscripts of the Yuktidīpikā</t>
+  </si>
+  <si>
+    <t>ヴァィシェーシカ（勝論）学派の認識論と言語表示</t>
+  </si>
+  <si>
+    <t>諸行考（I）</t>
+  </si>
+  <si>
+    <t>仏教思想研究会編『仏教思想9心』（書評）</t>
+  </si>
+  <si>
+    <t>塚本啓祥訳　ドウ・ヨング『インド文化研究史論集　欧米のマハーバーラタと仏教の研究』書評紹介と批判と補正</t>
+  </si>
+  <si>
+    <t>諸行考（II）</t>
+  </si>
+  <si>
+    <t>日本におけるインド学研究の問題点</t>
+  </si>
+  <si>
+    <t>原始仏教における信の原型</t>
+  </si>
+  <si>
+    <t>塚本啓祥著『法華経の成立と背景　インド文化と大乗仏教』（書評）</t>
+  </si>
+  <si>
+    <t>Vyomavatīにおけるsāmānya（普遍）論</t>
+  </si>
+  <si>
+    <t>ブラーフマナの人間観・神観念と仏教</t>
+  </si>
+  <si>
+    <t>サーンクヤ派の世界観と仏教</t>
+  </si>
+  <si>
+    <t>諸行考（III）</t>
+  </si>
+  <si>
+    <t>ユクティ・ディーピカー訳註（二）</t>
+  </si>
+  <si>
+    <t>智證大師圓珍に歸せられる佛陀観の意義</t>
+  </si>
+  <si>
+    <t>概念とその対象</t>
+  </si>
+  <si>
+    <t>諸行考（IV）</t>
+  </si>
+  <si>
+    <t>仏滅年代論</t>
+  </si>
+  <si>
+    <t>感官のsāmānya-jñāna（Yukti-dīpikā p.102）</t>
+  </si>
+  <si>
+    <t>インド古典にみられる村落の情景</t>
+  </si>
+  <si>
+    <t>ヴァィシェーシカ派とニヤーヤ派における無分別の直接知覚</t>
+  </si>
+  <si>
+    <t>松本照敬『ラーマーヌジャの研究』（書評）</t>
+  </si>
+  <si>
+    <t>インドの自然哲学における人間観</t>
+  </si>
+  <si>
+    <t>般若経類の空思想とウパニシャド</t>
+  </si>
+  <si>
+    <t>インド古来の文法学における語と意味をめぐる問題</t>
+  </si>
+  <si>
+    <t>原始（初期）仏教研究の一反省</t>
+  </si>
+  <si>
+    <t>色即是空（rūpaṃ śūnyatā）原意考</t>
+  </si>
+  <si>
+    <t>インド古代中世哲学における時間論</t>
+  </si>
+  <si>
+    <t>人格主体論（霊魂論）</t>
+  </si>
+  <si>
+    <t>マンダナミシユラの差別否定論と一多の否定による無自性論</t>
+  </si>
+  <si>
+    <t>真実（tattva）と不可説なもの</t>
+  </si>
+  <si>
+    <t>インド古代思想における老苦</t>
+  </si>
+  <si>
+    <t>「信を発こせ」再考</t>
+  </si>
+  <si>
+    <t>インド古代の神観念と古事記の世界</t>
+  </si>
+  <si>
+    <t>インドの主観的観念論</t>
+  </si>
+  <si>
+    <t>Pamuñcantu saddhaṃ再考</t>
+  </si>
+  <si>
+    <t>プラカーシャアーナンダの差別否定論</t>
+  </si>
+  <si>
+    <t>何が真実であるか</t>
+  </si>
+  <si>
+    <t>真実とは何か</t>
+  </si>
+  <si>
+    <t>記紀の神々とインド古代の神観念</t>
+  </si>
+  <si>
+    <t>差別と無差別（インド哲学諸学派間の論争の意味）</t>
+  </si>
+  <si>
+    <t>真実は語られるか</t>
+  </si>
+  <si>
+    <t>主観的観念論dṛṣṭi-sṛṣṭi-vādaの源泉</t>
+  </si>
+  <si>
+    <t>不二一元論学派の誤知論Anirvacanīya-khyāti</t>
+  </si>
+  <si>
+    <t>語りえぬもの</t>
+  </si>
+  <si>
+    <t>インド文化における中国意識</t>
+  </si>
+  <si>
+    <t>空性（Śūnyatā，空であること）考</t>
+  </si>
+  <si>
+    <t>PrakāśânandaからDharmarājâdhvarîndraへ</t>
+  </si>
+  <si>
+    <t>インド実在論の観念性</t>
+  </si>
+  <si>
+    <t>初期の仏教における不殺生と和平の思考</t>
+  </si>
+  <si>
+    <t>精神性（caitanya）をめぐる諸理論</t>
+  </si>
+  <si>
+    <t>精神性（caitanya）考</t>
+  </si>
+  <si>
+    <t>初期の仏教における分析的思考と人間存在</t>
+  </si>
+  <si>
+    <t>無属性梵（nirguṇa brahman）の属性（guṇa）とは何か</t>
+  </si>
+  <si>
+    <t>いのちと仏の本願</t>
+  </si>
+  <si>
+    <t>インド哲学諸派と仏教との交渉</t>
+  </si>
+  <si>
+    <t>Śrīkaṇṭhaの仏教批判</t>
+  </si>
+  <si>
+    <t>後期シャンカラ派における仏教理解</t>
+  </si>
+  <si>
+    <t>大乗経典の創作</t>
+  </si>
+  <si>
+    <t>ヴェーダーンタ諸派における縁起説批判</t>
+  </si>
+  <si>
+    <t>WHAT IS CAITANYA − ETERNAL OR NON-ETERNAL? Asiatische Studien Études Asiatiques LIII·3·1999</t>
+  </si>
+  <si>
+    <t>縁起説と無常説と多元論的分析的思考法（1）</t>
+  </si>
+  <si>
+    <t>仏教の考え方</t>
+  </si>
+  <si>
+    <t>後期シャンカラ派における部派仏教批判</t>
+  </si>
+  <si>
+    <t>A study On the Creation of the Mahāyāna Scriptures (sūtrântâbhinirhāra)</t>
+  </si>
+  <si>
+    <t>大乗経典の想像と創作（abhinirhāra考）</t>
+  </si>
+  <si>
+    <t>故神舘義朗氏の業績と学風を偲ぶ</t>
+  </si>
+  <si>
+    <t>無常（刹那滅）説と本願論</t>
+  </si>
+  <si>
+    <t>無常（刹那滅）説と仏身説（名号観）</t>
+  </si>
+  <si>
+    <t>シャンカラ研究の問題点</t>
+  </si>
+  <si>
+    <t>無常説と刹那滅説の基礎概念</t>
+  </si>
+  <si>
+    <t>無常（刹那滅）説與永遠的佛</t>
+  </si>
+  <si>
+    <t>刹那滅説の基礎</t>
+  </si>
+  <si>
+    <t>Vedāntic Interpretation and Criticism of the Buddhist Dependent Origination (pratītya-samutpāda)</t>
+  </si>
+  <si>
+    <t>A Basic Concept of the Doctrine of Momentariness</t>
+  </si>
+  <si>
+    <t>転変説（pariṇāma-vāda）再考</t>
+  </si>
+  <si>
+    <t>Vyūha （荘厳）考</t>
+  </si>
+  <si>
+    <t>無常説の根底（序説）</t>
+  </si>
+  <si>
+    <t>世親（Vasubandhu）の実在論（実有論）批判</t>
+  </si>
+  <si>
+    <t>開放系の思考</t>
+  </si>
+  <si>
+    <t>極楽の荘厳（vyūha）</t>
+  </si>
+  <si>
+    <t>大乗仏教の起原</t>
+  </si>
+  <si>
+    <t>SADĀNANDA'S CRITICISM OF BUDDHISM</t>
+  </si>
+  <si>
+    <t>説一切有部の実在論（実有論）の基盤</t>
+  </si>
+  <si>
+    <t>最初の仏語</t>
+  </si>
+  <si>
+    <t>諸法考-dhammaの原意の探求と再構築一</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Vyūha</t>
+  </si>
+  <si>
+    <t>原始仏教研究法の検討に基づく五蘊説の考察</t>
+  </si>
+  <si>
+    <t>仏教における法の意味</t>
+  </si>
+  <si>
+    <t>原始仏教資料の新古問題と法の意味</t>
+  </si>
+  <si>
+    <t>存在の把握</t>
+  </si>
+  <si>
+    <t>Early Buddhist Openness and Mahāyāna Buddhism</t>
+  </si>
+  <si>
+    <t>BUDDHISM'S UNIQUE POSSIBILITY TO PURSUE INNER PEACEFULNESS TO AVOID VIOLENCE AND WAR</t>
+  </si>
+  <si>
+    <t>"Reasons and motives for meritorious deeds" (Skt. Puṇyakriyāvastu)</t>
+  </si>
+  <si>
+    <t>殺生か禁欲か</t>
+  </si>
+  <si>
+    <t>知覚（体験）に基づく仏教か理屈（理性）に基づく仏教か</t>
+  </si>
+  <si>
+    <t>『パラマッタ・ジョーティカー』における文法的記述</t>
+  </si>
+  <si>
+    <t>原始仏教聖典の二面性</t>
+  </si>
+  <si>
+    <t>色（rūpa）は物質ではない</t>
+  </si>
+  <si>
+    <t>諸法・存在・真実</t>
+  </si>
+  <si>
+    <t>法（dharma）と存在（bhāva）と存在しているもの（sat）</t>
+  </si>
+  <si>
+    <t>日本仏教における絆の問題：原始仏教との対比</t>
+  </si>
+  <si>
+    <t>空思想の一考察</t>
+  </si>
+  <si>
+    <t>Dharma （dhamma　法）・artha（attha　義）・もの・こと</t>
+  </si>
+  <si>
+    <t>仏教における神観念</t>
+  </si>
+  <si>
+    <t>Controversies between Buddhism and Indian philosophical schools: On Caitanya (sentience</t>
+  </si>
+  <si>
+    <t>石津照璽先生の捉える存在の極相</t>
+  </si>
+  <si>
+    <t>直接知覚（現量）と超能力（神通）</t>
+  </si>
+  <si>
+    <t>空が分かると和が可能になる</t>
+  </si>
+  <si>
+    <t>涅槃</t>
+  </si>
+  <si>
+    <t>三宝</t>
+  </si>
+  <si>
+    <t>新将来の北朝鮮（高麗）仏画（小壁画）の問題と整理</t>
+  </si>
+  <si>
+    <t>高昌ベゼクリク窟寺の仏教再考</t>
+  </si>
+  <si>
+    <t>仏と神の違いの考察</t>
+  </si>
+  <si>
+    <t>南アフリカの新仏教運動 Sat Chit Anand（sac-cid-ānanda）</t>
+  </si>
+  <si>
+    <t>南アフリカの仏教初探</t>
+  </si>
+  <si>
+    <t>村上</t>
+  </si>
+  <si>
+    <t>村上</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ムラカミ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>真完</t>
+  </si>
+  <si>
+    <t>真完</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンカン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murakami</t>
+  </si>
+  <si>
+    <t>Shinkan</t>
+  </si>
+  <si>
+    <t>ムラカミ</t>
+  </si>
+  <si>
+    <t>シンカン</t>
+  </si>
+  <si>
+    <t>東北大学文学部</t>
+  </si>
+  <si>
+    <t>プルシャ オブ ザ サーンクヤ フィロソフィー アンド アートマン オブ ザ ヴェーダーンタ フィロソフィー</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学のプルシャとヴェーダーンタ哲学のアートマン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>On the Four Brahma-vihāras in the Āgamas</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> with reference to the so-called Paficasikha Fragment 4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>いわゆるパンチャシカ断片4に関連して</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Focusing on the Self-Island and Self-Reliance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Journal of the Oriental Institute</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>M. S. University of Baroda</t>
+  </si>
+  <si>
+    <t>Baroda</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>インド</t>
+  </si>
+  <si>
+    <t>古代</t>
+  </si>
+  <si>
+    <t>インド哲学</t>
+  </si>
+  <si>
+    <t>Pañcaśikha</t>
+  </si>
+  <si>
+    <r>
+      <t>Sā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ṃ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>khyakārikā</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>puru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ṣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>論文-75</t>
+  </si>
+  <si>
+    <t>業績目録</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ギョウセキモクロク </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1_New</t>
+  </si>
+  <si>
+    <t>著作目録とINBUDSでページ数が1頁異なる。著作目録の197頁を正とする。</t>
+  </si>
+  <si>
+    <r>
+      <t>Puru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ṣ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a of the Sā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ṃ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>khya Philosophy and ātman of the Vedānta Philosophy</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>著書-1</t>
+  </si>
+  <si>
+    <t>GyosekiWord</t>
+  </si>
+  <si>
+    <t>サーンクヤ哲学研究</t>
+  </si>
+  <si>
+    <t>インド哲学における自我観</t>
+  </si>
+  <si>
+    <t>春秋社</t>
+  </si>
+  <si>
+    <t>22+794+144+23 頁</t>
+  </si>
+  <si>
+    <t>著書-2</t>
+  </si>
+  <si>
+    <t>シルク・ロード遺跡の旅</t>
+  </si>
+  <si>
+    <t>第三文明社</t>
+  </si>
+  <si>
+    <t>8+240 頁</t>
+  </si>
+  <si>
+    <t>著書-3</t>
+  </si>
+  <si>
+    <t>サーンクヤの哲学</t>
+  </si>
+  <si>
+    <t>平楽寺書店</t>
+  </si>
+  <si>
+    <t>13+323+35 頁</t>
+  </si>
+  <si>
+    <t>著書-4</t>
+  </si>
+  <si>
+    <t>西域の仏教 ベゼクリク誓願画考</t>
+  </si>
+  <si>
+    <t>18+350+27 頁</t>
+  </si>
+  <si>
+    <t>著書-5</t>
+  </si>
+  <si>
+    <t>真理の月光</t>
+  </si>
+  <si>
+    <t>講談社</t>
+  </si>
+  <si>
+    <t>7+334+83 頁</t>
+  </si>
+  <si>
+    <t>著書-6</t>
+  </si>
+  <si>
+    <t>仏のことば註ーパラマッタ・ジョーティカー一(一)</t>
+  </si>
+  <si>
+    <t>54+539 頁</t>
+  </si>
+  <si>
+    <t>著書-7</t>
+  </si>
+  <si>
+    <t>仏のことば註ーパラマッタ・ジョーティカー一(二)</t>
+  </si>
+  <si>
+    <t>18+698 頁</t>
+  </si>
+  <si>
+    <t>著書-8</t>
+  </si>
+  <si>
+    <t>仏のことば註ーパラマッタ・ジョーティカー一(三)</t>
+  </si>
+  <si>
+    <t>24+864 頁</t>
+  </si>
+  <si>
+    <t>著書-9</t>
+  </si>
+  <si>
+    <t>仏のことば註ーパラマッタ・ジョーティカー一(四)</t>
+  </si>
+  <si>
+    <t>20+506 頁</t>
+  </si>
+  <si>
+    <t>著書-10</t>
+  </si>
+  <si>
+    <t>仏のことば註ーパラマック・ジョーティカー一研究</t>
+  </si>
+  <si>
+    <t>仏と聖典の伝承</t>
+  </si>
+  <si>
+    <t>7+528+45 頁</t>
+  </si>
+  <si>
+    <t>著書-11</t>
+  </si>
+  <si>
+    <t>インド哲学概論</t>
+  </si>
+  <si>
+    <t>10+451 頁</t>
+  </si>
+  <si>
+    <t>著書-12</t>
+  </si>
+  <si>
+    <t>新国訳大蔵経文殊経典 1</t>
+  </si>
+  <si>
+    <t>大蔵出版</t>
+  </si>
+  <si>
+    <t>513 頁</t>
+  </si>
+  <si>
+    <t>マハーバハーラタと仏教（一）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>論文-1</t>
+  </si>
+  <si>
+    <t>論文-2</t>
+  </si>
+  <si>
+    <t>論文-3</t>
+  </si>
+  <si>
+    <t>論文-4</t>
+  </si>
+  <si>
+    <t>論文-5</t>
+  </si>
+  <si>
+    <t>論文-6</t>
+  </si>
+  <si>
+    <t>論文-7</t>
+  </si>
+  <si>
+    <t>論文-8</t>
+  </si>
+  <si>
+    <t>論文-9</t>
+  </si>
+  <si>
+    <t>論文-10</t>
+  </si>
+  <si>
+    <t>論文-11</t>
+  </si>
+  <si>
+    <t>論文-12</t>
+  </si>
+  <si>
+    <t>論文-13</t>
+  </si>
+  <si>
+    <t>論文-14</t>
+  </si>
+  <si>
+    <t>論文-15</t>
+  </si>
+  <si>
+    <t>論文-16</t>
+  </si>
+  <si>
+    <t>論文-17</t>
+  </si>
+  <si>
+    <t>論文-18</t>
+  </si>
+  <si>
+    <t>論文-19</t>
+  </si>
+  <si>
+    <t>論文-20</t>
+  </si>
+  <si>
+    <t>論文-21</t>
+  </si>
+  <si>
+    <t>論文-22</t>
+  </si>
+  <si>
+    <t>論文-23</t>
+  </si>
+  <si>
+    <t>印度学仏教学研究</t>
+  </si>
+  <si>
+    <t>慈悲あるいは四梵住との関連に於いて</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>仏教論叢</t>
+  </si>
+  <si>
+    <t>法然学会論叢</t>
+  </si>
+  <si>
+    <t>創刊号</t>
+  </si>
+  <si>
+    <t>宗教研究</t>
+  </si>
+  <si>
+    <t>美術研究</t>
+  </si>
+  <si>
+    <t>特に根本説一切有部律における</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>東北印度学宗教学会学報</t>
+  </si>
+  <si>
+    <t>印度古塔出土の煉瓦銘文の内容比定</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ニカーヤ阿含における</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日本仏教学会年報</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38-39 章の比較対照</t>
+  </si>
+  <si>
+    <t>八戸工業高等専門学校紀要</t>
+  </si>
+  <si>
+    <t>東北印度学宗教学会会報</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>初期仏教資料における</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>東北印度学宗教学会論集</t>
+  </si>
+  <si>
+    <t>論文-25</t>
+  </si>
+  <si>
+    <t>レグルス文庫 145</t>
+  </si>
+  <si>
+    <t>インドの二元論</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サーラ叢書 27</t>
+  </si>
+  <si>
+    <t>インド古典叢書</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,8 +2209,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +2411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,11 +2665,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,6 +2746,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="ゲスト ユーザー" id="{8E2EC0A6-2AA7-AB4E-9D60-E8CE1244CA83}" userId="" providerId="Windows Live"/>
+  <person displayName="克宏 小形" id="{71B01444-6242-4047-9450-DECEB94939F0}" userId="93f37494ca9b136a" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,13 +3070,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="S18" dT="2024-12-20T15:19:13.89" personId="{8E2EC0A6-2AA7-AB4E-9D60-E8CE1244CA83}" id="{DDB04F1B-6BF2-374E-9D6C-BF36742B96B3}" done="1">
+    <text>「」不要？</text>
+  </threadedComment>
+  <threadedComment ref="S72" dT="2024-12-21T03:51:02.31" personId="{8E2EC0A6-2AA7-AB4E-9D60-E8CE1244CA83}" id="{9210725B-AF37-D140-B09D-9BC04C4C2C30}">
+    <text>「バハ」の「ハ」は捨仮名</text>
+  </threadedComment>
+  <threadedComment ref="S72" dT="2025-08-08T13:43:11.27" personId="{71B01444-6242-4047-9450-DECEB94939F0}" id="{FDC549E4-69D7-C949-A4D0-5C372FE7BD37}" parentId="{9210725B-AF37-D140-B09D-9BC04C4C2C30}">
+    <text>小書き「ハ」のの入力方法があるか、調べてみます。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B5C9C-E65E-5147-8F7A-F897A99FA9F3}">
-  <dimension ref="A1:AW1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B5C9C-E65E-5147-8F7A-F897A99FA9F3}">
+  <dimension ref="A1:AW240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS10" sqref="AS10"/>
+      <selection pane="bottomLeft" activeCell="B229" sqref="B229:AM240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1173,7 +3099,7 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1185,30 +3111,31 @@
     <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="88.140625" customWidth="1"/>
+    <col min="20" max="20" width="80.5703125" customWidth="1"/>
+    <col min="21" max="21" width="44.28515625" customWidth="1"/>
+    <col min="22" max="22" width="49.42578125" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" customWidth="1"/>
+    <col min="24" max="24" width="31" customWidth="1"/>
+    <col min="25" max="25" width="38" customWidth="1"/>
     <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="46.42578125" customWidth="1"/>
     <col min="30" max="30" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.28515625" customWidth="1"/>
     <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.42578125" style="4" customWidth="1"/>
     <col min="41" max="41" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.140625" customWidth="1"/>
+    <col min="43" max="43" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1335,7 +3262,7 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
@@ -1364,10 +3291,6878 @@
       </c>
       <c r="AW1" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M2" t="s">
+        <v>491</v>
+      </c>
+      <c r="S2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z2">
+        <v>154</v>
+      </c>
+      <c r="AA2">
+        <v>155</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>21976</v>
+      </c>
+      <c r="AM2">
+        <v>8</v>
+      </c>
+      <c r="AN2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C3" t="s">
+        <v>521</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>489</v>
+      </c>
+      <c r="M3" t="s">
+        <v>491</v>
+      </c>
+      <c r="S3" t="s">
+        <v>277</v>
+      </c>
+      <c r="U3" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z3">
+        <v>80</v>
+      </c>
+      <c r="AA3">
+        <v>81</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>590</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>21976</v>
+      </c>
+      <c r="AM3">
+        <v>8</v>
+      </c>
+      <c r="AN3"/>
+    </row>
+    <row r="4" spans="1:49">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" t="s">
+        <v>521</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>489</v>
+      </c>
+      <c r="M4" t="s">
+        <v>491</v>
+      </c>
+      <c r="S4" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z4">
+        <v>77</v>
+      </c>
+      <c r="AA4">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>22221</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>592</v>
+      </c>
+      <c r="AN4"/>
+    </row>
+    <row r="5" spans="1:49">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" t="s">
+        <v>521</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>489</v>
+      </c>
+      <c r="M5" t="s">
+        <v>491</v>
+      </c>
+      <c r="S5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z5">
+        <v>128</v>
+      </c>
+      <c r="AA5">
+        <v>129</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>22341</v>
+      </c>
+      <c r="AM5">
+        <v>9</v>
+      </c>
+      <c r="AN5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C6" t="s">
+        <v>521</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M6" t="s">
+        <v>491</v>
+      </c>
+      <c r="S6" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y6">
+        <v>93</v>
+      </c>
+      <c r="Z6">
+        <v>94</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>593</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>22616</v>
+      </c>
+      <c r="AN6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C7" t="s">
+        <v>521</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M7" t="s">
+        <v>491</v>
+      </c>
+      <c r="S7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z7">
+        <v>286</v>
+      </c>
+      <c r="AA7">
+        <v>289</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>22647</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" t="s">
+        <v>521</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>489</v>
+      </c>
+      <c r="M8" t="s">
+        <v>491</v>
+      </c>
+      <c r="S8" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y8">
+        <v>27</v>
+      </c>
+      <c r="Z8">
+        <v>44</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>594</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>22706</v>
+      </c>
+      <c r="AN8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C9" t="s">
+        <v>521</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>489</v>
+      </c>
+      <c r="M9" t="s">
+        <v>491</v>
+      </c>
+      <c r="S9" t="s">
+        <v>282</v>
+      </c>
+      <c r="U9" t="s">
+        <v>595</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>22767</v>
+      </c>
+      <c r="AN9"/>
+    </row>
+    <row r="10" spans="1:49">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C10" t="s">
+        <v>521</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>489</v>
+      </c>
+      <c r="M10" t="s">
+        <v>491</v>
+      </c>
+      <c r="S10" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y10">
+        <v>112</v>
+      </c>
+      <c r="Z10">
+        <v>113</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>593</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>23012</v>
+      </c>
+      <c r="AN10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C11" t="s">
+        <v>521</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>489</v>
+      </c>
+      <c r="M11" t="s">
+        <v>491</v>
+      </c>
+      <c r="S11" t="s">
+        <v>284</v>
+      </c>
+      <c r="U11" t="s">
+        <v>597</v>
+      </c>
+      <c r="X11">
+        <v>158</v>
+      </c>
+      <c r="Y11">
+        <v>161</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>23377</v>
+      </c>
+      <c r="AM11">
+        <v>12</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C12" t="s">
+        <v>521</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>489</v>
+      </c>
+      <c r="M12" t="s">
+        <v>491</v>
+      </c>
+      <c r="S12" t="s">
+        <v>285</v>
+      </c>
+      <c r="U12" t="s">
+        <v>598</v>
+      </c>
+      <c r="X12">
+        <v>42</v>
+      </c>
+      <c r="Y12">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>23651</v>
+      </c>
+      <c r="AM12">
+        <v>10</v>
+      </c>
+      <c r="AN12"/>
+    </row>
+    <row r="13" spans="1:49">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" t="s">
+        <v>521</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>489</v>
+      </c>
+      <c r="M13" t="s">
+        <v>491</v>
+      </c>
+      <c r="S13" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z13">
+        <v>187</v>
+      </c>
+      <c r="AA13">
+        <v>191</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>23743</v>
+      </c>
+      <c r="AM13">
+        <v>13</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" t="s">
+        <v>521</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>489</v>
+      </c>
+      <c r="M14" t="s">
+        <v>491</v>
+      </c>
+      <c r="S14" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y14">
+        <v>199</v>
+      </c>
+      <c r="Z14">
+        <v>204</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>24167</v>
+      </c>
+      <c r="AM14">
+        <v>14</v>
+      </c>
+      <c r="AN14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" t="s">
+        <v>521</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>489</v>
+      </c>
+      <c r="M15" t="s">
+        <v>491</v>
+      </c>
+      <c r="S15" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z15">
+        <v>105</v>
+      </c>
+      <c r="AA15">
+        <v>120</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>599</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>24167</v>
+      </c>
+      <c r="AM15">
+        <v>31</v>
+      </c>
+      <c r="AN15"/>
+    </row>
+    <row r="16" spans="1:49">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C16" t="s">
+        <v>521</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>489</v>
+      </c>
+      <c r="M16" t="s">
+        <v>491</v>
+      </c>
+      <c r="S16" t="s">
+        <v>289</v>
+      </c>
+      <c r="U16" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z16">
+        <v>65</v>
+      </c>
+      <c r="AA16">
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>601</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>24442</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16"/>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C17" t="s">
+        <v>521</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>489</v>
+      </c>
+      <c r="M17" t="s">
+        <v>491</v>
+      </c>
+      <c r="S17" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z17">
+        <v>13</v>
+      </c>
+      <c r="AA17">
+        <v>14</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>602</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>24473</v>
+      </c>
+      <c r="AM17">
+        <v>3</v>
+      </c>
+      <c r="AN17"/>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" t="s">
+        <v>521</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>489</v>
+      </c>
+      <c r="M18" t="s">
+        <v>491</v>
+      </c>
+      <c r="S18" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y18">
+        <v>234</v>
+      </c>
+      <c r="Z18">
+        <v>240</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>24532</v>
+      </c>
+      <c r="AM18">
+        <v>15</v>
+      </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" t="s">
+        <v>521</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>489</v>
+      </c>
+      <c r="M19" t="s">
+        <v>491</v>
+      </c>
+      <c r="S19" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z19">
+        <v>47</v>
+      </c>
+      <c r="AA19">
+        <v>65</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>599</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>24532</v>
+      </c>
+      <c r="AM19">
+        <v>32</v>
+      </c>
+      <c r="AN19"/>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>583</v>
+      </c>
+      <c r="C20" t="s">
+        <v>521</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>489</v>
+      </c>
+      <c r="M20" t="s">
+        <v>491</v>
+      </c>
+      <c r="S20" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y20">
+        <v>72</v>
+      </c>
+      <c r="Z20">
+        <v>109</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>601</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>24807</v>
+      </c>
+      <c r="AM20">
+        <v>2</v>
+      </c>
+      <c r="AN20"/>
+    </row>
+    <row r="21" spans="1:40">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C21" t="s">
+        <v>521</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>489</v>
+      </c>
+      <c r="M21" t="s">
+        <v>491</v>
+      </c>
+      <c r="S21" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y21">
+        <v>359</v>
+      </c>
+      <c r="Z21">
+        <v>362</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>24898</v>
+      </c>
+      <c r="AM21">
+        <v>16</v>
+      </c>
+      <c r="AN21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" t="s">
+        <v>521</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>489</v>
+      </c>
+      <c r="M22" t="s">
+        <v>491</v>
+      </c>
+      <c r="S22" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y22">
+        <v>136</v>
+      </c>
+      <c r="Z22">
+        <v>146</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>603</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>24898</v>
+      </c>
+      <c r="AM22">
+        <v>31</v>
+      </c>
+      <c r="AN22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>586</v>
+      </c>
+      <c r="C23" t="s">
+        <v>521</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>489</v>
+      </c>
+      <c r="M23" t="s">
+        <v>491</v>
+      </c>
+      <c r="S23" t="s">
+        <v>296</v>
+      </c>
+      <c r="U23" t="s">
+        <v>604</v>
+      </c>
+      <c r="X23">
+        <v>68</v>
+      </c>
+      <c r="Y23">
+        <v>69</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>605</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>24959</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23"/>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C24" t="s">
+        <v>521</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>489</v>
+      </c>
+      <c r="M24" t="s">
+        <v>491</v>
+      </c>
+      <c r="S24" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y24">
+        <v>61</v>
+      </c>
+      <c r="Z24">
+        <v>83</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>601</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>25173</v>
+      </c>
+      <c r="AM24">
+        <v>3</v>
+      </c>
+      <c r="AN24"/>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>606</v>
+      </c>
+      <c r="C25" t="s">
+        <v>521</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>489</v>
+      </c>
+      <c r="M25" t="s">
+        <v>491</v>
+      </c>
+      <c r="S25" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y25">
+        <v>61</v>
+      </c>
+      <c r="Z25">
+        <v>83</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>25263</v>
+      </c>
+      <c r="AM25">
+        <v>17</v>
+      </c>
+      <c r="AN25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s">
+        <v>490</v>
+      </c>
+      <c r="M26" t="s">
+        <v>492</v>
+      </c>
+      <c r="N26" t="s">
+        <v>493</v>
+      </c>
+      <c r="O26" t="s">
+        <v>494</v>
+      </c>
+      <c r="P26" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>496</v>
+      </c>
+      <c r="S26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" t="s">
+        <v>490</v>
+      </c>
+      <c r="M27" t="s">
+        <v>492</v>
+      </c>
+      <c r="N27" t="s">
+        <v>493</v>
+      </c>
+      <c r="O27" t="s">
+        <v>494</v>
+      </c>
+      <c r="P27" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>496</v>
+      </c>
+      <c r="S27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" t="s">
+        <v>490</v>
+      </c>
+      <c r="M28" t="s">
+        <v>492</v>
+      </c>
+      <c r="N28" t="s">
+        <v>493</v>
+      </c>
+      <c r="O28" t="s">
+        <v>494</v>
+      </c>
+      <c r="P28" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>496</v>
+      </c>
+      <c r="S28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" t="s">
+        <v>490</v>
+      </c>
+      <c r="M29" t="s">
+        <v>492</v>
+      </c>
+      <c r="N29" t="s">
+        <v>493</v>
+      </c>
+      <c r="O29" t="s">
+        <v>494</v>
+      </c>
+      <c r="P29" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>496</v>
+      </c>
+      <c r="S29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>490</v>
+      </c>
+      <c r="M30" t="s">
+        <v>492</v>
+      </c>
+      <c r="N30" t="s">
+        <v>493</v>
+      </c>
+      <c r="O30" t="s">
+        <v>494</v>
+      </c>
+      <c r="P30" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>496</v>
+      </c>
+      <c r="S30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>490</v>
+      </c>
+      <c r="M31" t="s">
+        <v>492</v>
+      </c>
+      <c r="N31" t="s">
+        <v>493</v>
+      </c>
+      <c r="O31" t="s">
+        <v>494</v>
+      </c>
+      <c r="P31" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>496</v>
+      </c>
+      <c r="S31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>490</v>
+      </c>
+      <c r="M32" t="s">
+        <v>492</v>
+      </c>
+      <c r="N32" t="s">
+        <v>493</v>
+      </c>
+      <c r="O32" t="s">
+        <v>494</v>
+      </c>
+      <c r="P32" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>496</v>
+      </c>
+      <c r="S32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33" t="s">
+        <v>490</v>
+      </c>
+      <c r="M33" t="s">
+        <v>492</v>
+      </c>
+      <c r="N33" t="s">
+        <v>493</v>
+      </c>
+      <c r="O33" t="s">
+        <v>494</v>
+      </c>
+      <c r="P33" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>496</v>
+      </c>
+      <c r="S33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" t="s">
+        <v>490</v>
+      </c>
+      <c r="M34" t="s">
+        <v>492</v>
+      </c>
+      <c r="N34" t="s">
+        <v>493</v>
+      </c>
+      <c r="O34" t="s">
+        <v>494</v>
+      </c>
+      <c r="P34" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>496</v>
+      </c>
+      <c r="S34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" t="s">
+        <v>490</v>
+      </c>
+      <c r="M35" t="s">
+        <v>492</v>
+      </c>
+      <c r="N35" t="s">
+        <v>493</v>
+      </c>
+      <c r="O35" t="s">
+        <v>494</v>
+      </c>
+      <c r="P35" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>496</v>
+      </c>
+      <c r="S35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="L36" t="s">
+        <v>490</v>
+      </c>
+      <c r="M36" t="s">
+        <v>492</v>
+      </c>
+      <c r="N36" t="s">
+        <v>493</v>
+      </c>
+      <c r="O36" t="s">
+        <v>494</v>
+      </c>
+      <c r="P36" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>496</v>
+      </c>
+      <c r="S36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" t="s">
+        <v>490</v>
+      </c>
+      <c r="M37" t="s">
+        <v>492</v>
+      </c>
+      <c r="N37" t="s">
+        <v>493</v>
+      </c>
+      <c r="O37" t="s">
+        <v>494</v>
+      </c>
+      <c r="P37" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>496</v>
+      </c>
+      <c r="S37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" t="s">
+        <v>490</v>
+      </c>
+      <c r="M38" t="s">
+        <v>492</v>
+      </c>
+      <c r="N38" t="s">
+        <v>493</v>
+      </c>
+      <c r="O38" t="s">
+        <v>494</v>
+      </c>
+      <c r="P38" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>496</v>
+      </c>
+      <c r="S38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39" t="s">
+        <v>490</v>
+      </c>
+      <c r="M39" t="s">
+        <v>492</v>
+      </c>
+      <c r="N39" t="s">
+        <v>493</v>
+      </c>
+      <c r="O39" t="s">
+        <v>494</v>
+      </c>
+      <c r="P39" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>496</v>
+      </c>
+      <c r="S39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" t="s">
+        <v>490</v>
+      </c>
+      <c r="M40" t="s">
+        <v>492</v>
+      </c>
+      <c r="N40" t="s">
+        <v>493</v>
+      </c>
+      <c r="O40" t="s">
+        <v>494</v>
+      </c>
+      <c r="P40" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>496</v>
+      </c>
+      <c r="S40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" t="s">
+        <v>490</v>
+      </c>
+      <c r="M41" t="s">
+        <v>492</v>
+      </c>
+      <c r="N41" t="s">
+        <v>493</v>
+      </c>
+      <c r="O41" t="s">
+        <v>494</v>
+      </c>
+      <c r="P41" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>496</v>
+      </c>
+      <c r="S41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L42" t="s">
+        <v>490</v>
+      </c>
+      <c r="M42" t="s">
+        <v>492</v>
+      </c>
+      <c r="N42" t="s">
+        <v>493</v>
+      </c>
+      <c r="O42" t="s">
+        <v>494</v>
+      </c>
+      <c r="P42" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>496</v>
+      </c>
+      <c r="S42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="L43" t="s">
+        <v>490</v>
+      </c>
+      <c r="M43" t="s">
+        <v>492</v>
+      </c>
+      <c r="N43" t="s">
+        <v>493</v>
+      </c>
+      <c r="O43" t="s">
+        <v>494</v>
+      </c>
+      <c r="P43" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>496</v>
+      </c>
+      <c r="S43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" t="s">
+        <v>490</v>
+      </c>
+      <c r="M44" t="s">
+        <v>492</v>
+      </c>
+      <c r="N44" t="s">
+        <v>493</v>
+      </c>
+      <c r="O44" t="s">
+        <v>494</v>
+      </c>
+      <c r="P44" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>496</v>
+      </c>
+      <c r="S44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L45" t="s">
+        <v>490</v>
+      </c>
+      <c r="M45" t="s">
+        <v>492</v>
+      </c>
+      <c r="N45" t="s">
+        <v>493</v>
+      </c>
+      <c r="O45" t="s">
+        <v>494</v>
+      </c>
+      <c r="P45" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>496</v>
+      </c>
+      <c r="S45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" t="s">
+        <v>490</v>
+      </c>
+      <c r="M46" t="s">
+        <v>492</v>
+      </c>
+      <c r="N46" t="s">
+        <v>493</v>
+      </c>
+      <c r="O46" t="s">
+        <v>494</v>
+      </c>
+      <c r="P46" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>496</v>
+      </c>
+      <c r="S46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="L47" t="s">
+        <v>490</v>
+      </c>
+      <c r="M47" t="s">
+        <v>492</v>
+      </c>
+      <c r="N47" t="s">
+        <v>493</v>
+      </c>
+      <c r="O47" t="s">
+        <v>494</v>
+      </c>
+      <c r="P47" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>496</v>
+      </c>
+      <c r="S47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" t="s">
+        <v>490</v>
+      </c>
+      <c r="M48" t="s">
+        <v>492</v>
+      </c>
+      <c r="N48" t="s">
+        <v>493</v>
+      </c>
+      <c r="O48" t="s">
+        <v>494</v>
+      </c>
+      <c r="P48" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>496</v>
+      </c>
+      <c r="S48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="L49" t="s">
+        <v>490</v>
+      </c>
+      <c r="M49" t="s">
+        <v>492</v>
+      </c>
+      <c r="N49" t="s">
+        <v>493</v>
+      </c>
+      <c r="O49" t="s">
+        <v>494</v>
+      </c>
+      <c r="P49" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>496</v>
+      </c>
+      <c r="S49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="L50" t="s">
+        <v>490</v>
+      </c>
+      <c r="M50" t="s">
+        <v>492</v>
+      </c>
+      <c r="N50" t="s">
+        <v>493</v>
+      </c>
+      <c r="O50" t="s">
+        <v>494</v>
+      </c>
+      <c r="P50" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>496</v>
+      </c>
+      <c r="S50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="L51" t="s">
+        <v>490</v>
+      </c>
+      <c r="M51" t="s">
+        <v>492</v>
+      </c>
+      <c r="N51" t="s">
+        <v>493</v>
+      </c>
+      <c r="O51" t="s">
+        <v>494</v>
+      </c>
+      <c r="P51" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>496</v>
+      </c>
+      <c r="S51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L52" t="s">
+        <v>490</v>
+      </c>
+      <c r="M52" t="s">
+        <v>492</v>
+      </c>
+      <c r="N52" t="s">
+        <v>493</v>
+      </c>
+      <c r="O52" t="s">
+        <v>494</v>
+      </c>
+      <c r="P52" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>496</v>
+      </c>
+      <c r="S52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="L53" t="s">
+        <v>490</v>
+      </c>
+      <c r="M53" t="s">
+        <v>492</v>
+      </c>
+      <c r="N53" t="s">
+        <v>493</v>
+      </c>
+      <c r="O53" t="s">
+        <v>494</v>
+      </c>
+      <c r="P53" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>496</v>
+      </c>
+      <c r="S53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="L54" t="s">
+        <v>490</v>
+      </c>
+      <c r="M54" t="s">
+        <v>492</v>
+      </c>
+      <c r="N54" t="s">
+        <v>493</v>
+      </c>
+      <c r="O54" t="s">
+        <v>494</v>
+      </c>
+      <c r="P54" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>496</v>
+      </c>
+      <c r="S54" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" t="s">
+        <v>490</v>
+      </c>
+      <c r="M55" t="s">
+        <v>492</v>
+      </c>
+      <c r="N55" t="s">
+        <v>493</v>
+      </c>
+      <c r="O55" t="s">
+        <v>494</v>
+      </c>
+      <c r="P55" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>496</v>
+      </c>
+      <c r="S55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="L56" t="s">
+        <v>490</v>
+      </c>
+      <c r="M56" t="s">
+        <v>492</v>
+      </c>
+      <c r="N56" t="s">
+        <v>493</v>
+      </c>
+      <c r="O56" t="s">
+        <v>494</v>
+      </c>
+      <c r="P56" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>496</v>
+      </c>
+      <c r="S56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="L57" t="s">
+        <v>490</v>
+      </c>
+      <c r="M57" t="s">
+        <v>492</v>
+      </c>
+      <c r="N57" t="s">
+        <v>493</v>
+      </c>
+      <c r="O57" t="s">
+        <v>494</v>
+      </c>
+      <c r="P57" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>496</v>
+      </c>
+      <c r="S57" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="L58" t="s">
+        <v>490</v>
+      </c>
+      <c r="M58" t="s">
+        <v>492</v>
+      </c>
+      <c r="N58" t="s">
+        <v>493</v>
+      </c>
+      <c r="O58" t="s">
+        <v>494</v>
+      </c>
+      <c r="P58" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>496</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s">
+        <v>490</v>
+      </c>
+      <c r="M59" t="s">
+        <v>492</v>
+      </c>
+      <c r="N59" t="s">
+        <v>493</v>
+      </c>
+      <c r="O59" t="s">
+        <v>494</v>
+      </c>
+      <c r="P59" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>496</v>
+      </c>
+      <c r="S59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" t="s">
+        <v>490</v>
+      </c>
+      <c r="M60" t="s">
+        <v>492</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>494</v>
+      </c>
+      <c r="P60" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>496</v>
+      </c>
+      <c r="S60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="L61" t="s">
+        <v>490</v>
+      </c>
+      <c r="M61" t="s">
+        <v>492</v>
+      </c>
+      <c r="N61" t="s">
+        <v>493</v>
+      </c>
+      <c r="O61" t="s">
+        <v>494</v>
+      </c>
+      <c r="P61" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>496</v>
+      </c>
+      <c r="S61" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="L62" t="s">
+        <v>490</v>
+      </c>
+      <c r="M62" t="s">
+        <v>492</v>
+      </c>
+      <c r="N62" t="s">
+        <v>493</v>
+      </c>
+      <c r="O62" t="s">
+        <v>494</v>
+      </c>
+      <c r="P62" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>496</v>
+      </c>
+      <c r="S62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="L63" t="s">
+        <v>490</v>
+      </c>
+      <c r="M63" t="s">
+        <v>492</v>
+      </c>
+      <c r="N63" t="s">
+        <v>493</v>
+      </c>
+      <c r="O63" t="s">
+        <v>494</v>
+      </c>
+      <c r="P63" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>496</v>
+      </c>
+      <c r="S63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="L64" t="s">
+        <v>490</v>
+      </c>
+      <c r="M64" t="s">
+        <v>492</v>
+      </c>
+      <c r="N64" t="s">
+        <v>493</v>
+      </c>
+      <c r="O64" t="s">
+        <v>494</v>
+      </c>
+      <c r="P64" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>496</v>
+      </c>
+      <c r="S64" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="L65" t="s">
+        <v>490</v>
+      </c>
+      <c r="M65" t="s">
+        <v>492</v>
+      </c>
+      <c r="N65" t="s">
+        <v>493</v>
+      </c>
+      <c r="O65" t="s">
+        <v>494</v>
+      </c>
+      <c r="P65" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>496</v>
+      </c>
+      <c r="S65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="L66" t="s">
+        <v>490</v>
+      </c>
+      <c r="M66" t="s">
+        <v>492</v>
+      </c>
+      <c r="N66" t="s">
+        <v>493</v>
+      </c>
+      <c r="O66" t="s">
+        <v>494</v>
+      </c>
+      <c r="P66" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>496</v>
+      </c>
+      <c r="S66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="L67" t="s">
+        <v>490</v>
+      </c>
+      <c r="M67" t="s">
+        <v>492</v>
+      </c>
+      <c r="N67" t="s">
+        <v>493</v>
+      </c>
+      <c r="O67" t="s">
+        <v>494</v>
+      </c>
+      <c r="P67" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>496</v>
+      </c>
+      <c r="S67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="L68" t="s">
+        <v>490</v>
+      </c>
+      <c r="M68" t="s">
+        <v>492</v>
+      </c>
+      <c r="N68" t="s">
+        <v>493</v>
+      </c>
+      <c r="O68" t="s">
+        <v>494</v>
+      </c>
+      <c r="P68" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>496</v>
+      </c>
+      <c r="S68" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="L69" t="s">
+        <v>490</v>
+      </c>
+      <c r="M69" t="s">
+        <v>492</v>
+      </c>
+      <c r="N69" t="s">
+        <v>493</v>
+      </c>
+      <c r="O69" t="s">
+        <v>494</v>
+      </c>
+      <c r="P69" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>496</v>
+      </c>
+      <c r="S69" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="L70" t="s">
+        <v>490</v>
+      </c>
+      <c r="M70" t="s">
+        <v>492</v>
+      </c>
+      <c r="N70" t="s">
+        <v>493</v>
+      </c>
+      <c r="O70" t="s">
+        <v>494</v>
+      </c>
+      <c r="P70" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>496</v>
+      </c>
+      <c r="S70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="L71" t="s">
+        <v>490</v>
+      </c>
+      <c r="M71" t="s">
+        <v>492</v>
+      </c>
+      <c r="N71" t="s">
+        <v>493</v>
+      </c>
+      <c r="O71" t="s">
+        <v>494</v>
+      </c>
+      <c r="P71" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>496</v>
+      </c>
+      <c r="S71" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="L72" t="s">
+        <v>490</v>
+      </c>
+      <c r="M72" t="s">
+        <v>492</v>
+      </c>
+      <c r="N72" t="s">
+        <v>493</v>
+      </c>
+      <c r="O72" t="s">
+        <v>494</v>
+      </c>
+      <c r="P72" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>496</v>
+      </c>
+      <c r="S72" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="L73" t="s">
+        <v>490</v>
+      </c>
+      <c r="M73" t="s">
+        <v>492</v>
+      </c>
+      <c r="N73" t="s">
+        <v>493</v>
+      </c>
+      <c r="O73" t="s">
+        <v>494</v>
+      </c>
+      <c r="P73" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>496</v>
+      </c>
+      <c r="S73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="L74" t="s">
+        <v>490</v>
+      </c>
+      <c r="M74" t="s">
+        <v>492</v>
+      </c>
+      <c r="N74" t="s">
+        <v>493</v>
+      </c>
+      <c r="O74" t="s">
+        <v>494</v>
+      </c>
+      <c r="P74" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>496</v>
+      </c>
+      <c r="S74" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="L75" t="s">
+        <v>490</v>
+      </c>
+      <c r="M75" t="s">
+        <v>492</v>
+      </c>
+      <c r="N75" t="s">
+        <v>493</v>
+      </c>
+      <c r="O75" t="s">
+        <v>494</v>
+      </c>
+      <c r="P75" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>496</v>
+      </c>
+      <c r="S75" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="L76" t="s">
+        <v>490</v>
+      </c>
+      <c r="M76" t="s">
+        <v>492</v>
+      </c>
+      <c r="N76" t="s">
+        <v>493</v>
+      </c>
+      <c r="O76" t="s">
+        <v>494</v>
+      </c>
+      <c r="P76" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>496</v>
+      </c>
+      <c r="S76" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="L77" t="s">
+        <v>490</v>
+      </c>
+      <c r="M77" t="s">
+        <v>492</v>
+      </c>
+      <c r="N77" t="s">
+        <v>493</v>
+      </c>
+      <c r="O77" t="s">
+        <v>494</v>
+      </c>
+      <c r="P77" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>496</v>
+      </c>
+      <c r="S77" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>514</v>
+      </c>
+      <c r="C78" t="s">
+        <v>515</v>
+      </c>
+      <c r="D78" t="s">
+        <v>516</v>
+      </c>
+      <c r="E78" t="s">
+        <v>517</v>
+      </c>
+      <c r="F78" t="s">
+        <v>519</v>
+      </c>
+      <c r="G78" t="s">
+        <v>519</v>
+      </c>
+      <c r="H78" t="s">
+        <v>519</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>490</v>
+      </c>
+      <c r="M78" t="s">
+        <v>492</v>
+      </c>
+      <c r="N78" t="s">
+        <v>493</v>
+      </c>
+      <c r="O78" t="s">
+        <v>494</v>
+      </c>
+      <c r="P78" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>496</v>
+      </c>
+      <c r="R78" t="s">
+        <v>497</v>
+      </c>
+      <c r="S78" t="s">
+        <v>518</v>
+      </c>
+      <c r="T78" t="s">
+        <v>498</v>
+      </c>
+      <c r="U78" t="s">
+        <v>501</v>
+      </c>
+      <c r="V78" t="s">
+        <v>499</v>
+      </c>
+      <c r="W78" t="s">
+        <v>500</v>
+      </c>
+      <c r="X78" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z78">
+        <v>169</v>
+      </c>
+      <c r="AA78">
+        <v>197</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>504</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>505</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>506</v>
+      </c>
+      <c r="AL78" s="2">
+        <v>29402</v>
+      </c>
+      <c r="AM78">
+        <v>24</v>
+      </c>
+      <c r="AN78" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="AO78">
+        <v>170</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>508</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>510</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>511</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>512</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="L79" t="s">
+        <v>490</v>
+      </c>
+      <c r="M79" t="s">
+        <v>492</v>
+      </c>
+      <c r="N79" t="s">
+        <v>493</v>
+      </c>
+      <c r="O79" t="s">
+        <v>494</v>
+      </c>
+      <c r="P79" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>496</v>
+      </c>
+      <c r="S79" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="L80" t="s">
+        <v>490</v>
+      </c>
+      <c r="M80" t="s">
+        <v>492</v>
+      </c>
+      <c r="N80" t="s">
+        <v>493</v>
+      </c>
+      <c r="O80" t="s">
+        <v>494</v>
+      </c>
+      <c r="P80" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>496</v>
+      </c>
+      <c r="S80" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="L81" t="s">
+        <v>490</v>
+      </c>
+      <c r="M81" t="s">
+        <v>492</v>
+      </c>
+      <c r="N81" t="s">
+        <v>493</v>
+      </c>
+      <c r="O81" t="s">
+        <v>494</v>
+      </c>
+      <c r="P81" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>496</v>
+      </c>
+      <c r="S81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+      <c r="L82" t="s">
+        <v>490</v>
+      </c>
+      <c r="M82" t="s">
+        <v>492</v>
+      </c>
+      <c r="N82" t="s">
+        <v>493</v>
+      </c>
+      <c r="O82" t="s">
+        <v>494</v>
+      </c>
+      <c r="P82" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>496</v>
+      </c>
+      <c r="S82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="L83" t="s">
+        <v>490</v>
+      </c>
+      <c r="M83" t="s">
+        <v>492</v>
+      </c>
+      <c r="N83" t="s">
+        <v>493</v>
+      </c>
+      <c r="O83" t="s">
+        <v>494</v>
+      </c>
+      <c r="P83" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>496</v>
+      </c>
+      <c r="S83" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" t="s">
+        <v>131</v>
+      </c>
+      <c r="L84" t="s">
+        <v>490</v>
+      </c>
+      <c r="M84" t="s">
+        <v>492</v>
+      </c>
+      <c r="N84" t="s">
+        <v>493</v>
+      </c>
+      <c r="O84" t="s">
+        <v>494</v>
+      </c>
+      <c r="P84" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>496</v>
+      </c>
+      <c r="S84" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="L85" t="s">
+        <v>490</v>
+      </c>
+      <c r="M85" t="s">
+        <v>492</v>
+      </c>
+      <c r="N85" t="s">
+        <v>493</v>
+      </c>
+      <c r="O85" t="s">
+        <v>494</v>
+      </c>
+      <c r="P85" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>496</v>
+      </c>
+      <c r="S85" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="L86" t="s">
+        <v>490</v>
+      </c>
+      <c r="M86" t="s">
+        <v>492</v>
+      </c>
+      <c r="N86" t="s">
+        <v>493</v>
+      </c>
+      <c r="O86" t="s">
+        <v>494</v>
+      </c>
+      <c r="P86" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>496</v>
+      </c>
+      <c r="S86" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="L87" t="s">
+        <v>490</v>
+      </c>
+      <c r="M87" t="s">
+        <v>492</v>
+      </c>
+      <c r="N87" t="s">
+        <v>493</v>
+      </c>
+      <c r="O87" t="s">
+        <v>494</v>
+      </c>
+      <c r="P87" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>496</v>
+      </c>
+      <c r="S87" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" t="s">
+        <v>135</v>
+      </c>
+      <c r="L88" t="s">
+        <v>490</v>
+      </c>
+      <c r="M88" t="s">
+        <v>492</v>
+      </c>
+      <c r="N88" t="s">
+        <v>493</v>
+      </c>
+      <c r="O88" t="s">
+        <v>494</v>
+      </c>
+      <c r="P88" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>496</v>
+      </c>
+      <c r="S88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="L89" t="s">
+        <v>490</v>
+      </c>
+      <c r="M89" t="s">
+        <v>492</v>
+      </c>
+      <c r="N89" t="s">
+        <v>493</v>
+      </c>
+      <c r="O89" t="s">
+        <v>494</v>
+      </c>
+      <c r="P89" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>496</v>
+      </c>
+      <c r="S89" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="L90" t="s">
+        <v>490</v>
+      </c>
+      <c r="M90" t="s">
+        <v>492</v>
+      </c>
+      <c r="N90" t="s">
+        <v>493</v>
+      </c>
+      <c r="O90" t="s">
+        <v>494</v>
+      </c>
+      <c r="P90" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>496</v>
+      </c>
+      <c r="S90" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+      <c r="L91" t="s">
+        <v>490</v>
+      </c>
+      <c r="M91" t="s">
+        <v>492</v>
+      </c>
+      <c r="N91" t="s">
+        <v>493</v>
+      </c>
+      <c r="O91" t="s">
+        <v>494</v>
+      </c>
+      <c r="P91" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>496</v>
+      </c>
+      <c r="S91" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" t="s">
+        <v>139</v>
+      </c>
+      <c r="L92" t="s">
+        <v>490</v>
+      </c>
+      <c r="M92" t="s">
+        <v>492</v>
+      </c>
+      <c r="N92" t="s">
+        <v>493</v>
+      </c>
+      <c r="O92" t="s">
+        <v>494</v>
+      </c>
+      <c r="P92" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>496</v>
+      </c>
+      <c r="S92" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" t="s">
+        <v>140</v>
+      </c>
+      <c r="L93" t="s">
+        <v>490</v>
+      </c>
+      <c r="M93" t="s">
+        <v>492</v>
+      </c>
+      <c r="N93" t="s">
+        <v>493</v>
+      </c>
+      <c r="O93" t="s">
+        <v>494</v>
+      </c>
+      <c r="P93" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>496</v>
+      </c>
+      <c r="S93" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+      <c r="L94" t="s">
+        <v>490</v>
+      </c>
+      <c r="M94" t="s">
+        <v>492</v>
+      </c>
+      <c r="N94" t="s">
+        <v>493</v>
+      </c>
+      <c r="O94" t="s">
+        <v>494</v>
+      </c>
+      <c r="P94" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>496</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" t="s">
+        <v>142</v>
+      </c>
+      <c r="L95" t="s">
+        <v>490</v>
+      </c>
+      <c r="M95" t="s">
+        <v>492</v>
+      </c>
+      <c r="N95" t="s">
+        <v>493</v>
+      </c>
+      <c r="O95" t="s">
+        <v>494</v>
+      </c>
+      <c r="P95" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>496</v>
+      </c>
+      <c r="S95" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="L96" t="s">
+        <v>490</v>
+      </c>
+      <c r="M96" t="s">
+        <v>492</v>
+      </c>
+      <c r="N96" t="s">
+        <v>493</v>
+      </c>
+      <c r="O96" t="s">
+        <v>494</v>
+      </c>
+      <c r="P96" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>496</v>
+      </c>
+      <c r="S96" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="L97" t="s">
+        <v>490</v>
+      </c>
+      <c r="M97" t="s">
+        <v>492</v>
+      </c>
+      <c r="N97" t="s">
+        <v>493</v>
+      </c>
+      <c r="O97" t="s">
+        <v>494</v>
+      </c>
+      <c r="P97" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>496</v>
+      </c>
+      <c r="S97" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="L98" t="s">
+        <v>490</v>
+      </c>
+      <c r="M98" t="s">
+        <v>492</v>
+      </c>
+      <c r="N98" t="s">
+        <v>493</v>
+      </c>
+      <c r="O98" t="s">
+        <v>494</v>
+      </c>
+      <c r="P98" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>496</v>
+      </c>
+      <c r="S98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+      <c r="L99" t="s">
+        <v>490</v>
+      </c>
+      <c r="M99" t="s">
+        <v>492</v>
+      </c>
+      <c r="N99" t="s">
+        <v>493</v>
+      </c>
+      <c r="O99" t="s">
+        <v>494</v>
+      </c>
+      <c r="P99" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>496</v>
+      </c>
+      <c r="S99" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" t="s">
+        <v>147</v>
+      </c>
+      <c r="L100" t="s">
+        <v>490</v>
+      </c>
+      <c r="M100" t="s">
+        <v>492</v>
+      </c>
+      <c r="N100" t="s">
+        <v>493</v>
+      </c>
+      <c r="O100" t="s">
+        <v>494</v>
+      </c>
+      <c r="P100" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>496</v>
+      </c>
+      <c r="S100" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="L101" t="s">
+        <v>490</v>
+      </c>
+      <c r="M101" t="s">
+        <v>492</v>
+      </c>
+      <c r="N101" t="s">
+        <v>493</v>
+      </c>
+      <c r="O101" t="s">
+        <v>494</v>
+      </c>
+      <c r="P101" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>496</v>
+      </c>
+      <c r="S101" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="L102" t="s">
+        <v>490</v>
+      </c>
+      <c r="M102" t="s">
+        <v>492</v>
+      </c>
+      <c r="N102" t="s">
+        <v>493</v>
+      </c>
+      <c r="O102" t="s">
+        <v>494</v>
+      </c>
+      <c r="P102" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>496</v>
+      </c>
+      <c r="S102" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="L103" t="s">
+        <v>490</v>
+      </c>
+      <c r="M103" t="s">
+        <v>492</v>
+      </c>
+      <c r="N103" t="s">
+        <v>493</v>
+      </c>
+      <c r="O103" t="s">
+        <v>494</v>
+      </c>
+      <c r="P103" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>496</v>
+      </c>
+      <c r="S103" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" t="s">
+        <v>151</v>
+      </c>
+      <c r="L104" t="s">
+        <v>490</v>
+      </c>
+      <c r="M104" t="s">
+        <v>492</v>
+      </c>
+      <c r="N104" t="s">
+        <v>493</v>
+      </c>
+      <c r="O104" t="s">
+        <v>494</v>
+      </c>
+      <c r="P104" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>496</v>
+      </c>
+      <c r="S104" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" t="s">
+        <v>152</v>
+      </c>
+      <c r="L105" t="s">
+        <v>490</v>
+      </c>
+      <c r="M105" t="s">
+        <v>492</v>
+      </c>
+      <c r="N105" t="s">
+        <v>493</v>
+      </c>
+      <c r="O105" t="s">
+        <v>494</v>
+      </c>
+      <c r="P105" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>496</v>
+      </c>
+      <c r="S105" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="L106" t="s">
+        <v>490</v>
+      </c>
+      <c r="M106" t="s">
+        <v>492</v>
+      </c>
+      <c r="N106" t="s">
+        <v>493</v>
+      </c>
+      <c r="O106" t="s">
+        <v>494</v>
+      </c>
+      <c r="P106" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>496</v>
+      </c>
+      <c r="S106" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" t="s">
+        <v>154</v>
+      </c>
+      <c r="L107" t="s">
+        <v>490</v>
+      </c>
+      <c r="M107" t="s">
+        <v>492</v>
+      </c>
+      <c r="N107" t="s">
+        <v>493</v>
+      </c>
+      <c r="O107" t="s">
+        <v>494</v>
+      </c>
+      <c r="P107" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>496</v>
+      </c>
+      <c r="S107" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" t="s">
+        <v>155</v>
+      </c>
+      <c r="L108" t="s">
+        <v>490</v>
+      </c>
+      <c r="M108" t="s">
+        <v>492</v>
+      </c>
+      <c r="N108" t="s">
+        <v>493</v>
+      </c>
+      <c r="O108" t="s">
+        <v>494</v>
+      </c>
+      <c r="P108" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>496</v>
+      </c>
+      <c r="S108" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" t="s">
+        <v>156</v>
+      </c>
+      <c r="L109" t="s">
+        <v>490</v>
+      </c>
+      <c r="M109" t="s">
+        <v>492</v>
+      </c>
+      <c r="N109" t="s">
+        <v>493</v>
+      </c>
+      <c r="O109" t="s">
+        <v>494</v>
+      </c>
+      <c r="P109" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>496</v>
+      </c>
+      <c r="S109" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" t="s">
+        <v>157</v>
+      </c>
+      <c r="L110" t="s">
+        <v>490</v>
+      </c>
+      <c r="M110" t="s">
+        <v>492</v>
+      </c>
+      <c r="N110" t="s">
+        <v>493</v>
+      </c>
+      <c r="O110" t="s">
+        <v>494</v>
+      </c>
+      <c r="P110" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>496</v>
+      </c>
+      <c r="S110" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="L111" t="s">
+        <v>490</v>
+      </c>
+      <c r="M111" t="s">
+        <v>492</v>
+      </c>
+      <c r="N111" t="s">
+        <v>493</v>
+      </c>
+      <c r="O111" t="s">
+        <v>494</v>
+      </c>
+      <c r="P111" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>496</v>
+      </c>
+      <c r="S111" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" t="s">
+        <v>159</v>
+      </c>
+      <c r="L112" t="s">
+        <v>490</v>
+      </c>
+      <c r="M112" t="s">
+        <v>492</v>
+      </c>
+      <c r="N112" t="s">
+        <v>493</v>
+      </c>
+      <c r="O112" t="s">
+        <v>494</v>
+      </c>
+      <c r="P112" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>496</v>
+      </c>
+      <c r="S112" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" t="s">
+        <v>160</v>
+      </c>
+      <c r="L113" t="s">
+        <v>490</v>
+      </c>
+      <c r="M113" t="s">
+        <v>492</v>
+      </c>
+      <c r="N113" t="s">
+        <v>493</v>
+      </c>
+      <c r="O113" t="s">
+        <v>494</v>
+      </c>
+      <c r="P113" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>496</v>
+      </c>
+      <c r="S113" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" t="s">
+        <v>161</v>
+      </c>
+      <c r="L114" t="s">
+        <v>490</v>
+      </c>
+      <c r="M114" t="s">
+        <v>492</v>
+      </c>
+      <c r="N114" t="s">
+        <v>493</v>
+      </c>
+      <c r="O114" t="s">
+        <v>494</v>
+      </c>
+      <c r="P114" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>496</v>
+      </c>
+      <c r="S114" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" t="s">
+        <v>162</v>
+      </c>
+      <c r="L115" t="s">
+        <v>490</v>
+      </c>
+      <c r="M115" t="s">
+        <v>492</v>
+      </c>
+      <c r="N115" t="s">
+        <v>493</v>
+      </c>
+      <c r="O115" t="s">
+        <v>494</v>
+      </c>
+      <c r="P115" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>496</v>
+      </c>
+      <c r="S115" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" t="s">
+        <v>163</v>
+      </c>
+      <c r="L116" t="s">
+        <v>490</v>
+      </c>
+      <c r="M116" t="s">
+        <v>492</v>
+      </c>
+      <c r="N116" t="s">
+        <v>493</v>
+      </c>
+      <c r="O116" t="s">
+        <v>494</v>
+      </c>
+      <c r="P116" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>496</v>
+      </c>
+      <c r="S116" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" t="s">
+        <v>164</v>
+      </c>
+      <c r="L117" t="s">
+        <v>490</v>
+      </c>
+      <c r="M117" t="s">
+        <v>492</v>
+      </c>
+      <c r="N117" t="s">
+        <v>493</v>
+      </c>
+      <c r="O117" t="s">
+        <v>494</v>
+      </c>
+      <c r="P117" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>496</v>
+      </c>
+      <c r="S117" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" t="s">
+        <v>165</v>
+      </c>
+      <c r="L118" t="s">
+        <v>490</v>
+      </c>
+      <c r="M118" t="s">
+        <v>492</v>
+      </c>
+      <c r="N118" t="s">
+        <v>493</v>
+      </c>
+      <c r="O118" t="s">
+        <v>494</v>
+      </c>
+      <c r="P118" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>496</v>
+      </c>
+      <c r="S118" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" t="s">
+        <v>166</v>
+      </c>
+      <c r="L119" t="s">
+        <v>490</v>
+      </c>
+      <c r="M119" t="s">
+        <v>492</v>
+      </c>
+      <c r="N119" t="s">
+        <v>493</v>
+      </c>
+      <c r="O119" t="s">
+        <v>494</v>
+      </c>
+      <c r="P119" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>496</v>
+      </c>
+      <c r="S119" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" t="s">
+        <v>167</v>
+      </c>
+      <c r="L120" t="s">
+        <v>490</v>
+      </c>
+      <c r="M120" t="s">
+        <v>492</v>
+      </c>
+      <c r="N120" t="s">
+        <v>493</v>
+      </c>
+      <c r="O120" t="s">
+        <v>494</v>
+      </c>
+      <c r="P120" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>496</v>
+      </c>
+      <c r="S120" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" t="s">
+        <v>168</v>
+      </c>
+      <c r="L121" t="s">
+        <v>490</v>
+      </c>
+      <c r="M121" t="s">
+        <v>492</v>
+      </c>
+      <c r="N121" t="s">
+        <v>493</v>
+      </c>
+      <c r="O121" t="s">
+        <v>494</v>
+      </c>
+      <c r="P121" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>496</v>
+      </c>
+      <c r="S121" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" t="s">
+        <v>169</v>
+      </c>
+      <c r="L122" t="s">
+        <v>490</v>
+      </c>
+      <c r="M122" t="s">
+        <v>492</v>
+      </c>
+      <c r="N122" t="s">
+        <v>493</v>
+      </c>
+      <c r="O122" t="s">
+        <v>494</v>
+      </c>
+      <c r="P122" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>496</v>
+      </c>
+      <c r="S122" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" t="s">
+        <v>170</v>
+      </c>
+      <c r="L123" t="s">
+        <v>490</v>
+      </c>
+      <c r="M123" t="s">
+        <v>492</v>
+      </c>
+      <c r="N123" t="s">
+        <v>493</v>
+      </c>
+      <c r="O123" t="s">
+        <v>494</v>
+      </c>
+      <c r="P123" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>496</v>
+      </c>
+      <c r="S123" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" t="s">
+        <v>171</v>
+      </c>
+      <c r="L124" t="s">
+        <v>490</v>
+      </c>
+      <c r="M124" t="s">
+        <v>492</v>
+      </c>
+      <c r="N124" t="s">
+        <v>493</v>
+      </c>
+      <c r="O124" t="s">
+        <v>494</v>
+      </c>
+      <c r="P124" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>496</v>
+      </c>
+      <c r="S124" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" t="s">
+        <v>172</v>
+      </c>
+      <c r="L125" t="s">
+        <v>490</v>
+      </c>
+      <c r="M125" t="s">
+        <v>492</v>
+      </c>
+      <c r="N125" t="s">
+        <v>493</v>
+      </c>
+      <c r="O125" t="s">
+        <v>494</v>
+      </c>
+      <c r="P125" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>496</v>
+      </c>
+      <c r="S125" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="L126" t="s">
+        <v>490</v>
+      </c>
+      <c r="M126" t="s">
+        <v>492</v>
+      </c>
+      <c r="N126" t="s">
+        <v>493</v>
+      </c>
+      <c r="O126" t="s">
+        <v>494</v>
+      </c>
+      <c r="P126" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>496</v>
+      </c>
+      <c r="S126" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" t="s">
+        <v>174</v>
+      </c>
+      <c r="L127" t="s">
+        <v>490</v>
+      </c>
+      <c r="M127" t="s">
+        <v>492</v>
+      </c>
+      <c r="N127" t="s">
+        <v>493</v>
+      </c>
+      <c r="O127" t="s">
+        <v>494</v>
+      </c>
+      <c r="P127" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>496</v>
+      </c>
+      <c r="S127" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="L128" t="s">
+        <v>490</v>
+      </c>
+      <c r="M128" t="s">
+        <v>492</v>
+      </c>
+      <c r="N128" t="s">
+        <v>493</v>
+      </c>
+      <c r="O128" t="s">
+        <v>494</v>
+      </c>
+      <c r="P128" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>496</v>
+      </c>
+      <c r="S128" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" t="s">
+        <v>176</v>
+      </c>
+      <c r="L129" t="s">
+        <v>490</v>
+      </c>
+      <c r="M129" t="s">
+        <v>492</v>
+      </c>
+      <c r="N129" t="s">
+        <v>493</v>
+      </c>
+      <c r="O129" t="s">
+        <v>494</v>
+      </c>
+      <c r="P129" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>496</v>
+      </c>
+      <c r="S129" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" t="s">
+        <v>177</v>
+      </c>
+      <c r="L130" t="s">
+        <v>490</v>
+      </c>
+      <c r="M130" t="s">
+        <v>492</v>
+      </c>
+      <c r="N130" t="s">
+        <v>493</v>
+      </c>
+      <c r="O130" t="s">
+        <v>494</v>
+      </c>
+      <c r="P130" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>496</v>
+      </c>
+      <c r="S130" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" t="s">
+        <v>178</v>
+      </c>
+      <c r="L131" t="s">
+        <v>490</v>
+      </c>
+      <c r="M131" t="s">
+        <v>492</v>
+      </c>
+      <c r="N131" t="s">
+        <v>493</v>
+      </c>
+      <c r="O131" t="s">
+        <v>494</v>
+      </c>
+      <c r="P131" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>496</v>
+      </c>
+      <c r="S131" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" t="s">
+        <v>179</v>
+      </c>
+      <c r="L132" t="s">
+        <v>490</v>
+      </c>
+      <c r="M132" t="s">
+        <v>492</v>
+      </c>
+      <c r="N132" t="s">
+        <v>493</v>
+      </c>
+      <c r="O132" t="s">
+        <v>494</v>
+      </c>
+      <c r="P132" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>496</v>
+      </c>
+      <c r="S132" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" t="s">
+        <v>180</v>
+      </c>
+      <c r="L133" t="s">
+        <v>490</v>
+      </c>
+      <c r="M133" t="s">
+        <v>492</v>
+      </c>
+      <c r="N133" t="s">
+        <v>493</v>
+      </c>
+      <c r="O133" t="s">
+        <v>494</v>
+      </c>
+      <c r="P133" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>496</v>
+      </c>
+      <c r="S133" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" t="s">
+        <v>181</v>
+      </c>
+      <c r="L134" t="s">
+        <v>490</v>
+      </c>
+      <c r="M134" t="s">
+        <v>492</v>
+      </c>
+      <c r="N134" t="s">
+        <v>493</v>
+      </c>
+      <c r="O134" t="s">
+        <v>494</v>
+      </c>
+      <c r="P134" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>496</v>
+      </c>
+      <c r="S134" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" t="s">
+        <v>182</v>
+      </c>
+      <c r="L135" t="s">
+        <v>490</v>
+      </c>
+      <c r="M135" t="s">
+        <v>492</v>
+      </c>
+      <c r="N135" t="s">
+        <v>493</v>
+      </c>
+      <c r="O135" t="s">
+        <v>494</v>
+      </c>
+      <c r="P135" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>496</v>
+      </c>
+      <c r="S135" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" t="s">
+        <v>183</v>
+      </c>
+      <c r="L136" t="s">
+        <v>490</v>
+      </c>
+      <c r="M136" t="s">
+        <v>492</v>
+      </c>
+      <c r="N136" t="s">
+        <v>493</v>
+      </c>
+      <c r="O136" t="s">
+        <v>494</v>
+      </c>
+      <c r="P136" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>496</v>
+      </c>
+      <c r="S136" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" t="s">
+        <v>184</v>
+      </c>
+      <c r="L137" t="s">
+        <v>490</v>
+      </c>
+      <c r="M137" t="s">
+        <v>492</v>
+      </c>
+      <c r="N137" t="s">
+        <v>493</v>
+      </c>
+      <c r="O137" t="s">
+        <v>494</v>
+      </c>
+      <c r="P137" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>496</v>
+      </c>
+      <c r="S137" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" t="s">
+        <v>185</v>
+      </c>
+      <c r="L138" t="s">
+        <v>490</v>
+      </c>
+      <c r="M138" t="s">
+        <v>492</v>
+      </c>
+      <c r="N138" t="s">
+        <v>493</v>
+      </c>
+      <c r="O138" t="s">
+        <v>494</v>
+      </c>
+      <c r="P138" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>496</v>
+      </c>
+      <c r="S138" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" t="s">
+        <v>186</v>
+      </c>
+      <c r="L139" t="s">
+        <v>490</v>
+      </c>
+      <c r="M139" t="s">
+        <v>492</v>
+      </c>
+      <c r="N139" t="s">
+        <v>493</v>
+      </c>
+      <c r="O139" t="s">
+        <v>494</v>
+      </c>
+      <c r="P139" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>496</v>
+      </c>
+      <c r="S139" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" t="s">
+        <v>187</v>
+      </c>
+      <c r="L140" t="s">
+        <v>490</v>
+      </c>
+      <c r="M140" t="s">
+        <v>492</v>
+      </c>
+      <c r="N140" t="s">
+        <v>493</v>
+      </c>
+      <c r="O140" t="s">
+        <v>494</v>
+      </c>
+      <c r="P140" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>496</v>
+      </c>
+      <c r="S140" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" t="s">
+        <v>188</v>
+      </c>
+      <c r="L141" t="s">
+        <v>490</v>
+      </c>
+      <c r="M141" t="s">
+        <v>492</v>
+      </c>
+      <c r="N141" t="s">
+        <v>493</v>
+      </c>
+      <c r="O141" t="s">
+        <v>494</v>
+      </c>
+      <c r="P141" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>496</v>
+      </c>
+      <c r="S141" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" t="s">
+        <v>189</v>
+      </c>
+      <c r="L142" t="s">
+        <v>490</v>
+      </c>
+      <c r="M142" t="s">
+        <v>492</v>
+      </c>
+      <c r="N142" t="s">
+        <v>493</v>
+      </c>
+      <c r="O142" t="s">
+        <v>494</v>
+      </c>
+      <c r="P142" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>496</v>
+      </c>
+      <c r="S142" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" t="s">
+        <v>190</v>
+      </c>
+      <c r="L143" t="s">
+        <v>490</v>
+      </c>
+      <c r="M143" t="s">
+        <v>492</v>
+      </c>
+      <c r="N143" t="s">
+        <v>493</v>
+      </c>
+      <c r="O143" t="s">
+        <v>494</v>
+      </c>
+      <c r="P143" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>496</v>
+      </c>
+      <c r="S143" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" t="s">
+        <v>191</v>
+      </c>
+      <c r="L144" t="s">
+        <v>490</v>
+      </c>
+      <c r="M144" t="s">
+        <v>492</v>
+      </c>
+      <c r="N144" t="s">
+        <v>493</v>
+      </c>
+      <c r="O144" t="s">
+        <v>494</v>
+      </c>
+      <c r="P144" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>496</v>
+      </c>
+      <c r="S144" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" t="s">
+        <v>192</v>
+      </c>
+      <c r="L145" t="s">
+        <v>490</v>
+      </c>
+      <c r="M145" t="s">
+        <v>492</v>
+      </c>
+      <c r="N145" t="s">
+        <v>493</v>
+      </c>
+      <c r="O145" t="s">
+        <v>494</v>
+      </c>
+      <c r="P145" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>496</v>
+      </c>
+      <c r="S145" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" t="s">
+        <v>193</v>
+      </c>
+      <c r="L146" t="s">
+        <v>490</v>
+      </c>
+      <c r="M146" t="s">
+        <v>492</v>
+      </c>
+      <c r="N146" t="s">
+        <v>493</v>
+      </c>
+      <c r="O146" t="s">
+        <v>494</v>
+      </c>
+      <c r="P146" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>496</v>
+      </c>
+      <c r="S146" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" t="s">
+        <v>194</v>
+      </c>
+      <c r="L147" t="s">
+        <v>490</v>
+      </c>
+      <c r="M147" t="s">
+        <v>492</v>
+      </c>
+      <c r="N147" t="s">
+        <v>493</v>
+      </c>
+      <c r="O147" t="s">
+        <v>494</v>
+      </c>
+      <c r="P147" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>496</v>
+      </c>
+      <c r="S147" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" t="s">
+        <v>195</v>
+      </c>
+      <c r="L148" t="s">
+        <v>490</v>
+      </c>
+      <c r="M148" t="s">
+        <v>492</v>
+      </c>
+      <c r="N148" t="s">
+        <v>493</v>
+      </c>
+      <c r="O148" t="s">
+        <v>494</v>
+      </c>
+      <c r="P148" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>496</v>
+      </c>
+      <c r="S148" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" t="s">
+        <v>196</v>
+      </c>
+      <c r="L149" t="s">
+        <v>490</v>
+      </c>
+      <c r="M149" t="s">
+        <v>492</v>
+      </c>
+      <c r="N149" t="s">
+        <v>493</v>
+      </c>
+      <c r="O149" t="s">
+        <v>494</v>
+      </c>
+      <c r="P149" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>496</v>
+      </c>
+      <c r="S149" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" t="s">
+        <v>197</v>
+      </c>
+      <c r="L150" t="s">
+        <v>490</v>
+      </c>
+      <c r="M150" t="s">
+        <v>492</v>
+      </c>
+      <c r="N150" t="s">
+        <v>493</v>
+      </c>
+      <c r="O150" t="s">
+        <v>494</v>
+      </c>
+      <c r="P150" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>496</v>
+      </c>
+      <c r="S150" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" t="s">
+        <v>198</v>
+      </c>
+      <c r="L151" t="s">
+        <v>490</v>
+      </c>
+      <c r="M151" t="s">
+        <v>492</v>
+      </c>
+      <c r="N151" t="s">
+        <v>493</v>
+      </c>
+      <c r="O151" t="s">
+        <v>494</v>
+      </c>
+      <c r="P151" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>496</v>
+      </c>
+      <c r="S151" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" t="s">
+        <v>199</v>
+      </c>
+      <c r="L152" t="s">
+        <v>490</v>
+      </c>
+      <c r="M152" t="s">
+        <v>492</v>
+      </c>
+      <c r="N152" t="s">
+        <v>493</v>
+      </c>
+      <c r="O152" t="s">
+        <v>494</v>
+      </c>
+      <c r="P152" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>496</v>
+      </c>
+      <c r="S152" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" t="s">
+        <v>200</v>
+      </c>
+      <c r="L153" t="s">
+        <v>490</v>
+      </c>
+      <c r="M153" t="s">
+        <v>492</v>
+      </c>
+      <c r="N153" t="s">
+        <v>493</v>
+      </c>
+      <c r="O153" t="s">
+        <v>494</v>
+      </c>
+      <c r="P153" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>496</v>
+      </c>
+      <c r="S153" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" t="s">
+        <v>201</v>
+      </c>
+      <c r="L154" t="s">
+        <v>490</v>
+      </c>
+      <c r="M154" t="s">
+        <v>492</v>
+      </c>
+      <c r="N154" t="s">
+        <v>493</v>
+      </c>
+      <c r="O154" t="s">
+        <v>494</v>
+      </c>
+      <c r="P154" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>496</v>
+      </c>
+      <c r="S154" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" t="s">
+        <v>202</v>
+      </c>
+      <c r="L155" t="s">
+        <v>490</v>
+      </c>
+      <c r="M155" t="s">
+        <v>492</v>
+      </c>
+      <c r="N155" t="s">
+        <v>493</v>
+      </c>
+      <c r="O155" t="s">
+        <v>494</v>
+      </c>
+      <c r="P155" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>496</v>
+      </c>
+      <c r="S155" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" t="s">
+        <v>203</v>
+      </c>
+      <c r="L156" t="s">
+        <v>490</v>
+      </c>
+      <c r="M156" t="s">
+        <v>492</v>
+      </c>
+      <c r="N156" t="s">
+        <v>493</v>
+      </c>
+      <c r="O156" t="s">
+        <v>494</v>
+      </c>
+      <c r="P156" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>496</v>
+      </c>
+      <c r="S156" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" t="s">
+        <v>204</v>
+      </c>
+      <c r="L157" t="s">
+        <v>490</v>
+      </c>
+      <c r="M157" t="s">
+        <v>492</v>
+      </c>
+      <c r="N157" t="s">
+        <v>493</v>
+      </c>
+      <c r="O157" t="s">
+        <v>494</v>
+      </c>
+      <c r="P157" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>496</v>
+      </c>
+      <c r="S157" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
+      <c r="A158" t="s">
+        <v>205</v>
+      </c>
+      <c r="L158" t="s">
+        <v>490</v>
+      </c>
+      <c r="M158" t="s">
+        <v>492</v>
+      </c>
+      <c r="N158" t="s">
+        <v>493</v>
+      </c>
+      <c r="O158" t="s">
+        <v>494</v>
+      </c>
+      <c r="P158" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>496</v>
+      </c>
+      <c r="S158" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
+      <c r="A159" t="s">
+        <v>206</v>
+      </c>
+      <c r="L159" t="s">
+        <v>490</v>
+      </c>
+      <c r="M159" t="s">
+        <v>492</v>
+      </c>
+      <c r="N159" t="s">
+        <v>493</v>
+      </c>
+      <c r="O159" t="s">
+        <v>494</v>
+      </c>
+      <c r="P159" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>496</v>
+      </c>
+      <c r="S159" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
+      <c r="A160" t="s">
+        <v>207</v>
+      </c>
+      <c r="L160" t="s">
+        <v>490</v>
+      </c>
+      <c r="M160" t="s">
+        <v>492</v>
+      </c>
+      <c r="N160" t="s">
+        <v>493</v>
+      </c>
+      <c r="O160" t="s">
+        <v>494</v>
+      </c>
+      <c r="P160" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>496</v>
+      </c>
+      <c r="S160" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
+      <c r="A161" t="s">
+        <v>208</v>
+      </c>
+      <c r="L161" t="s">
+        <v>490</v>
+      </c>
+      <c r="M161" t="s">
+        <v>492</v>
+      </c>
+      <c r="N161" t="s">
+        <v>493</v>
+      </c>
+      <c r="O161" t="s">
+        <v>494</v>
+      </c>
+      <c r="P161" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>496</v>
+      </c>
+      <c r="S161" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" t="s">
+        <v>209</v>
+      </c>
+      <c r="L162" t="s">
+        <v>490</v>
+      </c>
+      <c r="M162" t="s">
+        <v>492</v>
+      </c>
+      <c r="N162" t="s">
+        <v>493</v>
+      </c>
+      <c r="O162" t="s">
+        <v>494</v>
+      </c>
+      <c r="P162" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>496</v>
+      </c>
+      <c r="S162" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
+      <c r="A163" t="s">
+        <v>210</v>
+      </c>
+      <c r="L163" t="s">
+        <v>490</v>
+      </c>
+      <c r="M163" t="s">
+        <v>492</v>
+      </c>
+      <c r="N163" t="s">
+        <v>493</v>
+      </c>
+      <c r="O163" t="s">
+        <v>494</v>
+      </c>
+      <c r="P163" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>496</v>
+      </c>
+      <c r="S163" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
+      <c r="A164" t="s">
+        <v>211</v>
+      </c>
+      <c r="L164" t="s">
+        <v>490</v>
+      </c>
+      <c r="M164" t="s">
+        <v>492</v>
+      </c>
+      <c r="N164" t="s">
+        <v>493</v>
+      </c>
+      <c r="O164" t="s">
+        <v>494</v>
+      </c>
+      <c r="P164" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>496</v>
+      </c>
+      <c r="S164" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
+      <c r="A165" t="s">
+        <v>212</v>
+      </c>
+      <c r="L165" t="s">
+        <v>490</v>
+      </c>
+      <c r="M165" t="s">
+        <v>492</v>
+      </c>
+      <c r="N165" t="s">
+        <v>493</v>
+      </c>
+      <c r="O165" t="s">
+        <v>494</v>
+      </c>
+      <c r="P165" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>496</v>
+      </c>
+      <c r="S165" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="A166" t="s">
+        <v>213</v>
+      </c>
+      <c r="L166" t="s">
+        <v>490</v>
+      </c>
+      <c r="M166" t="s">
+        <v>492</v>
+      </c>
+      <c r="N166" t="s">
+        <v>493</v>
+      </c>
+      <c r="O166" t="s">
+        <v>494</v>
+      </c>
+      <c r="P166" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>496</v>
+      </c>
+      <c r="S166" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
+      <c r="A167" t="s">
+        <v>214</v>
+      </c>
+      <c r="L167" t="s">
+        <v>490</v>
+      </c>
+      <c r="M167" t="s">
+        <v>492</v>
+      </c>
+      <c r="N167" t="s">
+        <v>493</v>
+      </c>
+      <c r="O167" t="s">
+        <v>494</v>
+      </c>
+      <c r="P167" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>496</v>
+      </c>
+      <c r="S167" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
+      <c r="A168" t="s">
+        <v>215</v>
+      </c>
+      <c r="L168" t="s">
+        <v>490</v>
+      </c>
+      <c r="M168" t="s">
+        <v>492</v>
+      </c>
+      <c r="N168" t="s">
+        <v>493</v>
+      </c>
+      <c r="O168" t="s">
+        <v>494</v>
+      </c>
+      <c r="P168" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>496</v>
+      </c>
+      <c r="S168" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" t="s">
+        <v>216</v>
+      </c>
+      <c r="L169" t="s">
+        <v>490</v>
+      </c>
+      <c r="M169" t="s">
+        <v>492</v>
+      </c>
+      <c r="N169" t="s">
+        <v>493</v>
+      </c>
+      <c r="O169" t="s">
+        <v>494</v>
+      </c>
+      <c r="P169" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>496</v>
+      </c>
+      <c r="S169" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" t="s">
+        <v>217</v>
+      </c>
+      <c r="L170" t="s">
+        <v>490</v>
+      </c>
+      <c r="M170" t="s">
+        <v>492</v>
+      </c>
+      <c r="N170" t="s">
+        <v>493</v>
+      </c>
+      <c r="O170" t="s">
+        <v>494</v>
+      </c>
+      <c r="P170" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>496</v>
+      </c>
+      <c r="S170" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" t="s">
+        <v>218</v>
+      </c>
+      <c r="L171" t="s">
+        <v>490</v>
+      </c>
+      <c r="M171" t="s">
+        <v>492</v>
+      </c>
+      <c r="N171" t="s">
+        <v>493</v>
+      </c>
+      <c r="O171" t="s">
+        <v>494</v>
+      </c>
+      <c r="P171" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>496</v>
+      </c>
+      <c r="S171" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" t="s">
+        <v>219</v>
+      </c>
+      <c r="L172" t="s">
+        <v>490</v>
+      </c>
+      <c r="M172" t="s">
+        <v>492</v>
+      </c>
+      <c r="N172" t="s">
+        <v>493</v>
+      </c>
+      <c r="O172" t="s">
+        <v>494</v>
+      </c>
+      <c r="P172" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>496</v>
+      </c>
+      <c r="S172" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" t="s">
+        <v>220</v>
+      </c>
+      <c r="L173" t="s">
+        <v>490</v>
+      </c>
+      <c r="M173" t="s">
+        <v>492</v>
+      </c>
+      <c r="N173" t="s">
+        <v>493</v>
+      </c>
+      <c r="O173" t="s">
+        <v>494</v>
+      </c>
+      <c r="P173" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>496</v>
+      </c>
+      <c r="S173" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" t="s">
+        <v>221</v>
+      </c>
+      <c r="L174" t="s">
+        <v>490</v>
+      </c>
+      <c r="M174" t="s">
+        <v>492</v>
+      </c>
+      <c r="N174" t="s">
+        <v>493</v>
+      </c>
+      <c r="O174" t="s">
+        <v>494</v>
+      </c>
+      <c r="P174" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>496</v>
+      </c>
+      <c r="S174" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" t="s">
+        <v>222</v>
+      </c>
+      <c r="L175" t="s">
+        <v>490</v>
+      </c>
+      <c r="M175" t="s">
+        <v>492</v>
+      </c>
+      <c r="N175" t="s">
+        <v>493</v>
+      </c>
+      <c r="O175" t="s">
+        <v>494</v>
+      </c>
+      <c r="P175" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>496</v>
+      </c>
+      <c r="S175" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" t="s">
+        <v>223</v>
+      </c>
+      <c r="L176" t="s">
+        <v>490</v>
+      </c>
+      <c r="M176" t="s">
+        <v>492</v>
+      </c>
+      <c r="N176" t="s">
+        <v>493</v>
+      </c>
+      <c r="O176" t="s">
+        <v>494</v>
+      </c>
+      <c r="P176" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>496</v>
+      </c>
+      <c r="S176" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
+      <c r="A177" t="s">
+        <v>224</v>
+      </c>
+      <c r="L177" t="s">
+        <v>490</v>
+      </c>
+      <c r="M177" t="s">
+        <v>492</v>
+      </c>
+      <c r="N177" t="s">
+        <v>493</v>
+      </c>
+      <c r="O177" t="s">
+        <v>494</v>
+      </c>
+      <c r="P177" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>496</v>
+      </c>
+      <c r="S177" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
+      <c r="A178" t="s">
+        <v>225</v>
+      </c>
+      <c r="L178" t="s">
+        <v>490</v>
+      </c>
+      <c r="M178" t="s">
+        <v>492</v>
+      </c>
+      <c r="N178" t="s">
+        <v>493</v>
+      </c>
+      <c r="O178" t="s">
+        <v>494</v>
+      </c>
+      <c r="P178" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>496</v>
+      </c>
+      <c r="S178" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
+      <c r="A179" t="s">
+        <v>226</v>
+      </c>
+      <c r="L179" t="s">
+        <v>490</v>
+      </c>
+      <c r="M179" t="s">
+        <v>492</v>
+      </c>
+      <c r="N179" t="s">
+        <v>493</v>
+      </c>
+      <c r="O179" t="s">
+        <v>494</v>
+      </c>
+      <c r="P179" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>496</v>
+      </c>
+      <c r="S179" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
+      <c r="A180" t="s">
+        <v>227</v>
+      </c>
+      <c r="L180" t="s">
+        <v>490</v>
+      </c>
+      <c r="M180" t="s">
+        <v>492</v>
+      </c>
+      <c r="N180" t="s">
+        <v>493</v>
+      </c>
+      <c r="O180" t="s">
+        <v>494</v>
+      </c>
+      <c r="P180" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>496</v>
+      </c>
+      <c r="S180" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
+      <c r="A181" t="s">
+        <v>228</v>
+      </c>
+      <c r="L181" t="s">
+        <v>490</v>
+      </c>
+      <c r="M181" t="s">
+        <v>492</v>
+      </c>
+      <c r="N181" t="s">
+        <v>493</v>
+      </c>
+      <c r="O181" t="s">
+        <v>494</v>
+      </c>
+      <c r="P181" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>496</v>
+      </c>
+      <c r="S181" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
+      <c r="A182" t="s">
+        <v>229</v>
+      </c>
+      <c r="L182" t="s">
+        <v>490</v>
+      </c>
+      <c r="M182" t="s">
+        <v>492</v>
+      </c>
+      <c r="N182" t="s">
+        <v>493</v>
+      </c>
+      <c r="O182" t="s">
+        <v>494</v>
+      </c>
+      <c r="P182" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>496</v>
+      </c>
+      <c r="S182" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" t="s">
+        <v>230</v>
+      </c>
+      <c r="L183" t="s">
+        <v>490</v>
+      </c>
+      <c r="M183" t="s">
+        <v>492</v>
+      </c>
+      <c r="N183" t="s">
+        <v>493</v>
+      </c>
+      <c r="O183" t="s">
+        <v>494</v>
+      </c>
+      <c r="P183" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>496</v>
+      </c>
+      <c r="S183" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
+      <c r="A184" t="s">
+        <v>231</v>
+      </c>
+      <c r="L184" t="s">
+        <v>490</v>
+      </c>
+      <c r="M184" t="s">
+        <v>492</v>
+      </c>
+      <c r="N184" t="s">
+        <v>493</v>
+      </c>
+      <c r="O184" t="s">
+        <v>494</v>
+      </c>
+      <c r="P184" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>496</v>
+      </c>
+      <c r="S184" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185" t="s">
+        <v>232</v>
+      </c>
+      <c r="L185" t="s">
+        <v>490</v>
+      </c>
+      <c r="M185" t="s">
+        <v>492</v>
+      </c>
+      <c r="N185" t="s">
+        <v>493</v>
+      </c>
+      <c r="O185" t="s">
+        <v>494</v>
+      </c>
+      <c r="P185" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>496</v>
+      </c>
+      <c r="S185" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" t="s">
+        <v>233</v>
+      </c>
+      <c r="L186" t="s">
+        <v>490</v>
+      </c>
+      <c r="M186" t="s">
+        <v>492</v>
+      </c>
+      <c r="N186" t="s">
+        <v>493</v>
+      </c>
+      <c r="O186" t="s">
+        <v>494</v>
+      </c>
+      <c r="P186" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>496</v>
+      </c>
+      <c r="S186" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" t="s">
+        <v>234</v>
+      </c>
+      <c r="L187" t="s">
+        <v>490</v>
+      </c>
+      <c r="M187" t="s">
+        <v>492</v>
+      </c>
+      <c r="N187" t="s">
+        <v>493</v>
+      </c>
+      <c r="O187" t="s">
+        <v>494</v>
+      </c>
+      <c r="P187" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>496</v>
+      </c>
+      <c r="S187" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188" t="s">
+        <v>235</v>
+      </c>
+      <c r="L188" t="s">
+        <v>490</v>
+      </c>
+      <c r="M188" t="s">
+        <v>492</v>
+      </c>
+      <c r="N188" t="s">
+        <v>493</v>
+      </c>
+      <c r="O188" t="s">
+        <v>494</v>
+      </c>
+      <c r="P188" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>496</v>
+      </c>
+      <c r="S188" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" t="s">
+        <v>236</v>
+      </c>
+      <c r="L189" t="s">
+        <v>490</v>
+      </c>
+      <c r="M189" t="s">
+        <v>492</v>
+      </c>
+      <c r="N189" t="s">
+        <v>493</v>
+      </c>
+      <c r="O189" t="s">
+        <v>494</v>
+      </c>
+      <c r="P189" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>496</v>
+      </c>
+      <c r="S189" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" t="s">
+        <v>237</v>
+      </c>
+      <c r="L190" t="s">
+        <v>490</v>
+      </c>
+      <c r="M190" t="s">
+        <v>492</v>
+      </c>
+      <c r="N190" t="s">
+        <v>493</v>
+      </c>
+      <c r="O190" t="s">
+        <v>494</v>
+      </c>
+      <c r="P190" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>496</v>
+      </c>
+      <c r="S190" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" t="s">
+        <v>238</v>
+      </c>
+      <c r="L191" t="s">
+        <v>490</v>
+      </c>
+      <c r="M191" t="s">
+        <v>492</v>
+      </c>
+      <c r="N191" t="s">
+        <v>493</v>
+      </c>
+      <c r="O191" t="s">
+        <v>494</v>
+      </c>
+      <c r="P191" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>496</v>
+      </c>
+      <c r="S191" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192" t="s">
+        <v>239</v>
+      </c>
+      <c r="L192" t="s">
+        <v>490</v>
+      </c>
+      <c r="M192" t="s">
+        <v>492</v>
+      </c>
+      <c r="N192" t="s">
+        <v>493</v>
+      </c>
+      <c r="O192" t="s">
+        <v>494</v>
+      </c>
+      <c r="P192" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>496</v>
+      </c>
+      <c r="S192" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" t="s">
+        <v>240</v>
+      </c>
+      <c r="L193" t="s">
+        <v>490</v>
+      </c>
+      <c r="M193" t="s">
+        <v>492</v>
+      </c>
+      <c r="N193" t="s">
+        <v>493</v>
+      </c>
+      <c r="O193" t="s">
+        <v>494</v>
+      </c>
+      <c r="P193" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>496</v>
+      </c>
+      <c r="S193" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
+      <c r="A194" t="s">
+        <v>241</v>
+      </c>
+      <c r="L194" t="s">
+        <v>490</v>
+      </c>
+      <c r="M194" t="s">
+        <v>492</v>
+      </c>
+      <c r="N194" t="s">
+        <v>493</v>
+      </c>
+      <c r="O194" t="s">
+        <v>494</v>
+      </c>
+      <c r="P194" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>496</v>
+      </c>
+      <c r="S194" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
+      <c r="A195" t="s">
+        <v>242</v>
+      </c>
+      <c r="L195" t="s">
+        <v>490</v>
+      </c>
+      <c r="M195" t="s">
+        <v>492</v>
+      </c>
+      <c r="N195" t="s">
+        <v>493</v>
+      </c>
+      <c r="O195" t="s">
+        <v>494</v>
+      </c>
+      <c r="P195" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>496</v>
+      </c>
+      <c r="S195" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
+      <c r="A196" t="s">
+        <v>243</v>
+      </c>
+      <c r="L196" t="s">
+        <v>490</v>
+      </c>
+      <c r="M196" t="s">
+        <v>492</v>
+      </c>
+      <c r="N196" t="s">
+        <v>493</v>
+      </c>
+      <c r="O196" t="s">
+        <v>494</v>
+      </c>
+      <c r="P196" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>496</v>
+      </c>
+      <c r="S196" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" t="s">
+        <v>244</v>
+      </c>
+      <c r="L197" t="s">
+        <v>490</v>
+      </c>
+      <c r="M197" t="s">
+        <v>492</v>
+      </c>
+      <c r="N197" t="s">
+        <v>493</v>
+      </c>
+      <c r="O197" t="s">
+        <v>494</v>
+      </c>
+      <c r="P197" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>496</v>
+      </c>
+      <c r="S197" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="A198" t="s">
+        <v>245</v>
+      </c>
+      <c r="L198" t="s">
+        <v>490</v>
+      </c>
+      <c r="M198" t="s">
+        <v>492</v>
+      </c>
+      <c r="N198" t="s">
+        <v>493</v>
+      </c>
+      <c r="O198" t="s">
+        <v>494</v>
+      </c>
+      <c r="P198" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>496</v>
+      </c>
+      <c r="S198" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
+      <c r="A199" t="s">
+        <v>246</v>
+      </c>
+      <c r="L199" t="s">
+        <v>490</v>
+      </c>
+      <c r="M199" t="s">
+        <v>492</v>
+      </c>
+      <c r="N199" t="s">
+        <v>493</v>
+      </c>
+      <c r="O199" t="s">
+        <v>494</v>
+      </c>
+      <c r="P199" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>496</v>
+      </c>
+      <c r="S199" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
+      <c r="A200" t="s">
+        <v>247</v>
+      </c>
+      <c r="L200" t="s">
+        <v>490</v>
+      </c>
+      <c r="M200" t="s">
+        <v>492</v>
+      </c>
+      <c r="N200" t="s">
+        <v>493</v>
+      </c>
+      <c r="O200" t="s">
+        <v>494</v>
+      </c>
+      <c r="P200" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>496</v>
+      </c>
+      <c r="S200" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" t="s">
+        <v>248</v>
+      </c>
+      <c r="L201" t="s">
+        <v>490</v>
+      </c>
+      <c r="M201" t="s">
+        <v>492</v>
+      </c>
+      <c r="N201" t="s">
+        <v>493</v>
+      </c>
+      <c r="O201" t="s">
+        <v>494</v>
+      </c>
+      <c r="P201" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>496</v>
+      </c>
+      <c r="S201" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
+      <c r="A202" t="s">
+        <v>249</v>
+      </c>
+      <c r="L202" t="s">
+        <v>490</v>
+      </c>
+      <c r="M202" t="s">
+        <v>492</v>
+      </c>
+      <c r="N202" t="s">
+        <v>493</v>
+      </c>
+      <c r="O202" t="s">
+        <v>494</v>
+      </c>
+      <c r="P202" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>496</v>
+      </c>
+      <c r="S202" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
+      <c r="A203" t="s">
+        <v>250</v>
+      </c>
+      <c r="L203" t="s">
+        <v>490</v>
+      </c>
+      <c r="M203" t="s">
+        <v>492</v>
+      </c>
+      <c r="N203" t="s">
+        <v>493</v>
+      </c>
+      <c r="O203" t="s">
+        <v>494</v>
+      </c>
+      <c r="P203" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>496</v>
+      </c>
+      <c r="S203" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
+      <c r="A204" t="s">
+        <v>251</v>
+      </c>
+      <c r="L204" t="s">
+        <v>490</v>
+      </c>
+      <c r="M204" t="s">
+        <v>492</v>
+      </c>
+      <c r="N204" t="s">
+        <v>493</v>
+      </c>
+      <c r="O204" t="s">
+        <v>494</v>
+      </c>
+      <c r="P204" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>496</v>
+      </c>
+      <c r="S204" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
+      <c r="A205" t="s">
+        <v>252</v>
+      </c>
+      <c r="L205" t="s">
+        <v>490</v>
+      </c>
+      <c r="M205" t="s">
+        <v>492</v>
+      </c>
+      <c r="N205" t="s">
+        <v>493</v>
+      </c>
+      <c r="O205" t="s">
+        <v>494</v>
+      </c>
+      <c r="P205" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>496</v>
+      </c>
+      <c r="S205" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
+      <c r="A206" t="s">
+        <v>253</v>
+      </c>
+      <c r="L206" t="s">
+        <v>490</v>
+      </c>
+      <c r="M206" t="s">
+        <v>492</v>
+      </c>
+      <c r="N206" t="s">
+        <v>493</v>
+      </c>
+      <c r="O206" t="s">
+        <v>494</v>
+      </c>
+      <c r="P206" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>496</v>
+      </c>
+      <c r="S206" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="A207" t="s">
+        <v>254</v>
+      </c>
+      <c r="L207" t="s">
+        <v>490</v>
+      </c>
+      <c r="M207" t="s">
+        <v>492</v>
+      </c>
+      <c r="N207" t="s">
+        <v>493</v>
+      </c>
+      <c r="O207" t="s">
+        <v>494</v>
+      </c>
+      <c r="P207" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>496</v>
+      </c>
+      <c r="S207" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19">
+      <c r="A208" t="s">
+        <v>255</v>
+      </c>
+      <c r="L208" t="s">
+        <v>490</v>
+      </c>
+      <c r="M208" t="s">
+        <v>492</v>
+      </c>
+      <c r="N208" t="s">
+        <v>493</v>
+      </c>
+      <c r="O208" t="s">
+        <v>494</v>
+      </c>
+      <c r="P208" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>496</v>
+      </c>
+      <c r="S208" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
+      <c r="A209" t="s">
+        <v>256</v>
+      </c>
+      <c r="L209" t="s">
+        <v>490</v>
+      </c>
+      <c r="M209" t="s">
+        <v>492</v>
+      </c>
+      <c r="N209" t="s">
+        <v>493</v>
+      </c>
+      <c r="O209" t="s">
+        <v>494</v>
+      </c>
+      <c r="P209" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>496</v>
+      </c>
+      <c r="S209" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19">
+      <c r="A210" t="s">
+        <v>257</v>
+      </c>
+      <c r="L210" t="s">
+        <v>490</v>
+      </c>
+      <c r="M210" t="s">
+        <v>492</v>
+      </c>
+      <c r="N210" t="s">
+        <v>493</v>
+      </c>
+      <c r="O210" t="s">
+        <v>494</v>
+      </c>
+      <c r="P210" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>496</v>
+      </c>
+      <c r="S210" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19">
+      <c r="A211" t="s">
+        <v>258</v>
+      </c>
+      <c r="L211" t="s">
+        <v>490</v>
+      </c>
+      <c r="M211" t="s">
+        <v>492</v>
+      </c>
+      <c r="N211" t="s">
+        <v>493</v>
+      </c>
+      <c r="O211" t="s">
+        <v>494</v>
+      </c>
+      <c r="P211" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>496</v>
+      </c>
+      <c r="S211" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
+      <c r="A212" t="s">
+        <v>259</v>
+      </c>
+      <c r="L212" t="s">
+        <v>490</v>
+      </c>
+      <c r="M212" t="s">
+        <v>492</v>
+      </c>
+      <c r="N212" t="s">
+        <v>493</v>
+      </c>
+      <c r="O212" t="s">
+        <v>494</v>
+      </c>
+      <c r="P212" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>496</v>
+      </c>
+      <c r="S212" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19">
+      <c r="A213" t="s">
+        <v>260</v>
+      </c>
+      <c r="L213" t="s">
+        <v>490</v>
+      </c>
+      <c r="M213" t="s">
+        <v>492</v>
+      </c>
+      <c r="N213" t="s">
+        <v>493</v>
+      </c>
+      <c r="O213" t="s">
+        <v>494</v>
+      </c>
+      <c r="P213" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>496</v>
+      </c>
+      <c r="S213" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
+      <c r="A214" t="s">
+        <v>261</v>
+      </c>
+      <c r="L214" t="s">
+        <v>490</v>
+      </c>
+      <c r="M214" t="s">
+        <v>492</v>
+      </c>
+      <c r="N214" t="s">
+        <v>493</v>
+      </c>
+      <c r="O214" t="s">
+        <v>494</v>
+      </c>
+      <c r="P214" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>496</v>
+      </c>
+      <c r="S214" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19">
+      <c r="A215" t="s">
+        <v>262</v>
+      </c>
+      <c r="L215" t="s">
+        <v>490</v>
+      </c>
+      <c r="M215" t="s">
+        <v>492</v>
+      </c>
+      <c r="N215" t="s">
+        <v>493</v>
+      </c>
+      <c r="O215" t="s">
+        <v>494</v>
+      </c>
+      <c r="P215" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>496</v>
+      </c>
+      <c r="S215" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
+      <c r="A216" t="s">
+        <v>263</v>
+      </c>
+      <c r="L216" t="s">
+        <v>490</v>
+      </c>
+      <c r="M216" t="s">
+        <v>492</v>
+      </c>
+      <c r="N216" t="s">
+        <v>493</v>
+      </c>
+      <c r="O216" t="s">
+        <v>494</v>
+      </c>
+      <c r="P216" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>496</v>
+      </c>
+      <c r="S216" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19">
+      <c r="A217" t="s">
+        <v>264</v>
+      </c>
+      <c r="L217" t="s">
+        <v>490</v>
+      </c>
+      <c r="M217" t="s">
+        <v>492</v>
+      </c>
+      <c r="N217" t="s">
+        <v>493</v>
+      </c>
+      <c r="O217" t="s">
+        <v>494</v>
+      </c>
+      <c r="P217" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>496</v>
+      </c>
+      <c r="S217" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19">
+      <c r="A218" t="s">
+        <v>265</v>
+      </c>
+      <c r="L218" t="s">
+        <v>490</v>
+      </c>
+      <c r="M218" t="s">
+        <v>492</v>
+      </c>
+      <c r="N218" t="s">
+        <v>493</v>
+      </c>
+      <c r="O218" t="s">
+        <v>494</v>
+      </c>
+      <c r="P218" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>496</v>
+      </c>
+      <c r="S218" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19">
+      <c r="A219" t="s">
+        <v>266</v>
+      </c>
+      <c r="L219" t="s">
+        <v>490</v>
+      </c>
+      <c r="M219" t="s">
+        <v>492</v>
+      </c>
+      <c r="N219" t="s">
+        <v>493</v>
+      </c>
+      <c r="O219" t="s">
+        <v>494</v>
+      </c>
+      <c r="P219" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>496</v>
+      </c>
+      <c r="S219" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
+      <c r="A220" t="s">
+        <v>267</v>
+      </c>
+      <c r="L220" t="s">
+        <v>490</v>
+      </c>
+      <c r="M220" t="s">
+        <v>492</v>
+      </c>
+      <c r="N220" t="s">
+        <v>493</v>
+      </c>
+      <c r="O220" t="s">
+        <v>494</v>
+      </c>
+      <c r="P220" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>496</v>
+      </c>
+      <c r="S220" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19">
+      <c r="A221" t="s">
+        <v>268</v>
+      </c>
+      <c r="L221" t="s">
+        <v>490</v>
+      </c>
+      <c r="M221" t="s">
+        <v>492</v>
+      </c>
+      <c r="N221" t="s">
+        <v>493</v>
+      </c>
+      <c r="O221" t="s">
+        <v>494</v>
+      </c>
+      <c r="P221" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>496</v>
+      </c>
+      <c r="S221" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19">
+      <c r="A222" t="s">
+        <v>269</v>
+      </c>
+      <c r="L222" t="s">
+        <v>490</v>
+      </c>
+      <c r="M222" t="s">
+        <v>492</v>
+      </c>
+      <c r="N222" t="s">
+        <v>493</v>
+      </c>
+      <c r="O222" t="s">
+        <v>494</v>
+      </c>
+      <c r="P222" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>496</v>
+      </c>
+      <c r="S222" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19">
+      <c r="A223" t="s">
+        <v>270</v>
+      </c>
+      <c r="L223" t="s">
+        <v>490</v>
+      </c>
+      <c r="M223" t="s">
+        <v>492</v>
+      </c>
+      <c r="N223" t="s">
+        <v>493</v>
+      </c>
+      <c r="O223" t="s">
+        <v>494</v>
+      </c>
+      <c r="P223" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>496</v>
+      </c>
+      <c r="S223" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19">
+      <c r="A224" t="s">
+        <v>271</v>
+      </c>
+      <c r="L224" t="s">
+        <v>490</v>
+      </c>
+      <c r="M224" t="s">
+        <v>492</v>
+      </c>
+      <c r="N224" t="s">
+        <v>493</v>
+      </c>
+      <c r="O224" t="s">
+        <v>494</v>
+      </c>
+      <c r="P224" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>496</v>
+      </c>
+      <c r="S224" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="225" spans="1:39">
+      <c r="A225" t="s">
+        <v>272</v>
+      </c>
+      <c r="L225" t="s">
+        <v>490</v>
+      </c>
+      <c r="M225" t="s">
+        <v>492</v>
+      </c>
+      <c r="N225" t="s">
+        <v>493</v>
+      </c>
+      <c r="O225" t="s">
+        <v>494</v>
+      </c>
+      <c r="P225" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>496</v>
+      </c>
+      <c r="S225" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="226" spans="1:39">
+      <c r="A226" t="s">
+        <v>273</v>
+      </c>
+      <c r="L226" t="s">
+        <v>490</v>
+      </c>
+      <c r="M226" t="s">
+        <v>492</v>
+      </c>
+      <c r="N226" t="s">
+        <v>493</v>
+      </c>
+      <c r="O226" t="s">
+        <v>494</v>
+      </c>
+      <c r="P226" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>496</v>
+      </c>
+      <c r="S226" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="227" spans="1:39">
+      <c r="A227" t="s">
+        <v>274</v>
+      </c>
+      <c r="L227" t="s">
+        <v>490</v>
+      </c>
+      <c r="M227" t="s">
+        <v>492</v>
+      </c>
+      <c r="N227" t="s">
+        <v>493</v>
+      </c>
+      <c r="O227" t="s">
+        <v>494</v>
+      </c>
+      <c r="P227" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>496</v>
+      </c>
+      <c r="S227" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="228" spans="1:39">
+      <c r="A228" t="s">
+        <v>275</v>
+      </c>
+      <c r="L228" t="s">
+        <v>490</v>
+      </c>
+      <c r="M228" t="s">
+        <v>492</v>
+      </c>
+      <c r="N228" t="s">
+        <v>493</v>
+      </c>
+      <c r="O228" t="s">
+        <v>494</v>
+      </c>
+      <c r="P228" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>496</v>
+      </c>
+      <c r="S228" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="229" spans="1:39">
+      <c r="A229" s="7"/>
+      <c r="B229" t="s">
+        <v>520</v>
+      </c>
+      <c r="C229" t="s">
+        <v>521</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229" t="s">
+        <v>489</v>
+      </c>
+      <c r="M229" t="s">
+        <v>491</v>
+      </c>
+      <c r="S229" t="s">
+        <v>522</v>
+      </c>
+      <c r="U229" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI229" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL229" s="5">
+        <v>28672</v>
+      </c>
+      <c r="AM229" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="230" spans="1:39">
+      <c r="A230" s="7"/>
+      <c r="B230" t="s">
+        <v>526</v>
+      </c>
+      <c r="C230" t="s">
+        <v>521</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230" t="s">
+        <v>489</v>
+      </c>
+      <c r="M230" t="s">
+        <v>491</v>
+      </c>
+      <c r="S230" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC230" t="s">
+        <v>607</v>
+      </c>
+      <c r="AI230" t="s">
+        <v>528</v>
+      </c>
+      <c r="AL230" s="5">
+        <v>30103</v>
+      </c>
+      <c r="AM230" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="1:39">
+      <c r="A231" s="7"/>
+      <c r="B231" t="s">
+        <v>530</v>
+      </c>
+      <c r="C231" t="s">
+        <v>521</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231" t="s">
+        <v>489</v>
+      </c>
+      <c r="M231" t="s">
+        <v>491</v>
+      </c>
+      <c r="S231" t="s">
+        <v>531</v>
+      </c>
+      <c r="U231" t="s">
+        <v>608</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>609</v>
+      </c>
+      <c r="AI231" t="s">
+        <v>532</v>
+      </c>
+      <c r="AL231" s="5">
+        <v>30256</v>
+      </c>
+      <c r="AM231" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="232" spans="1:39">
+      <c r="A232" s="7"/>
+      <c r="B232" t="s">
+        <v>534</v>
+      </c>
+      <c r="C232" t="s">
+        <v>521</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232" t="s">
+        <v>489</v>
+      </c>
+      <c r="M232" t="s">
+        <v>491</v>
+      </c>
+      <c r="S232" t="s">
+        <v>535</v>
+      </c>
+      <c r="AI232" t="s">
+        <v>528</v>
+      </c>
+      <c r="AL232" s="5">
+        <v>30713</v>
+      </c>
+      <c r="AM232" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:39">
+      <c r="A233" s="7"/>
+      <c r="B233" t="s">
+        <v>537</v>
+      </c>
+      <c r="C233" t="s">
+        <v>521</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233" t="s">
+        <v>489</v>
+      </c>
+      <c r="M233" t="s">
+        <v>491</v>
+      </c>
+      <c r="S233" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI233" t="s">
+        <v>539</v>
+      </c>
+      <c r="AL233" s="5">
+        <v>30895</v>
+      </c>
+      <c r="AM233" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="234" spans="1:39">
+      <c r="A234" s="7"/>
+      <c r="B234" t="s">
+        <v>541</v>
+      </c>
+      <c r="C234" t="s">
+        <v>521</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234" t="s">
+        <v>489</v>
+      </c>
+      <c r="M234" t="s">
+        <v>491</v>
+      </c>
+      <c r="S234" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>610</v>
+      </c>
+      <c r="AI234" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL234" s="5">
+        <v>31168</v>
+      </c>
+      <c r="AM234" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="235" spans="1:39">
+      <c r="A235" s="7"/>
+      <c r="B235" t="s">
+        <v>544</v>
+      </c>
+      <c r="C235" t="s">
+        <v>521</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235" t="s">
+        <v>489</v>
+      </c>
+      <c r="M235" t="s">
+        <v>491</v>
+      </c>
+      <c r="S235" t="s">
+        <v>545</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL235" s="5">
+        <v>31564</v>
+      </c>
+      <c r="AM235" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="236" spans="1:39">
+      <c r="A236" s="7"/>
+      <c r="B236" t="s">
+        <v>547</v>
+      </c>
+      <c r="C236" t="s">
+        <v>521</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236" t="s">
+        <v>489</v>
+      </c>
+      <c r="M236" t="s">
+        <v>491</v>
+      </c>
+      <c r="S236" t="s">
+        <v>548</v>
+      </c>
+      <c r="AI236" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL236" s="5">
+        <v>32143</v>
+      </c>
+      <c r="AM236" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="237" spans="1:39">
+      <c r="A237" s="7"/>
+      <c r="B237" t="s">
+        <v>550</v>
+      </c>
+      <c r="C237" t="s">
+        <v>521</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237" t="s">
+        <v>489</v>
+      </c>
+      <c r="M237" t="s">
+        <v>491</v>
+      </c>
+      <c r="S237" t="s">
+        <v>551</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL237" s="5">
+        <v>32782</v>
+      </c>
+      <c r="AM237" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="238" spans="1:39">
+      <c r="A238" s="7"/>
+      <c r="B238" t="s">
+        <v>553</v>
+      </c>
+      <c r="C238" t="s">
+        <v>521</v>
+      </c>
+      <c r="K238">
+        <v>2</v>
+      </c>
+      <c r="L238" t="s">
+        <v>489</v>
+      </c>
+      <c r="M238" t="s">
+        <v>491</v>
+      </c>
+      <c r="S238" t="s">
+        <v>554</v>
+      </c>
+      <c r="U238" t="s">
+        <v>555</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL238" s="5">
+        <v>32905</v>
+      </c>
+      <c r="AM238" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="239" spans="1:39">
+      <c r="A239" s="7"/>
+      <c r="B239" t="s">
+        <v>557</v>
+      </c>
+      <c r="C239" t="s">
+        <v>521</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239" t="s">
+        <v>489</v>
+      </c>
+      <c r="M239" t="s">
+        <v>491</v>
+      </c>
+      <c r="S239" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>532</v>
+      </c>
+      <c r="AL239" s="5">
+        <v>33482</v>
+      </c>
+      <c r="AM239" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="240" spans="1:39">
+      <c r="A240" s="7"/>
+      <c r="B240" t="s">
+        <v>560</v>
+      </c>
+      <c r="C240" t="s">
+        <v>521</v>
+      </c>
+      <c r="K240">
+        <v>2</v>
+      </c>
+      <c r="L240" t="s">
+        <v>489</v>
+      </c>
+      <c r="M240" t="s">
+        <v>491</v>
+      </c>
+      <c r="S240" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI240" t="s">
+        <v>562</v>
+      </c>
+      <c r="AL240" s="5">
+        <v>34639</v>
+      </c>
+      <c r="AM240" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/master-2.xlsx
+++ b/data/master-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93f37494ca9b136a/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A68510ED-94CB-4BC5-B516-1BDF2D2EA522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05F05FC6-126E-43D0-83D2-FE61F82C97A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4840" yWindow="500" windowWidth="38260" windowHeight="25460" xr2:uid="{4B520F98-5930-514C-BD16-7DA1FF5F44D9}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="1138">
   <si>
     <t>ProjectID</t>
   </si>
@@ -73,7 +73,7 @@
     <t>ReconciliationNotes</t>
   </si>
   <si>
-    <t>GitHub_PDF_Link</t>
+    <t>PDF_Link</t>
   </si>
   <si>
     <t>INBUDS_ArticleID</t>
@@ -2462,6 +2462,9 @@
     <t xml:space="preserve">Asiatische Studien - Études Asiatiques </t>
   </si>
   <si>
+    <t>スイス</t>
+  </si>
+  <si>
     <t>Zurich</t>
   </si>
   <si>
@@ -2630,22 +2633,46 @@
     <t>論文-175</t>
   </si>
   <si>
+    <t>翻訳者「釋性一」が記載できず https://www.ykbi.edu.tw/modules/journal/journal_p6.php</t>
+  </si>
+  <si>
+    <t>https://www.ykbi.edu.tw/modules/journal/data_6/journal_6_1.pdf</t>
+  </si>
+  <si>
+    <t>5（繁体字）</t>
+  </si>
+  <si>
     <t>無常（刹那滅）説與永遠的佛</t>
   </si>
   <si>
-    <t>圓光佛學學報</t>
-  </si>
-  <si>
-    <t>エンコウブツガクガクホウ</t>
-  </si>
-  <si>
-    <t>Yuan Kuan Buddhist Journal</t>
-  </si>
-  <si>
-    <t>台湾</t>
+    <t>圓光學報</t>
+  </si>
+  <si>
+    <t>Yuan Kuang Journal of Buddhist Studies</t>
+  </si>
+  <si>
+    <t>圓光佛學研究所</t>
+  </si>
+  <si>
+    <t>中華民国</t>
   </si>
   <si>
     <t>Chung-li</t>
+  </si>
+  <si>
+    <t>1608-6848</t>
+  </si>
+  <si>
+    <t>msk1761</t>
+  </si>
+  <si>
+    <t>https://www.ykbi.edu.tw/modules/journal/journal_p7.php</t>
+  </si>
+  <si>
+    <t>https://www.ykbi.edu.tw/modules/journal/data_6/journal_6_2.pdf</t>
+  </si>
+  <si>
+    <t>Theories of Impermanence (Momentary Destruction) and the Eternal Buddha</t>
   </si>
   <si>
     <t>msk1770</t>
@@ -3530,7 +3557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3705,6 +3732,15 @@
       <color rgb="FF000000"/>
       <name val="Yu Mincho"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -4016,7 +4052,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4143,8 +4179,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4220,8 +4259,11 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4240,6 +4282,7 @@
     <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -4613,11 +4656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B5C9C-E65E-5147-8F7A-F897A99FA9F3}">
-  <dimension ref="A1:AW241"/>
+  <dimension ref="A1:AW242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5"/>
@@ -4630,7 +4673,8 @@
     <col min="6" max="6" width="5.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="5.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="5.21875" style="3" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.21875" style="3" customWidth="1"/>
@@ -15747,9 +15791,11 @@
       <c r="AG167" s="5"/>
       <c r="AH167" s="5"/>
       <c r="AI167" s="5"/>
-      <c r="AJ167" s="5"/>
+      <c r="AJ167" s="5" t="s">
+        <v>776</v>
+      </c>
       <c r="AK167" s="5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AL167" s="6">
         <v>36465</v>
@@ -15762,10 +15808,10 @@
     </row>
     <row r="168" spans="1:43">
       <c r="A168" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>51</v>
@@ -15806,7 +15852,7 @@
         <v>731</v>
       </c>
       <c r="S168" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
@@ -15825,7 +15871,7 @@
         <v>223</v>
       </c>
       <c r="AD168" s="18" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AE168" s="18"/>
       <c r="AF168" s="18"/>
@@ -15847,10 +15893,10 @@
     </row>
     <row r="169" spans="1:43">
       <c r="A169" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>51</v>
@@ -15891,11 +15937,11 @@
         <v>731</v>
       </c>
       <c r="S169" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="T169" s="5"/>
       <c r="U169" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="V169" s="5"/>
       <c r="W169" s="5"/>
@@ -15909,17 +15955,17 @@
       </c>
       <c r="AB169" s="5"/>
       <c r="AC169" s="18" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AD169" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
       <c r="AG169" s="18"/>
       <c r="AH169" s="5"/>
       <c r="AI169" s="18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AJ169" s="18"/>
       <c r="AK169" s="18" t="s">
@@ -15936,10 +15982,10 @@
     </row>
     <row r="170" spans="1:43">
       <c r="A170" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>51</v>
@@ -15980,7 +16026,7 @@
         <v>731</v>
       </c>
       <c r="S170" s="5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
@@ -15996,19 +16042,19 @@
       </c>
       <c r="AB170" s="18"/>
       <c r="AC170" s="18" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AD170" s="18" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AE170" s="18"/>
       <c r="AF170" s="5"/>
       <c r="AG170" s="18" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AH170" s="18"/>
       <c r="AI170" s="18" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AJ170" s="18"/>
       <c r="AK170" s="5"/>
@@ -16023,10 +16069,10 @@
     </row>
     <row r="171" spans="1:43">
       <c r="A171" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>51</v>
@@ -16067,7 +16113,7 @@
         <v>731</v>
       </c>
       <c r="S171" s="5" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
@@ -16083,15 +16129,15 @@
       </c>
       <c r="AB171" s="18"/>
       <c r="AC171" s="18" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AD171" s="18" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AE171" s="18"/>
       <c r="AF171" s="5"/>
       <c r="AG171" s="18" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AH171" s="18"/>
       <c r="AI171" s="18" t="s">
@@ -16112,10 +16158,10 @@
     </row>
     <row r="172" spans="1:43">
       <c r="A172" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>51</v>
@@ -16156,11 +16202,11 @@
         <v>731</v>
       </c>
       <c r="S172" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="T172" s="5"/>
       <c r="U172" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="V172" s="5"/>
       <c r="W172" s="5"/>
@@ -16177,7 +16223,7 @@
         <v>690</v>
       </c>
       <c r="AD172" s="18" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
@@ -16198,10 +16244,10 @@
     </row>
     <row r="173" spans="1:43">
       <c r="A173" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>51</v>
@@ -16242,13 +16288,13 @@
         <v>731</v>
       </c>
       <c r="S173" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
       <c r="V173" s="5"/>
       <c r="W173" s="5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="X173" s="5"/>
       <c r="Y173" s="5"/>
@@ -16263,7 +16309,7 @@
         <v>764</v>
       </c>
       <c r="AD173" s="18" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
@@ -16286,10 +16332,10 @@
     </row>
     <row r="174" spans="1:43">
       <c r="A174" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>51</v>
@@ -16330,7 +16376,7 @@
         <v>731</v>
       </c>
       <c r="S174" s="5" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
@@ -16346,15 +16392,15 @@
       </c>
       <c r="AB174" s="18"/>
       <c r="AC174" s="18" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AD174" s="18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AE174" s="18"/>
       <c r="AF174" s="5"/>
       <c r="AG174" s="18" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AH174" s="18"/>
       <c r="AI174" s="18" t="s">
@@ -16375,10 +16421,10 @@
     </row>
     <row r="175" spans="1:43">
       <c r="A175" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>51</v>
@@ -16419,7 +16465,7 @@
         <v>731</v>
       </c>
       <c r="S175" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
@@ -16435,15 +16481,15 @@
       </c>
       <c r="AB175" s="18"/>
       <c r="AC175" s="18" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AD175" s="18" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AE175" s="18"/>
       <c r="AF175" s="5"/>
       <c r="AG175" s="18" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AH175" s="18"/>
       <c r="AI175" s="18" t="s">
@@ -16464,10 +16510,10 @@
     </row>
     <row r="176" spans="1:43">
       <c r="A176" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>51</v>
@@ -16508,7 +16554,7 @@
         <v>731</v>
       </c>
       <c r="S176" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
@@ -16527,7 +16573,7 @@
         <v>60</v>
       </c>
       <c r="AD176" s="18" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AE176" s="18"/>
       <c r="AF176" s="18"/>
@@ -16551,10 +16597,10 @@
     </row>
     <row r="177" spans="1:43">
       <c r="A177" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>51</v>
@@ -16595,7 +16641,7 @@
         <v>731</v>
       </c>
       <c r="S177" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="T177" s="5"/>
       <c r="U177" s="5"/>
@@ -16614,7 +16660,7 @@
         <v>764</v>
       </c>
       <c r="AD177" s="18" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AE177" s="18"/>
       <c r="AF177" s="5"/>
@@ -16637,24 +16683,28 @@
     </row>
     <row r="178" spans="1:43">
       <c r="A178" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="B178" s="7" t="s">
         <v>831</v>
       </c>
+      <c r="B178" s="5" t="s">
+        <v>832</v>
+      </c>
       <c r="C178" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
+      <c r="E178" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="F178" s="25" t="s">
+        <v>834</v>
+      </c>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7">
         <v>1</v>
       </c>
-      <c r="J178" s="7">
-        <v>1</v>
+      <c r="J178" s="7" t="s">
+        <v>835</v>
       </c>
       <c r="K178" s="7">
         <v>1</v>
@@ -16681,7 +16731,7 @@
         <v>731</v>
       </c>
       <c r="S178" s="5" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
@@ -16690,61 +16740,67 @@
       <c r="X178" s="5"/>
       <c r="Y178" s="5"/>
       <c r="Z178" s="18">
-        <v>14</v>
-      </c>
-      <c r="AA178" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA178" s="18">
+        <v>10</v>
+      </c>
       <c r="AB178" s="5"/>
       <c r="AC178" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="AD178" s="18" t="s">
-        <v>834</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="AD178" s="18"/>
       <c r="AE178" s="18" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AF178" s="18"/>
-      <c r="AG178" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="AH178" s="18" t="s">
-        <v>836</v>
-      </c>
+      <c r="AG178" s="18"/>
+      <c r="AH178" s="18"/>
       <c r="AI178" s="18" t="s">
-        <v>837</v>
-      </c>
-      <c r="AJ178" s="5"/>
-      <c r="AK178" s="5"/>
+        <v>839</v>
+      </c>
+      <c r="AJ178" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="AK178" s="5" t="s">
+        <v>841</v>
+      </c>
       <c r="AL178" s="20">
-        <v>45992</v>
+        <v>37226</v>
       </c>
       <c r="AM178" s="18"/>
       <c r="AO178" s="18">
         <v>6</v>
       </c>
-      <c r="AP178" s="17"/>
+      <c r="AP178" s="17" t="s">
+        <v>842</v>
+      </c>
       <c r="AQ178" s="17"/>
     </row>
     <row r="179" spans="1:43">
       <c r="A179" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>839</v>
+        <v>843</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>832</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
+      <c r="E179" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="F179" s="25" t="s">
+        <v>845</v>
+      </c>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
       <c r="I179" s="7">
         <v>1</v>
       </c>
       <c r="J179" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K179" s="7">
         <v>1</v>
@@ -16771,7 +16827,7 @@
         <v>731</v>
       </c>
       <c r="S179" s="5" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="T179" s="5"/>
       <c r="U179" s="5"/>
@@ -16780,42 +16836,49 @@
       <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
       <c r="Z179" s="18">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="AA179" s="18">
-        <v>77</v>
-      </c>
-      <c r="AB179" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="AB179" s="5"/>
       <c r="AC179" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD179" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="AE179" s="18"/>
+        <v>837</v>
+      </c>
+      <c r="AD179" s="18"/>
+      <c r="AE179" s="18" t="s">
+        <v>838</v>
+      </c>
       <c r="AF179" s="18"/>
       <c r="AG179" s="18"/>
       <c r="AH179" s="18"/>
-      <c r="AI179" s="5"/>
-      <c r="AJ179" s="5"/>
-      <c r="AK179" s="5"/>
-      <c r="AL179" s="19">
-        <v>37530</v>
-      </c>
-      <c r="AM179" s="5"/>
-      <c r="AN179" s="18"/>
+      <c r="AI179" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ179" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="AK179" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="AL179" s="20">
+        <v>37226</v>
+      </c>
+      <c r="AM179" s="18"/>
       <c r="AO179" s="18">
-        <v>17</v>
-      </c>
-      <c r="AP179" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="AP179" s="17" t="s">
+        <v>842</v>
+      </c>
       <c r="AQ179" s="17"/>
     </row>
     <row r="180" spans="1:43">
       <c r="A180" s="3" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>51</v>
@@ -16856,7 +16919,7 @@
         <v>731</v>
       </c>
       <c r="S180" s="5" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="T180" s="5"/>
       <c r="U180" s="5"/>
@@ -16865,42 +16928,42 @@
       <c r="X180" s="5"/>
       <c r="Y180" s="5"/>
       <c r="Z180" s="18">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="AA180" s="18">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AB180" s="18"/>
       <c r="AC180" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="AD180" s="18"/>
+        <v>690</v>
+      </c>
+      <c r="AD180" s="18" t="s">
+        <v>806</v>
+      </c>
       <c r="AE180" s="18"/>
       <c r="AF180" s="18"/>
       <c r="AG180" s="18"/>
       <c r="AH180" s="18"/>
-      <c r="AI180" s="18"/>
+      <c r="AI180" s="5"/>
       <c r="AJ180" s="5"/>
       <c r="AK180" s="5"/>
       <c r="AL180" s="19">
         <v>37530</v>
       </c>
-      <c r="AM180" s="18">
-        <v>152</v>
-      </c>
-      <c r="AN180" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO180" s="18"/>
+      <c r="AM180" s="5"/>
+      <c r="AN180" s="18"/>
+      <c r="AO180" s="18">
+        <v>17</v>
+      </c>
       <c r="AP180" s="17"/>
       <c r="AQ180" s="17"/>
     </row>
     <row r="181" spans="1:43">
       <c r="A181" s="3" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>51</v>
@@ -16941,7 +17004,7 @@
         <v>731</v>
       </c>
       <c r="S181" s="5" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="T181" s="5"/>
       <c r="U181" s="5"/>
@@ -16950,42 +17013,42 @@
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
       <c r="Z181" s="18">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="AA181" s="18">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AB181" s="18"/>
       <c r="AC181" s="18" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="AD181" s="18"/>
-      <c r="AE181" s="18" t="s">
-        <v>849</v>
-      </c>
+      <c r="AE181" s="18"/>
       <c r="AF181" s="18"/>
-      <c r="AG181" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="AH181" s="5"/>
-      <c r="AI181" s="5"/>
+      <c r="AG181" s="18"/>
+      <c r="AH181" s="18"/>
+      <c r="AI181" s="18"/>
       <c r="AJ181" s="5"/>
       <c r="AK181" s="5"/>
       <c r="AL181" s="19">
         <v>37530</v>
       </c>
-      <c r="AM181" s="18"/>
-      <c r="AN181" s="18"/>
+      <c r="AM181" s="18">
+        <v>152</v>
+      </c>
+      <c r="AN181" s="18">
+        <v>2</v>
+      </c>
       <c r="AO181" s="18"/>
       <c r="AP181" s="17"/>
       <c r="AQ181" s="17"/>
     </row>
     <row r="182" spans="1:43">
       <c r="A182" s="3" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>51</v>
@@ -17026,55 +17089,51 @@
         <v>731</v>
       </c>
       <c r="S182" s="5" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
-        <v>854</v>
-      </c>
+      <c r="U182" s="5"/>
       <c r="V182" s="5"/>
       <c r="W182" s="5"/>
       <c r="X182" s="5"/>
       <c r="Y182" s="5"/>
       <c r="Z182" s="18">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="AA182" s="18">
-        <v>380</v>
+        <v>296</v>
       </c>
       <c r="AB182" s="18"/>
       <c r="AC182" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD182" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE182" s="5"/>
-      <c r="AF182" s="5"/>
-      <c r="AG182" s="18"/>
-      <c r="AH182" s="18"/>
-      <c r="AI182" s="18"/>
-      <c r="AJ182" s="18"/>
-      <c r="AK182" s="18"/>
+        <v>857</v>
+      </c>
+      <c r="AD182" s="18"/>
+      <c r="AE182" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF182" s="18"/>
+      <c r="AG182" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="AH182" s="5"/>
+      <c r="AI182" s="5"/>
+      <c r="AJ182" s="5"/>
+      <c r="AK182" s="5"/>
       <c r="AL182" s="19">
-        <v>37591</v>
-      </c>
-      <c r="AM182" s="18">
-        <v>51</v>
-      </c>
-      <c r="AN182" s="18">
-        <v>1</v>
-      </c>
+        <v>37530</v>
+      </c>
+      <c r="AM182" s="18"/>
+      <c r="AN182" s="18"/>
       <c r="AO182" s="18"/>
       <c r="AP182" s="17"/>
       <c r="AQ182" s="17"/>
     </row>
     <row r="183" spans="1:43">
       <c r="A183" s="3" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>51</v>
@@ -17115,28 +17174,28 @@
         <v>731</v>
       </c>
       <c r="S183" s="5" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="T183" s="5"/>
       <c r="U183" s="5" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="V183" s="5"/>
       <c r="W183" s="5"/>
       <c r="X183" s="5"/>
       <c r="Y183" s="5"/>
       <c r="Z183" s="18">
-        <v>52</v>
+        <v>384</v>
       </c>
       <c r="AA183" s="18">
-        <v>72</v>
+        <v>380</v>
       </c>
       <c r="AB183" s="18"/>
       <c r="AC183" s="18" t="s">
-        <v>690</v>
+        <v>60</v>
       </c>
       <c r="AD183" s="18" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
@@ -17144,23 +17203,26 @@
       <c r="AH183" s="18"/>
       <c r="AI183" s="18"/>
       <c r="AJ183" s="18"/>
-      <c r="AK183" s="5"/>
+      <c r="AK183" s="18"/>
       <c r="AL183" s="19">
-        <v>37895</v>
-      </c>
-      <c r="AN183" s="18"/>
-      <c r="AO183" s="18">
-        <v>18</v>
-      </c>
+        <v>37591</v>
+      </c>
+      <c r="AM183" s="18">
+        <v>51</v>
+      </c>
+      <c r="AN183" s="18">
+        <v>1</v>
+      </c>
+      <c r="AO183" s="18"/>
       <c r="AP183" s="17"/>
       <c r="AQ183" s="17"/>
     </row>
     <row r="184" spans="1:43">
       <c r="A184" s="3" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>51</v>
@@ -17201,54 +17263,52 @@
         <v>731</v>
       </c>
       <c r="S184" s="5" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="T184" s="5"/>
-      <c r="U184" s="5"/>
+      <c r="U184" s="5" t="s">
+        <v>867</v>
+      </c>
       <c r="V184" s="5"/>
       <c r="W184" s="5"/>
       <c r="X184" s="5"/>
       <c r="Y184" s="5"/>
       <c r="Z184" s="18">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="AA184" s="18">
-        <v>548</v>
+        <v>72</v>
       </c>
       <c r="AB184" s="18"/>
       <c r="AC184" s="18" t="s">
-        <v>862</v>
+        <v>690</v>
       </c>
       <c r="AD184" s="18" t="s">
-        <v>863</v>
-      </c>
-      <c r="AE184" s="18"/>
+        <v>806</v>
+      </c>
+      <c r="AE184" s="5"/>
       <c r="AF184" s="5"/>
-      <c r="AG184" s="18" t="s">
-        <v>864</v>
-      </c>
+      <c r="AG184" s="18"/>
       <c r="AH184" s="18"/>
-      <c r="AI184" s="18" t="s">
-        <v>651</v>
-      </c>
+      <c r="AI184" s="18"/>
       <c r="AJ184" s="18"/>
-      <c r="AK184" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="AK184" s="5"/>
       <c r="AL184" s="19">
-        <v>38047</v>
+        <v>37895</v>
       </c>
       <c r="AN184" s="18"/>
-      <c r="AO184" s="18"/>
+      <c r="AO184" s="18">
+        <v>18</v>
+      </c>
       <c r="AP184" s="17"/>
       <c r="AQ184" s="17"/>
     </row>
     <row r="185" spans="1:43">
       <c r="A185" s="3" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>51</v>
@@ -17289,7 +17349,7 @@
         <v>731</v>
       </c>
       <c r="S185" s="5" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="T185" s="5"/>
       <c r="U185" s="5"/>
@@ -17298,41 +17358,45 @@
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
       <c r="Z185" s="18">
-        <v>72</v>
+        <v>515</v>
       </c>
       <c r="AA185" s="18">
-        <v>89</v>
+        <v>548</v>
       </c>
       <c r="AB185" s="18"/>
       <c r="AC185" s="18" t="s">
-        <v>690</v>
+        <v>871</v>
       </c>
       <c r="AD185" s="18" t="s">
-        <v>805</v>
+        <v>872</v>
       </c>
       <c r="AE185" s="18"/>
-      <c r="AF185" s="18"/>
-      <c r="AG185" s="18"/>
+      <c r="AF185" s="5"/>
+      <c r="AG185" s="18" t="s">
+        <v>873</v>
+      </c>
       <c r="AH185" s="18"/>
-      <c r="AI185" s="5"/>
-      <c r="AJ185" s="5"/>
-      <c r="AK185" s="18"/>
+      <c r="AI185" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="AJ185" s="18"/>
+      <c r="AK185" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AL185" s="19">
-        <v>38261</v>
+        <v>38047</v>
       </c>
       <c r="AN185" s="18"/>
-      <c r="AO185" s="18">
-        <v>19</v>
-      </c>
+      <c r="AO185" s="18"/>
       <c r="AP185" s="17"/>
       <c r="AQ185" s="17"/>
     </row>
     <row r="186" spans="1:43">
       <c r="A186" s="3" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>51</v>
@@ -17373,54 +17437,50 @@
         <v>731</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
-        <v>871</v>
-      </c>
+      <c r="U186" s="5"/>
       <c r="V186" s="5"/>
       <c r="W186" s="5"/>
       <c r="X186" s="5"/>
       <c r="Y186" s="5"/>
       <c r="Z186" s="18">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AA186" s="18">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AB186" s="18"/>
       <c r="AC186" s="18" t="s">
-        <v>872</v>
+        <v>690</v>
       </c>
       <c r="AD186" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="AE186" s="5"/>
-      <c r="AF186" s="5"/>
+        <v>806</v>
+      </c>
+      <c r="AE186" s="18"/>
+      <c r="AF186" s="18"/>
       <c r="AG186" s="18"/>
       <c r="AH186" s="18"/>
-      <c r="AI186" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="AJ186" s="18"/>
-      <c r="AK186" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="AI186" s="5"/>
+      <c r="AJ186" s="5"/>
+      <c r="AK186" s="18"/>
       <c r="AL186" s="19">
-        <v>38292</v>
-      </c>
-      <c r="AM186" s="18"/>
+        <v>38261</v>
+      </c>
+      <c r="AN186" s="18"/>
       <c r="AO186" s="18">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AP186" s="17"/>
+      <c r="AQ186" s="17"/>
     </row>
     <row r="187" spans="1:43">
       <c r="A187" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>51</v>
@@ -17461,35 +17521,35 @@
         <v>731</v>
       </c>
       <c r="S187" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="T187" s="5"/>
-      <c r="U187" s="5"/>
+      <c r="U187" s="5" t="s">
+        <v>880</v>
+      </c>
       <c r="V187" s="5"/>
       <c r="W187" s="5"/>
       <c r="X187" s="5"/>
       <c r="Y187" s="5"/>
       <c r="Z187" s="18">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="AA187" s="18">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="AB187" s="18"/>
       <c r="AC187" s="18" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="AD187" s="18" t="s">
-        <v>879</v>
-      </c>
-      <c r="AE187" s="18"/>
+        <v>882</v>
+      </c>
+      <c r="AE187" s="5"/>
       <c r="AF187" s="5"/>
-      <c r="AG187" s="18" t="s">
-        <v>880</v>
-      </c>
+      <c r="AG187" s="18"/>
       <c r="AH187" s="18"/>
       <c r="AI187" s="18" t="s">
-        <v>211</v>
+        <v>883</v>
       </c>
       <c r="AJ187" s="18"/>
       <c r="AK187" s="5" t="s">
@@ -17499,17 +17559,16 @@
         <v>38292</v>
       </c>
       <c r="AM187" s="18"/>
-      <c r="AN187" s="18"/>
-      <c r="AO187" s="18"/>
-      <c r="AP187" s="17"/>
-      <c r="AQ187" s="17"/>
+      <c r="AO187" s="18">
+        <v>12</v>
+      </c>
     </row>
     <row r="188" spans="1:43">
       <c r="A188" s="3" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>51</v>
@@ -17550,7 +17609,7 @@
         <v>731</v>
       </c>
       <c r="S188" s="5" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="T188" s="5"/>
       <c r="U188" s="5"/>
@@ -17559,48 +17618,46 @@
       <c r="X188" s="5"/>
       <c r="Y188" s="5"/>
       <c r="Z188" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA188" s="18">
         <v>32</v>
       </c>
       <c r="AB188" s="18"/>
       <c r="AC188" s="18" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="AD188" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="AE188" s="18" t="s">
-        <v>886</v>
-      </c>
-      <c r="AF188" s="18"/>
+        <v>888</v>
+      </c>
+      <c r="AE188" s="18"/>
+      <c r="AF188" s="5"/>
       <c r="AG188" s="18" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AH188" s="18"/>
-      <c r="AI188" s="18"/>
+      <c r="AI188" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="AJ188" s="18"/>
-      <c r="AK188" s="5"/>
+      <c r="AK188" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="AL188" s="19">
         <v>38292</v>
       </c>
-      <c r="AM188" s="18">
-        <v>7</v>
-      </c>
-      <c r="AN188" s="18">
-        <v>8</v>
-      </c>
+      <c r="AM188" s="18"/>
+      <c r="AN188" s="18"/>
       <c r="AO188" s="18"/>
       <c r="AP188" s="17"/>
       <c r="AQ188" s="17"/>
     </row>
     <row r="189" spans="1:43">
       <c r="A189" s="3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>51</v>
@@ -17641,7 +17698,7 @@
         <v>731</v>
       </c>
       <c r="S189" s="5" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
@@ -17650,44 +17707,48 @@
       <c r="X189" s="5"/>
       <c r="Y189" s="5"/>
       <c r="Z189" s="18">
-        <v>685</v>
+        <v>1</v>
       </c>
       <c r="AA189" s="18">
-        <v>705</v>
+        <v>32</v>
       </c>
       <c r="AB189" s="18"/>
       <c r="AC189" s="18" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AD189" s="18" t="s">
-        <v>892</v>
-      </c>
-      <c r="AE189" s="18"/>
+        <v>894</v>
+      </c>
+      <c r="AE189" s="18" t="s">
+        <v>895</v>
+      </c>
       <c r="AF189" s="18"/>
-      <c r="AG189" s="18"/>
+      <c r="AG189" s="18" t="s">
+        <v>896</v>
+      </c>
       <c r="AH189" s="18"/>
-      <c r="AI189" s="18" t="s">
-        <v>893</v>
-      </c>
+      <c r="AI189" s="18"/>
       <c r="AJ189" s="18"/>
-      <c r="AK189" s="18" t="s">
-        <v>894</v>
-      </c>
+      <c r="AK189" s="5"/>
       <c r="AL189" s="19">
-        <v>38261</v>
-      </c>
-      <c r="AM189" s="18"/>
-      <c r="AN189" s="18"/>
+        <v>38292</v>
+      </c>
+      <c r="AM189" s="18">
+        <v>7</v>
+      </c>
+      <c r="AN189" s="18">
+        <v>8</v>
+      </c>
       <c r="AO189" s="18"/>
       <c r="AP189" s="17"/>
       <c r="AQ189" s="17"/>
     </row>
     <row r="190" spans="1:43">
       <c r="A190" s="3" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>51</v>
@@ -17728,7 +17789,7 @@
         <v>731</v>
       </c>
       <c r="S190" s="5" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="T190" s="5"/>
       <c r="U190" s="5"/>
@@ -17737,41 +17798,44 @@
       <c r="X190" s="5"/>
       <c r="Y190" s="5"/>
       <c r="Z190" s="18">
-        <v>121</v>
+        <v>685</v>
       </c>
       <c r="AA190" s="18">
-        <v>137</v>
+        <v>705</v>
       </c>
       <c r="AB190" s="18"/>
       <c r="AC190" s="18" t="s">
-        <v>690</v>
+        <v>900</v>
       </c>
       <c r="AD190" s="18" t="s">
-        <v>805</v>
+        <v>901</v>
       </c>
       <c r="AE190" s="18"/>
       <c r="AF190" s="18"/>
       <c r="AG190" s="18"/>
       <c r="AH190" s="18"/>
-      <c r="AI190" s="5"/>
-      <c r="AJ190" s="5"/>
-      <c r="AK190" s="18"/>
+      <c r="AI190" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="AJ190" s="18"/>
+      <c r="AK190" s="18" t="s">
+        <v>903</v>
+      </c>
       <c r="AL190" s="19">
-        <v>38657</v>
-      </c>
+        <v>38261</v>
+      </c>
+      <c r="AM190" s="18"/>
       <c r="AN190" s="18"/>
-      <c r="AO190" s="18">
-        <v>20</v>
-      </c>
+      <c r="AO190" s="18"/>
       <c r="AP190" s="17"/>
       <c r="AQ190" s="17"/>
     </row>
     <row r="191" spans="1:43">
       <c r="A191" s="3" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>51</v>
@@ -17812,57 +17876,50 @@
         <v>731</v>
       </c>
       <c r="S191" s="5" t="s">
-        <v>870</v>
+        <v>906</v>
       </c>
       <c r="T191" s="5"/>
-      <c r="U191" s="5" t="s">
-        <v>900</v>
-      </c>
+      <c r="U191" s="5"/>
       <c r="V191" s="5"/>
       <c r="W191" s="5"/>
       <c r="X191" s="5"/>
       <c r="Y191" s="5"/>
       <c r="Z191" s="18">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="AA191" s="18">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="AB191" s="18"/>
       <c r="AC191" s="18" t="s">
-        <v>901</v>
+        <v>690</v>
       </c>
       <c r="AD191" s="18" t="s">
-        <v>902</v>
-      </c>
-      <c r="AE191" s="5"/>
-      <c r="AF191" s="5"/>
-      <c r="AG191" s="18" t="s">
-        <v>903</v>
-      </c>
-      <c r="AH191" s="5"/>
-      <c r="AI191" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ191" s="18"/>
-      <c r="AK191" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="AE191" s="18"/>
+      <c r="AF191" s="18"/>
+      <c r="AG191" s="18"/>
+      <c r="AH191" s="18"/>
+      <c r="AI191" s="5"/>
+      <c r="AJ191" s="5"/>
+      <c r="AK191" s="18"/>
       <c r="AL191" s="19">
         <v>38657</v>
       </c>
-      <c r="AM191" s="5"/>
       <c r="AN191" s="18"/>
-      <c r="AO191" s="18"/>
+      <c r="AO191" s="18">
+        <v>20</v>
+      </c>
       <c r="AP191" s="17"/>
       <c r="AQ191" s="17"/>
     </row>
     <row r="192" spans="1:43">
       <c r="A192" s="3" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>51</v>
@@ -17903,55 +17960,57 @@
         <v>731</v>
       </c>
       <c r="S192" s="5" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="T192" s="5"/>
       <c r="U192" s="5" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="V192" s="5"/>
       <c r="W192" s="5"/>
       <c r="X192" s="5"/>
       <c r="Y192" s="5"/>
       <c r="Z192" s="18">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="AA192" s="18">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="AB192" s="18"/>
       <c r="AC192" s="18" t="s">
-        <v>60</v>
+        <v>910</v>
       </c>
       <c r="AD192" s="18" t="s">
-        <v>826</v>
+        <v>911</v>
       </c>
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
-      <c r="AG192" s="18"/>
-      <c r="AH192" s="18"/>
-      <c r="AI192" s="18"/>
+      <c r="AG192" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="AH192" s="5"/>
+      <c r="AI192" s="18" t="s">
+        <v>314</v>
+      </c>
       <c r="AJ192" s="18"/>
-      <c r="AK192" s="18"/>
+      <c r="AK192" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AL192" s="19">
-        <v>38687</v>
-      </c>
-      <c r="AM192" s="18">
-        <v>54</v>
-      </c>
-      <c r="AN192" s="18">
-        <v>1</v>
-      </c>
+        <v>38657</v>
+      </c>
+      <c r="AM192" s="5"/>
+      <c r="AN192" s="18"/>
       <c r="AO192" s="18"/>
       <c r="AP192" s="17"/>
       <c r="AQ192" s="17"/>
     </row>
     <row r="193" spans="1:43">
       <c r="A193" s="3" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>51</v>
@@ -17992,28 +18051,28 @@
         <v>731</v>
       </c>
       <c r="S193" s="5" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="T193" s="5"/>
       <c r="U193" s="5" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="V193" s="5"/>
       <c r="W193" s="5"/>
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
       <c r="Z193" s="18">
-        <v>63</v>
+        <v>389</v>
       </c>
       <c r="AA193" s="18">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="AB193" s="18"/>
       <c r="AC193" s="18" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="AD193" s="18" t="s">
-        <v>780</v>
+        <v>827</v>
       </c>
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
@@ -18023,21 +18082,24 @@
       <c r="AJ193" s="18"/>
       <c r="AK193" s="18"/>
       <c r="AL193" s="19">
-        <v>38777</v>
-      </c>
-      <c r="AN193" s="18"/>
-      <c r="AO193" s="18">
-        <v>34</v>
-      </c>
+        <v>38687</v>
+      </c>
+      <c r="AM193" s="18">
+        <v>54</v>
+      </c>
+      <c r="AN193" s="18">
+        <v>1</v>
+      </c>
+      <c r="AO193" s="18"/>
       <c r="AP193" s="17"/>
       <c r="AQ193" s="17"/>
     </row>
     <row r="194" spans="1:43">
       <c r="A194" s="3" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>51</v>
@@ -18078,56 +18140,52 @@
         <v>731</v>
       </c>
       <c r="S194" s="5" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="T194" s="5"/>
       <c r="U194" s="5" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="V194" s="5"/>
       <c r="W194" s="5"/>
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
       <c r="Z194" s="18">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="AA194" s="18">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="AB194" s="18"/>
       <c r="AC194" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="AD194" s="18"/>
+        <v>223</v>
+      </c>
+      <c r="AD194" s="18" t="s">
+        <v>781</v>
+      </c>
       <c r="AE194" s="5"/>
       <c r="AF194" s="5"/>
-      <c r="AG194" s="18" t="s">
-        <v>917</v>
-      </c>
-      <c r="AH194" s="18" t="s">
-        <v>918</v>
-      </c>
-      <c r="AI194" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ194" s="5"/>
-      <c r="AK194" s="18" t="s">
-        <v>155</v>
-      </c>
+      <c r="AG194" s="18"/>
+      <c r="AH194" s="18"/>
+      <c r="AI194" s="18"/>
+      <c r="AJ194" s="18"/>
+      <c r="AK194" s="18"/>
       <c r="AL194" s="19">
-        <v>38869</v>
+        <v>38777</v>
       </c>
       <c r="AN194" s="18"/>
-      <c r="AO194" s="18"/>
+      <c r="AO194" s="18">
+        <v>34</v>
+      </c>
       <c r="AP194" s="17"/>
       <c r="AQ194" s="17"/>
     </row>
     <row r="195" spans="1:43">
       <c r="A195" s="3" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>51</v>
@@ -18168,52 +18226,56 @@
         <v>731</v>
       </c>
       <c r="S195" s="5" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
       <c r="T195" s="5"/>
       <c r="U195" s="5" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="V195" s="5"/>
       <c r="W195" s="5"/>
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
       <c r="Z195" s="18">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AA195" s="18">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="AB195" s="18"/>
       <c r="AC195" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD195" s="18" t="s">
-        <v>780</v>
-      </c>
+        <v>925</v>
+      </c>
+      <c r="AD195" s="18"/>
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
-      <c r="AG195" s="18"/>
-      <c r="AH195" s="18"/>
-      <c r="AI195" s="18"/>
-      <c r="AJ195" s="18"/>
-      <c r="AK195" s="18"/>
+      <c r="AG195" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="AH195" s="18" t="s">
+        <v>927</v>
+      </c>
+      <c r="AI195" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ195" s="5"/>
+      <c r="AK195" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="AL195" s="19">
-        <v>39142</v>
+        <v>38869</v>
       </c>
       <c r="AN195" s="18"/>
-      <c r="AO195" s="18">
-        <v>35</v>
-      </c>
+      <c r="AO195" s="18"/>
       <c r="AP195" s="17"/>
       <c r="AQ195" s="17"/>
     </row>
     <row r="196" spans="1:43">
       <c r="A196" s="3" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>51</v>
@@ -18254,53 +18316,52 @@
         <v>731</v>
       </c>
       <c r="S196" s="5" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="T196" s="5"/>
-      <c r="U196" s="5"/>
+      <c r="U196" s="5" t="s">
+        <v>930</v>
+      </c>
       <c r="V196" s="5"/>
       <c r="W196" s="5"/>
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
       <c r="Z196" s="18">
-        <v>856</v>
+        <v>79</v>
       </c>
       <c r="AA196" s="18">
-        <v>849</v>
+        <v>134</v>
       </c>
       <c r="AB196" s="18"/>
       <c r="AC196" s="18" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="AD196" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE196" s="18"/>
-      <c r="AF196" s="18"/>
+        <v>781</v>
+      </c>
+      <c r="AE196" s="5"/>
+      <c r="AF196" s="5"/>
       <c r="AG196" s="18"/>
       <c r="AH196" s="18"/>
       <c r="AI196" s="18"/>
-      <c r="AJ196" s="5"/>
-      <c r="AK196" s="5"/>
+      <c r="AJ196" s="18"/>
+      <c r="AK196" s="18"/>
       <c r="AL196" s="19">
         <v>39142</v>
       </c>
-      <c r="AM196" s="18">
-        <v>55</v>
-      </c>
-      <c r="AN196" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO196" s="18"/>
+      <c r="AN196" s="18"/>
+      <c r="AO196" s="18">
+        <v>35</v>
+      </c>
       <c r="AP196" s="17"/>
       <c r="AQ196" s="17"/>
     </row>
     <row r="197" spans="1:43">
       <c r="A197" s="3" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>51</v>
@@ -18341,52 +18402,53 @@
         <v>731</v>
       </c>
       <c r="S197" s="5" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="T197" s="5"/>
-      <c r="U197" s="5" t="s">
-        <v>928</v>
-      </c>
+      <c r="U197" s="5"/>
       <c r="V197" s="5"/>
       <c r="W197" s="5"/>
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
       <c r="Z197" s="18">
-        <v>236</v>
+        <v>856</v>
       </c>
       <c r="AA197" s="18">
-        <v>260</v>
+        <v>849</v>
       </c>
       <c r="AB197" s="18"/>
       <c r="AC197" s="18" t="s">
-        <v>690</v>
+        <v>60</v>
       </c>
       <c r="AD197" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="AE197" s="5"/>
-      <c r="AF197" s="5"/>
+        <v>827</v>
+      </c>
+      <c r="AE197" s="18"/>
+      <c r="AF197" s="18"/>
       <c r="AG197" s="18"/>
       <c r="AH197" s="18"/>
       <c r="AI197" s="18"/>
-      <c r="AJ197" s="18"/>
+      <c r="AJ197" s="5"/>
       <c r="AK197" s="5"/>
       <c r="AL197" s="19">
-        <v>39356</v>
-      </c>
-      <c r="AN197" s="18"/>
-      <c r="AO197" s="18">
-        <v>22</v>
-      </c>
+        <v>39142</v>
+      </c>
+      <c r="AM197" s="18">
+        <v>55</v>
+      </c>
+      <c r="AN197" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO197" s="18"/>
       <c r="AP197" s="17"/>
       <c r="AQ197" s="17"/>
     </row>
     <row r="198" spans="1:43">
       <c r="A198" s="3" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>51</v>
@@ -18427,54 +18489,52 @@
         <v>731</v>
       </c>
       <c r="S198" s="5" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="T198" s="5"/>
       <c r="U198" s="5" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="V198" s="5"/>
       <c r="W198" s="5"/>
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
       <c r="Z198" s="18">
-        <v>-1</v>
+        <v>236</v>
       </c>
       <c r="AA198" s="18">
-        <v>-59</v>
+        <v>260</v>
       </c>
       <c r="AB198" s="18"/>
       <c r="AC198" s="18" t="s">
-        <v>764</v>
+        <v>690</v>
       </c>
       <c r="AD198" s="18" t="s">
-        <v>810</v>
-      </c>
-      <c r="AE198" s="18"/>
+        <v>806</v>
+      </c>
+      <c r="AE198" s="5"/>
       <c r="AF198" s="5"/>
-      <c r="AG198" s="18" t="s">
-        <v>763</v>
-      </c>
+      <c r="AG198" s="18"/>
       <c r="AH198" s="18"/>
       <c r="AI198" s="18"/>
       <c r="AJ198" s="18"/>
       <c r="AK198" s="5"/>
       <c r="AL198" s="19">
-        <v>39417</v>
+        <v>39356</v>
       </c>
       <c r="AN198" s="18"/>
       <c r="AO198" s="18">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AP198" s="17"/>
       <c r="AQ198" s="17"/>
     </row>
     <row r="199" spans="1:43">
       <c r="A199" s="3" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>51</v>
@@ -18515,55 +18575,54 @@
         <v>731</v>
       </c>
       <c r="S199" s="5" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="T199" s="5"/>
       <c r="U199" s="5" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="V199" s="5"/>
       <c r="W199" s="5"/>
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
       <c r="Z199" s="18">
-        <v>819</v>
+        <v>-1</v>
       </c>
       <c r="AA199" s="18">
-        <v>813</v>
+        <v>-59</v>
       </c>
       <c r="AB199" s="18"/>
       <c r="AC199" s="18" t="s">
-        <v>60</v>
+        <v>764</v>
       </c>
       <c r="AD199" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE199" s="5"/>
+        <v>811</v>
+      </c>
+      <c r="AE199" s="18"/>
       <c r="AF199" s="5"/>
-      <c r="AG199" s="18"/>
+      <c r="AG199" s="18" t="s">
+        <v>763</v>
+      </c>
       <c r="AH199" s="18"/>
       <c r="AI199" s="18"/>
       <c r="AJ199" s="18"/>
-      <c r="AK199" s="18"/>
+      <c r="AK199" s="5"/>
       <c r="AL199" s="19">
-        <v>39508</v>
-      </c>
-      <c r="AM199" s="18">
-        <v>56</v>
-      </c>
-      <c r="AN199" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO199" s="18"/>
+        <v>39417</v>
+      </c>
+      <c r="AN199" s="18"/>
+      <c r="AO199" s="18">
+        <v>34</v>
+      </c>
       <c r="AP199" s="17"/>
       <c r="AQ199" s="17"/>
     </row>
     <row r="200" spans="1:43">
       <c r="A200" s="3" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>51</v>
@@ -18604,28 +18663,28 @@
         <v>731</v>
       </c>
       <c r="S200" s="5" t="s">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="T200" s="5"/>
       <c r="U200" s="5" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="V200" s="5"/>
       <c r="W200" s="5"/>
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
       <c r="Z200" s="18">
-        <v>63</v>
+        <v>819</v>
       </c>
       <c r="AA200" s="18">
-        <v>133</v>
+        <v>813</v>
       </c>
       <c r="AB200" s="18"/>
       <c r="AC200" s="18" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="AD200" s="18" t="s">
-        <v>780</v>
+        <v>827</v>
       </c>
       <c r="AE200" s="5"/>
       <c r="AF200" s="5"/>
@@ -18637,19 +18696,22 @@
       <c r="AL200" s="19">
         <v>39508</v>
       </c>
-      <c r="AN200" s="18"/>
-      <c r="AO200" s="18">
-        <v>36</v>
-      </c>
+      <c r="AM200" s="18">
+        <v>56</v>
+      </c>
+      <c r="AN200" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO200" s="18"/>
       <c r="AP200" s="17"/>
       <c r="AQ200" s="17"/>
     </row>
     <row r="201" spans="1:43">
       <c r="A201" s="3" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>51</v>
@@ -18690,54 +18752,52 @@
         <v>731</v>
       </c>
       <c r="S201" s="5" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="T201" s="5"/>
-      <c r="U201" s="5"/>
+      <c r="U201" s="5" t="s">
+        <v>948</v>
+      </c>
       <c r="V201" s="5"/>
       <c r="W201" s="5"/>
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
       <c r="Z201" s="18">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="AA201" s="18">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AB201" s="18"/>
       <c r="AC201" s="18" t="s">
-        <v>943</v>
+        <v>223</v>
       </c>
       <c r="AD201" s="18" t="s">
-        <v>944</v>
-      </c>
-      <c r="AE201" s="18"/>
-      <c r="AF201" s="18"/>
+        <v>781</v>
+      </c>
+      <c r="AE201" s="5"/>
+      <c r="AF201" s="5"/>
       <c r="AG201" s="18"/>
       <c r="AH201" s="18"/>
-      <c r="AI201" s="18" t="s">
-        <v>945</v>
-      </c>
+      <c r="AI201" s="18"/>
       <c r="AJ201" s="18"/>
-      <c r="AK201" s="18" t="s">
-        <v>946</v>
-      </c>
-      <c r="AL201" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="AM201" s="18"/>
+      <c r="AK201" s="18"/>
+      <c r="AL201" s="19">
+        <v>39508</v>
+      </c>
+      <c r="AN201" s="18"/>
       <c r="AO201" s="18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AP201" s="17"/>
       <c r="AQ201" s="17"/>
     </row>
     <row r="202" spans="1:43">
       <c r="A202" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>51</v>
@@ -18778,52 +18838,54 @@
         <v>731</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>910</v>
+        <v>951</v>
       </c>
       <c r="T202" s="5"/>
-      <c r="U202" s="5" t="s">
-        <v>950</v>
-      </c>
+      <c r="U202" s="5"/>
       <c r="V202" s="5"/>
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
       <c r="Z202" s="18">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AA202" s="18">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AB202" s="18"/>
       <c r="AC202" s="18" t="s">
-        <v>223</v>
+        <v>952</v>
       </c>
       <c r="AD202" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="AE202" s="5"/>
-      <c r="AF202" s="5"/>
+        <v>953</v>
+      </c>
+      <c r="AE202" s="18"/>
+      <c r="AF202" s="18"/>
       <c r="AG202" s="18"/>
       <c r="AH202" s="18"/>
-      <c r="AI202" s="18"/>
+      <c r="AI202" s="18" t="s">
+        <v>954</v>
+      </c>
       <c r="AJ202" s="18"/>
-      <c r="AK202" s="18"/>
-      <c r="AL202" s="19">
-        <v>39873</v>
-      </c>
-      <c r="AN202" s="18"/>
+      <c r="AK202" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="AL202" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="AM202" s="18"/>
       <c r="AO202" s="18">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AP202" s="17"/>
       <c r="AQ202" s="17"/>
     </row>
     <row r="203" spans="1:43">
       <c r="A203" s="3" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>51</v>
@@ -18864,49 +18926,52 @@
         <v>731</v>
       </c>
       <c r="S203" s="5" t="s">
-        <v>953</v>
+        <v>919</v>
       </c>
       <c r="T203" s="5"/>
-      <c r="U203" s="5"/>
+      <c r="U203" s="5" t="s">
+        <v>959</v>
+      </c>
       <c r="V203" s="5"/>
       <c r="W203" s="5"/>
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
       <c r="Z203" s="18">
-        <v>353</v>
+        <v>91</v>
       </c>
       <c r="AA203" s="18">
-        <v>364</v>
+        <v>140</v>
       </c>
       <c r="AB203" s="18"/>
       <c r="AC203" s="18" t="s">
-        <v>954</v>
-      </c>
-      <c r="AD203" s="18"/>
-      <c r="AE203" s="18"/>
-      <c r="AF203" s="18"/>
+        <v>223</v>
+      </c>
+      <c r="AD203" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE203" s="5"/>
+      <c r="AF203" s="5"/>
       <c r="AG203" s="18"/>
       <c r="AH203" s="18"/>
       <c r="AI203" s="18"/>
       <c r="AJ203" s="18"/>
-      <c r="AK203" s="18" t="s">
-        <v>955</v>
-      </c>
+      <c r="AK203" s="18"/>
       <c r="AL203" s="19">
         <v>39873</v>
       </c>
-      <c r="AM203" s="5"/>
       <c r="AN203" s="18"/>
-      <c r="AO203" s="18"/>
+      <c r="AO203" s="18">
+        <v>37</v>
+      </c>
       <c r="AP203" s="17"/>
       <c r="AQ203" s="17"/>
     </row>
     <row r="204" spans="1:43">
       <c r="A204" s="3" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>51</v>
@@ -18947,50 +19012,38 @@
         <v>731</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="T204" s="5"/>
-      <c r="U204" s="5" t="s">
-        <v>959</v>
-      </c>
+      <c r="U204" s="5"/>
       <c r="V204" s="5"/>
       <c r="W204" s="5"/>
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
       <c r="Z204" s="18">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AA204" s="18">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AB204" s="18"/>
       <c r="AC204" s="18" t="s">
-        <v>960</v>
-      </c>
-      <c r="AD204" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="AE204" s="5"/>
-      <c r="AF204" s="18" t="s">
-        <v>962</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="AD204" s="18"/>
+      <c r="AE204" s="18"/>
+      <c r="AF204" s="18"/>
       <c r="AG204" s="18"/>
-      <c r="AH204" s="18" t="s">
-        <v>963</v>
-      </c>
-      <c r="AI204" s="18" t="s">
+      <c r="AH204" s="18"/>
+      <c r="AI204" s="18"/>
+      <c r="AJ204" s="18"/>
+      <c r="AK204" s="18" t="s">
         <v>964</v>
       </c>
-      <c r="AJ204" s="18" t="s">
-        <v>965</v>
-      </c>
-      <c r="AK204" s="18" t="s">
-        <v>966</v>
-      </c>
-      <c r="AL204" s="18" t="s">
-        <v>967</v>
-      </c>
-      <c r="AM204" s="18"/>
+      <c r="AL204" s="19">
+        <v>39873</v>
+      </c>
+      <c r="AM204" s="5"/>
       <c r="AN204" s="18"/>
       <c r="AO204" s="18"/>
       <c r="AP204" s="17"/>
@@ -18998,10 +19051,10 @@
     </row>
     <row r="205" spans="1:43">
       <c r="A205" s="3" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>51</v>
@@ -19042,52 +19095,61 @@
         <v>731</v>
       </c>
       <c r="S205" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="T205" s="5"/>
       <c r="U205" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="V205" s="5"/>
       <c r="W205" s="5"/>
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
       <c r="Z205" s="18">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="AA205" s="18">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="AB205" s="18"/>
       <c r="AC205" s="18" t="s">
-        <v>690</v>
+        <v>969</v>
       </c>
       <c r="AD205" s="18" t="s">
-        <v>805</v>
+        <v>970</v>
       </c>
       <c r="AE205" s="5"/>
-      <c r="AF205" s="5"/>
+      <c r="AF205" s="18" t="s">
+        <v>971</v>
+      </c>
       <c r="AG205" s="18"/>
-      <c r="AH205" s="18"/>
-      <c r="AI205" s="18"/>
-      <c r="AJ205" s="18"/>
-      <c r="AK205" s="5"/>
-      <c r="AL205" s="19">
-        <v>40087</v>
-      </c>
+      <c r="AH205" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="AI205" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="AJ205" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="AK205" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="AL205" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="AM205" s="18"/>
       <c r="AN205" s="18"/>
-      <c r="AO205" s="18">
-        <v>24</v>
-      </c>
+      <c r="AO205" s="18"/>
       <c r="AP205" s="17"/>
       <c r="AQ205" s="17"/>
     </row>
     <row r="206" spans="1:43">
       <c r="A206" s="3" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>51</v>
@@ -19128,54 +19190,52 @@
         <v>731</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="T206" s="5"/>
       <c r="U206" s="5" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="V206" s="5"/>
       <c r="W206" s="5"/>
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
       <c r="Z206" s="18">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="AA206" s="18">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="AB206" s="18"/>
       <c r="AC206" s="18" t="s">
-        <v>764</v>
+        <v>690</v>
       </c>
       <c r="AD206" s="18" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="AE206" s="5"/>
       <c r="AF206" s="5"/>
-      <c r="AG206" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="AH206" s="5"/>
+      <c r="AG206" s="18"/>
+      <c r="AH206" s="18"/>
       <c r="AI206" s="18"/>
       <c r="AJ206" s="18"/>
-      <c r="AK206" s="18"/>
+      <c r="AK206" s="5"/>
       <c r="AL206" s="19">
-        <v>40148</v>
-      </c>
-      <c r="AN206" s="16"/>
+        <v>40087</v>
+      </c>
+      <c r="AN206" s="18"/>
       <c r="AO206" s="18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AP206" s="17"/>
       <c r="AQ206" s="17"/>
     </row>
     <row r="207" spans="1:43">
       <c r="A207" s="3" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>51</v>
@@ -19216,52 +19276,54 @@
         <v>731</v>
       </c>
       <c r="S207" s="5" t="s">
-        <v>910</v>
+        <v>983</v>
       </c>
       <c r="T207" s="5"/>
       <c r="U207" s="5" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="V207" s="5"/>
       <c r="W207" s="5"/>
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
       <c r="Z207" s="18">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AA207" s="18">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="AB207" s="18"/>
       <c r="AC207" s="18" t="s">
-        <v>223</v>
+        <v>764</v>
       </c>
       <c r="AD207" s="18" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="AE207" s="5"/>
       <c r="AF207" s="5"/>
-      <c r="AG207" s="18"/>
-      <c r="AH207" s="18"/>
+      <c r="AG207" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="AH207" s="5"/>
       <c r="AI207" s="18"/>
       <c r="AJ207" s="18"/>
       <c r="AK207" s="18"/>
       <c r="AL207" s="19">
-        <v>40238</v>
-      </c>
-      <c r="AN207" s="18"/>
+        <v>40148</v>
+      </c>
+      <c r="AN207" s="16"/>
       <c r="AO207" s="18">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP207" s="17"/>
       <c r="AQ207" s="17"/>
     </row>
     <row r="208" spans="1:43">
       <c r="A208" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>51</v>
@@ -19302,28 +19364,28 @@
         <v>731</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>981</v>
+        <v>919</v>
       </c>
       <c r="T208" s="5"/>
       <c r="U208" s="5" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="V208" s="5"/>
       <c r="W208" s="5"/>
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
       <c r="Z208" s="18">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AA208" s="18">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="AB208" s="18"/>
       <c r="AC208" s="18" t="s">
         <v>223</v>
       </c>
       <c r="AD208" s="18" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AE208" s="5"/>
       <c r="AF208" s="5"/>
@@ -19344,10 +19406,10 @@
     </row>
     <row r="209" spans="1:43">
       <c r="A209" s="3" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>51</v>
@@ -19388,28 +19450,28 @@
         <v>731</v>
       </c>
       <c r="S209" s="5" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="T209" s="5"/>
       <c r="U209" s="5" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="V209" s="5"/>
       <c r="W209" s="5"/>
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
       <c r="Z209" s="18">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="AA209" s="18">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="AB209" s="18"/>
       <c r="AC209" s="18" t="s">
-        <v>690</v>
+        <v>223</v>
       </c>
       <c r="AD209" s="18" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
       <c r="AE209" s="5"/>
       <c r="AF209" s="5"/>
@@ -19417,23 +19479,23 @@
       <c r="AH209" s="18"/>
       <c r="AI209" s="18"/>
       <c r="AJ209" s="18"/>
-      <c r="AK209" s="5"/>
+      <c r="AK209" s="18"/>
       <c r="AL209" s="19">
-        <v>40452</v>
+        <v>40238</v>
       </c>
       <c r="AN209" s="18"/>
       <c r="AO209" s="18">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AP209" s="17"/>
       <c r="AQ209" s="17"/>
     </row>
     <row r="210" spans="1:43">
       <c r="A210" s="3" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>51</v>
@@ -19474,28 +19536,28 @@
         <v>731</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="T210" s="5"/>
       <c r="U210" s="5" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="V210" s="5"/>
       <c r="W210" s="5"/>
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
       <c r="Z210" s="18">
-        <v>858</v>
+        <v>21</v>
       </c>
       <c r="AA210" s="18">
-        <v>851</v>
+        <v>42</v>
       </c>
       <c r="AB210" s="18"/>
       <c r="AC210" s="18" t="s">
-        <v>60</v>
+        <v>690</v>
       </c>
       <c r="AD210" s="18" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="AE210" s="5"/>
       <c r="AF210" s="5"/>
@@ -19503,26 +19565,23 @@
       <c r="AH210" s="18"/>
       <c r="AI210" s="18"/>
       <c r="AJ210" s="18"/>
-      <c r="AK210" s="18"/>
+      <c r="AK210" s="5"/>
       <c r="AL210" s="19">
-        <v>40603</v>
-      </c>
-      <c r="AM210" s="18">
-        <v>59</v>
-      </c>
-      <c r="AN210" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO210" s="18"/>
+        <v>40452</v>
+      </c>
+      <c r="AN210" s="18"/>
+      <c r="AO210" s="18">
+        <v>25</v>
+      </c>
       <c r="AP210" s="17"/>
       <c r="AQ210" s="17"/>
     </row>
     <row r="211" spans="1:43">
       <c r="A211" s="3" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>51</v>
@@ -19563,28 +19622,28 @@
         <v>731</v>
       </c>
       <c r="S211" s="5" t="s">
-        <v>910</v>
+        <v>998</v>
       </c>
       <c r="T211" s="5"/>
-      <c r="U211" s="9" t="s">
-        <v>993</v>
+      <c r="U211" s="5" t="s">
+        <v>999</v>
       </c>
       <c r="V211" s="5"/>
       <c r="W211" s="5"/>
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
       <c r="Z211" s="18">
-        <v>95</v>
+        <v>858</v>
       </c>
       <c r="AA211" s="18">
-        <v>125</v>
+        <v>851</v>
       </c>
       <c r="AB211" s="18"/>
       <c r="AC211" s="18" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="AD211" s="18" t="s">
-        <v>780</v>
+        <v>827</v>
       </c>
       <c r="AE211" s="5"/>
       <c r="AF211" s="5"/>
@@ -19596,19 +19655,22 @@
       <c r="AL211" s="19">
         <v>40603</v>
       </c>
-      <c r="AN211" s="18"/>
-      <c r="AO211" s="18">
-        <v>39</v>
-      </c>
+      <c r="AM211" s="18">
+        <v>59</v>
+      </c>
+      <c r="AN211" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO211" s="18"/>
       <c r="AP211" s="17"/>
       <c r="AQ211" s="17"/>
     </row>
     <row r="212" spans="1:43">
       <c r="A212" s="3" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>51</v>
@@ -19649,53 +19711,52 @@
         <v>731</v>
       </c>
       <c r="S212" s="5" t="s">
-        <v>996</v>
+        <v>919</v>
       </c>
       <c r="T212" s="5"/>
-      <c r="U212" s="5" t="s">
-        <v>997</v>
+      <c r="U212" s="9" t="s">
+        <v>1002</v>
       </c>
       <c r="V212" s="5"/>
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
       <c r="Z212" s="18">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="AA212" s="18">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="AB212" s="18"/>
       <c r="AC212" s="18" t="s">
-        <v>998</v>
-      </c>
-      <c r="AD212" s="18"/>
+        <v>223</v>
+      </c>
+      <c r="AD212" s="18" t="s">
+        <v>781</v>
+      </c>
       <c r="AE212" s="5"/>
       <c r="AF212" s="5"/>
       <c r="AG212" s="18"/>
       <c r="AH212" s="18"/>
-      <c r="AI212" s="18" t="s">
-        <v>999</v>
-      </c>
-      <c r="AJ212" s="5"/>
-      <c r="AK212" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="AI212" s="18"/>
+      <c r="AJ212" s="18"/>
+      <c r="AK212" s="18"/>
       <c r="AL212" s="19">
-        <v>40969</v>
-      </c>
-      <c r="AM212" s="18"/>
+        <v>40603</v>
+      </c>
       <c r="AN212" s="18"/>
-      <c r="AO212" s="18"/>
+      <c r="AO212" s="18">
+        <v>39</v>
+      </c>
       <c r="AP212" s="17"/>
       <c r="AQ212" s="17"/>
     </row>
     <row r="213" spans="1:43">
       <c r="A213" s="3" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>51</v>
@@ -19736,53 +19797,53 @@
         <v>731</v>
       </c>
       <c r="S213" s="5" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="T213" s="5"/>
-      <c r="U213" s="5"/>
+      <c r="U213" s="5" t="s">
+        <v>1006</v>
+      </c>
       <c r="V213" s="5"/>
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
       <c r="Z213" s="18">
-        <v>892</v>
+        <v>1</v>
       </c>
       <c r="AA213" s="18">
-        <v>885</v>
+        <v>31</v>
       </c>
       <c r="AB213" s="18"/>
       <c r="AC213" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD213" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE213" s="18"/>
-      <c r="AF213" s="18"/>
+        <v>1007</v>
+      </c>
+      <c r="AD213" s="18"/>
+      <c r="AE213" s="5"/>
+      <c r="AF213" s="5"/>
       <c r="AG213" s="18"/>
       <c r="AH213" s="18"/>
-      <c r="AI213" s="18"/>
+      <c r="AI213" s="18" t="s">
+        <v>1008</v>
+      </c>
       <c r="AJ213" s="5"/>
-      <c r="AK213" s="5"/>
+      <c r="AK213" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="AL213" s="19">
         <v>40969</v>
       </c>
-      <c r="AM213" s="18">
-        <v>60</v>
-      </c>
-      <c r="AN213" s="18">
-        <v>2</v>
-      </c>
+      <c r="AM213" s="18"/>
+      <c r="AN213" s="18"/>
       <c r="AO213" s="18"/>
       <c r="AP213" s="17"/>
       <c r="AQ213" s="17"/>
     </row>
     <row r="214" spans="1:43">
       <c r="A214" s="3" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>51</v>
@@ -19823,7 +19884,7 @@
         <v>731</v>
       </c>
       <c r="S214" s="5" t="s">
-        <v>910</v>
+        <v>1011</v>
       </c>
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
@@ -19832,41 +19893,44 @@
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
       <c r="Z214" s="18">
-        <v>99</v>
+        <v>892</v>
       </c>
       <c r="AA214" s="18">
-        <v>132</v>
+        <v>885</v>
       </c>
       <c r="AB214" s="18"/>
       <c r="AC214" s="18" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="AD214" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="AE214" s="5"/>
-      <c r="AF214" s="5"/>
+        <v>827</v>
+      </c>
+      <c r="AE214" s="18"/>
+      <c r="AF214" s="18"/>
       <c r="AG214" s="18"/>
       <c r="AH214" s="18"/>
       <c r="AI214" s="18"/>
-      <c r="AJ214" s="18"/>
-      <c r="AK214" s="18"/>
+      <c r="AJ214" s="5"/>
+      <c r="AK214" s="5"/>
       <c r="AL214" s="19">
         <v>40969</v>
       </c>
-      <c r="AN214" s="18"/>
-      <c r="AO214" s="18">
-        <v>40</v>
-      </c>
+      <c r="AM214" s="18">
+        <v>60</v>
+      </c>
+      <c r="AN214" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO214" s="18"/>
       <c r="AP214" s="17"/>
       <c r="AQ214" s="17"/>
     </row>
     <row r="215" spans="1:43">
       <c r="A215" s="3" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>51</v>
@@ -19907,7 +19971,7 @@
         <v>731</v>
       </c>
       <c r="S215" s="5" t="s">
-        <v>1007</v>
+        <v>919</v>
       </c>
       <c r="T215" s="5"/>
       <c r="U215" s="5"/>
@@ -19916,43 +19980,41 @@
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
       <c r="Z215" s="18">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="AA215" s="18">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="AB215" s="18"/>
       <c r="AC215" s="18" t="s">
-        <v>764</v>
+        <v>223</v>
       </c>
       <c r="AD215" s="18" t="s">
-        <v>810</v>
-      </c>
-      <c r="AE215" s="18"/>
+        <v>781</v>
+      </c>
+      <c r="AE215" s="5"/>
       <c r="AF215" s="5"/>
-      <c r="AG215" s="18" t="s">
-        <v>763</v>
-      </c>
+      <c r="AG215" s="18"/>
       <c r="AH215" s="18"/>
       <c r="AI215" s="18"/>
       <c r="AJ215" s="18"/>
-      <c r="AK215" s="5"/>
+      <c r="AK215" s="18"/>
       <c r="AL215" s="19">
-        <v>41244</v>
+        <v>40969</v>
       </c>
       <c r="AN215" s="18"/>
       <c r="AO215" s="18">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AP215" s="17"/>
       <c r="AQ215" s="17"/>
     </row>
     <row r="216" spans="1:43">
       <c r="A216" s="3" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>51</v>
@@ -19993,55 +20055,52 @@
         <v>731</v>
       </c>
       <c r="S216" s="5" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="T216" s="5"/>
-      <c r="U216" s="5" t="s">
-        <v>1011</v>
-      </c>
+      <c r="U216" s="5"/>
       <c r="V216" s="5"/>
       <c r="W216" s="5"/>
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
       <c r="Z216" s="18">
-        <v>558</v>
+        <v>208</v>
       </c>
       <c r="AA216" s="18">
-        <v>602</v>
+        <v>186</v>
       </c>
       <c r="AB216" s="18"/>
       <c r="AC216" s="18" t="s">
-        <v>1012</v>
+        <v>764</v>
       </c>
       <c r="AD216" s="18" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AE216" s="5"/>
+        <v>811</v>
+      </c>
+      <c r="AE216" s="18"/>
       <c r="AF216" s="5"/>
-      <c r="AG216" s="18"/>
+      <c r="AG216" s="18" t="s">
+        <v>763</v>
+      </c>
       <c r="AH216" s="18"/>
-      <c r="AI216" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="AJ216" s="5"/>
-      <c r="AK216" s="18" t="s">
-        <v>155</v>
-      </c>
+      <c r="AI216" s="18"/>
+      <c r="AJ216" s="18"/>
+      <c r="AK216" s="5"/>
       <c r="AL216" s="19">
-        <v>41699</v>
-      </c>
-      <c r="AM216" s="18"/>
+        <v>41244</v>
+      </c>
       <c r="AN216" s="18"/>
-      <c r="AO216" s="18"/>
+      <c r="AO216" s="18">
+        <v>36</v>
+      </c>
       <c r="AP216" s="17"/>
       <c r="AQ216" s="17"/>
     </row>
     <row r="217" spans="1:43">
       <c r="A217" s="3" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>51</v>
@@ -20082,55 +20141,55 @@
         <v>731</v>
       </c>
       <c r="S217" s="5" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="T217" s="5"/>
       <c r="U217" s="5" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="V217" s="5"/>
       <c r="W217" s="5"/>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
       <c r="Z217" s="18">
-        <v>841</v>
+        <v>558</v>
       </c>
       <c r="AA217" s="18">
-        <v>833</v>
+        <v>602</v>
       </c>
       <c r="AB217" s="18"/>
       <c r="AC217" s="18" t="s">
-        <v>60</v>
+        <v>1021</v>
       </c>
       <c r="AD217" s="18" t="s">
-        <v>826</v>
+        <v>1022</v>
       </c>
       <c r="AE217" s="5"/>
       <c r="AF217" s="5"/>
       <c r="AG217" s="18"/>
       <c r="AH217" s="18"/>
-      <c r="AI217" s="18"/>
-      <c r="AJ217" s="18"/>
-      <c r="AK217" s="18"/>
+      <c r="AI217" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="AJ217" s="5"/>
+      <c r="AK217" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="AL217" s="19">
         <v>41699</v>
       </c>
-      <c r="AM217" s="18">
-        <v>62</v>
-      </c>
-      <c r="AN217" s="18">
-        <v>2</v>
-      </c>
+      <c r="AM217" s="18"/>
+      <c r="AN217" s="18"/>
       <c r="AO217" s="18"/>
       <c r="AP217" s="17"/>
       <c r="AQ217" s="17"/>
     </row>
     <row r="218" spans="1:43">
       <c r="A218" s="3" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>51</v>
@@ -20171,28 +20230,28 @@
         <v>731</v>
       </c>
       <c r="S218" s="5" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="T218" s="5"/>
       <c r="U218" s="5" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="V218" s="5"/>
       <c r="W218" s="5"/>
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
       <c r="Z218" s="18">
-        <v>552</v>
+        <v>841</v>
       </c>
       <c r="AA218" s="18">
-        <v>545</v>
+        <v>833</v>
       </c>
       <c r="AB218" s="18"/>
       <c r="AC218" s="18" t="s">
         <v>60</v>
       </c>
       <c r="AD218" s="18" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AE218" s="5"/>
       <c r="AF218" s="5"/>
@@ -20202,13 +20261,13 @@
       <c r="AJ218" s="18"/>
       <c r="AK218" s="18"/>
       <c r="AL218" s="19">
-        <v>41974</v>
+        <v>41699</v>
       </c>
       <c r="AM218" s="18">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AN218" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO218" s="18"/>
       <c r="AP218" s="17"/>
@@ -20216,10 +20275,10 @@
     </row>
     <row r="219" spans="1:43">
       <c r="A219" s="3" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>51</v>
@@ -20260,50 +20319,55 @@
         <v>731</v>
       </c>
       <c r="S219" s="5" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="T219" s="5"/>
       <c r="U219" s="5" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="V219" s="5"/>
       <c r="W219" s="5"/>
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
       <c r="Z219" s="18">
-        <v>19</v>
+        <v>552</v>
       </c>
       <c r="AA219" s="18">
-        <v>42</v>
+        <v>545</v>
       </c>
       <c r="AB219" s="18"/>
       <c r="AC219" s="18" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AD219" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="AD219" s="18" t="s">
+        <v>827</v>
+      </c>
       <c r="AE219" s="5"/>
       <c r="AF219" s="5"/>
       <c r="AG219" s="18"/>
       <c r="AH219" s="18"/>
       <c r="AI219" s="18"/>
       <c r="AJ219" s="18"/>
-      <c r="AK219" s="5"/>
+      <c r="AK219" s="18"/>
       <c r="AL219" s="19">
-        <v>42036</v>
-      </c>
-      <c r="AM219" s="18"/>
-      <c r="AO219" s="18">
-        <v>108</v>
-      </c>
+        <v>41974</v>
+      </c>
+      <c r="AM219" s="18">
+        <v>63</v>
+      </c>
+      <c r="AN219" s="18">
+        <v>1</v>
+      </c>
+      <c r="AO219" s="18"/>
       <c r="AP219" s="17"/>
       <c r="AQ219" s="17"/>
     </row>
     <row r="220" spans="1:43">
       <c r="A220" s="3" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>51</v>
@@ -20344,54 +20408,50 @@
         <v>731</v>
       </c>
       <c r="S220" s="5" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="T220" s="5"/>
       <c r="U220" s="5" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="V220" s="5"/>
       <c r="W220" s="5"/>
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
       <c r="Z220" s="18">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AA220" s="18">
-        <v>-25</v>
+        <v>42</v>
       </c>
       <c r="AB220" s="18"/>
       <c r="AC220" s="18" t="s">
-        <v>764</v>
-      </c>
-      <c r="AD220" s="18" t="s">
-        <v>810</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="AD220" s="18"/>
       <c r="AE220" s="5"/>
       <c r="AF220" s="5"/>
-      <c r="AG220" s="18" t="s">
-        <v>763</v>
-      </c>
+      <c r="AG220" s="18"/>
       <c r="AH220" s="18"/>
-      <c r="AI220" s="5"/>
+      <c r="AI220" s="18"/>
       <c r="AJ220" s="18"/>
-      <c r="AK220" s="18"/>
+      <c r="AK220" s="5"/>
       <c r="AL220" s="19">
-        <v>42339</v>
-      </c>
-      <c r="AN220" s="16"/>
+        <v>42036</v>
+      </c>
+      <c r="AM220" s="18"/>
       <c r="AO220" s="18">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AP220" s="17"/>
       <c r="AQ220" s="17"/>
     </row>
     <row r="221" spans="1:43">
       <c r="A221" s="3" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>51</v>
@@ -20432,53 +20492,54 @@
         <v>731</v>
       </c>
       <c r="S221" s="5" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="T221" s="5"/>
-      <c r="U221" s="5"/>
+      <c r="U221" s="5" t="s">
+        <v>1039</v>
+      </c>
       <c r="V221" s="5"/>
       <c r="W221" s="5"/>
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
       <c r="Z221" s="18">
-        <v>841</v>
+        <v>-1</v>
       </c>
       <c r="AA221" s="18">
-        <v>833</v>
+        <v>-25</v>
       </c>
       <c r="AB221" s="18"/>
       <c r="AC221" s="18" t="s">
-        <v>60</v>
+        <v>764</v>
       </c>
       <c r="AD221" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE221" s="18"/>
-      <c r="AF221" s="18"/>
-      <c r="AG221" s="18"/>
+        <v>811</v>
+      </c>
+      <c r="AE221" s="5"/>
+      <c r="AF221" s="5"/>
+      <c r="AG221" s="18" t="s">
+        <v>763</v>
+      </c>
       <c r="AH221" s="18"/>
-      <c r="AI221" s="18"/>
-      <c r="AJ221" s="5"/>
-      <c r="AK221" s="5"/>
+      <c r="AI221" s="5"/>
+      <c r="AJ221" s="18"/>
+      <c r="AK221" s="18"/>
       <c r="AL221" s="19">
-        <v>42430</v>
-      </c>
-      <c r="AM221" s="18">
-        <v>64</v>
-      </c>
-      <c r="AN221" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO221" s="18"/>
+        <v>42339</v>
+      </c>
+      <c r="AN221" s="16"/>
+      <c r="AO221" s="18">
+        <v>42</v>
+      </c>
       <c r="AP221" s="17"/>
       <c r="AQ221" s="17"/>
     </row>
     <row r="222" spans="1:43">
       <c r="A222" s="3" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>51</v>
@@ -20519,59 +20580,53 @@
         <v>731</v>
       </c>
       <c r="S222" s="5" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="T222" s="5"/>
-      <c r="U222" s="5" t="s">
-        <v>1037</v>
-      </c>
+      <c r="U222" s="5"/>
       <c r="V222" s="5"/>
       <c r="W222" s="5"/>
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
       <c r="Z222" s="18">
-        <v>406</v>
+        <v>841</v>
       </c>
       <c r="AA222" s="18">
-        <v>381</v>
+        <v>833</v>
       </c>
       <c r="AB222" s="18"/>
       <c r="AC222" s="18" t="s">
-        <v>1038</v>
+        <v>60</v>
       </c>
       <c r="AD222" s="18" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AE222" s="5"/>
-      <c r="AF222" s="18" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AG222" s="18" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AH222" s="5"/>
-      <c r="AI222" s="18" t="s">
-        <v>211</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="AE222" s="18"/>
+      <c r="AF222" s="18"/>
+      <c r="AG222" s="18"/>
+      <c r="AH222" s="18"/>
+      <c r="AI222" s="18"/>
       <c r="AJ222" s="5"/>
-      <c r="AK222" s="18" t="s">
-        <v>155</v>
-      </c>
+      <c r="AK222" s="5"/>
       <c r="AL222" s="19">
         <v>42430</v>
       </c>
-      <c r="AM222" s="5"/>
-      <c r="AN222" s="18"/>
+      <c r="AM222" s="18">
+        <v>64</v>
+      </c>
+      <c r="AN222" s="18">
+        <v>2</v>
+      </c>
       <c r="AO222" s="18"/>
       <c r="AP222" s="17"/>
       <c r="AQ222" s="17"/>
     </row>
     <row r="223" spans="1:43">
       <c r="A223" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>51</v>
@@ -20612,42 +20667,48 @@
         <v>731</v>
       </c>
       <c r="S223" s="5" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="T223" s="5"/>
-      <c r="U223" s="5"/>
+      <c r="U223" s="5" t="s">
+        <v>1046</v>
+      </c>
       <c r="V223" s="5"/>
       <c r="W223" s="5"/>
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
       <c r="Z223" s="18">
-        <v>68</v>
+        <v>406</v>
       </c>
       <c r="AA223" s="18">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="AB223" s="18"/>
       <c r="AC223" s="18" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="AD223" s="18" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AE223" s="18"/>
-      <c r="AF223" s="18"/>
-      <c r="AG223" s="18"/>
+        <v>1048</v>
+      </c>
+      <c r="AE223" s="5"/>
+      <c r="AF223" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AG223" s="18" t="s">
+        <v>1050</v>
+      </c>
       <c r="AH223" s="5"/>
       <c r="AI223" s="18" t="s">
-        <v>1047</v>
+        <v>211</v>
       </c>
       <c r="AJ223" s="5"/>
       <c r="AK223" s="18" t="s">
         <v>155</v>
       </c>
       <c r="AL223" s="19">
-        <v>42644</v>
-      </c>
-      <c r="AM223" s="18"/>
+        <v>42430</v>
+      </c>
+      <c r="AM223" s="5"/>
       <c r="AN223" s="18"/>
       <c r="AO223" s="18"/>
       <c r="AP223" s="17"/>
@@ -20655,10 +20716,10 @@
     </row>
     <row r="224" spans="1:43">
       <c r="A224" s="3" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>51</v>
@@ -20699,7 +20760,7 @@
         <v>731</v>
       </c>
       <c r="S224" s="5" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="T224" s="5"/>
       <c r="U224" s="5"/>
@@ -20708,24 +20769,24 @@
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
       <c r="Z224" s="18">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AA224" s="18">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AB224" s="18"/>
       <c r="AC224" s="18" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
       <c r="AD224" s="18" t="s">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="AE224" s="18"/>
       <c r="AF224" s="18"/>
       <c r="AG224" s="18"/>
       <c r="AH224" s="5"/>
       <c r="AI224" s="18" t="s">
-        <v>1047</v>
+        <v>1056</v>
       </c>
       <c r="AJ224" s="5"/>
       <c r="AK224" s="18" t="s">
@@ -20742,10 +20803,10 @@
     </row>
     <row r="225" spans="1:43">
       <c r="A225" s="3" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>51</v>
@@ -20786,7 +20847,7 @@
         <v>731</v>
       </c>
       <c r="S225" s="5" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="T225" s="5"/>
       <c r="U225" s="5"/>
@@ -20795,43 +20856,44 @@
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
       <c r="Z225" s="18">
-        <v>-1</v>
+        <v>78</v>
       </c>
       <c r="AA225" s="18">
-        <v>-35</v>
+        <v>81</v>
       </c>
       <c r="AB225" s="18"/>
       <c r="AC225" s="18" t="s">
-        <v>764</v>
+        <v>1054</v>
       </c>
       <c r="AD225" s="18" t="s">
-        <v>810</v>
+        <v>1055</v>
       </c>
       <c r="AE225" s="18"/>
-      <c r="AF225" s="5"/>
-      <c r="AG225" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="AH225" s="18"/>
-      <c r="AI225" s="18"/>
-      <c r="AJ225" s="18"/>
-      <c r="AK225" s="5"/>
+      <c r="AF225" s="18"/>
+      <c r="AG225" s="18"/>
+      <c r="AH225" s="5"/>
+      <c r="AI225" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AJ225" s="5"/>
+      <c r="AK225" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="AL225" s="19">
-        <v>42705</v>
-      </c>
+        <v>42644</v>
+      </c>
+      <c r="AM225" s="18"/>
       <c r="AN225" s="18"/>
-      <c r="AO225" s="18">
-        <v>42</v>
-      </c>
+      <c r="AO225" s="18"/>
       <c r="AP225" s="17"/>
       <c r="AQ225" s="17"/>
     </row>
     <row r="226" spans="1:43">
       <c r="A226" s="3" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>51</v>
@@ -20872,12 +20934,10 @@
         <v>731</v>
       </c>
       <c r="S226" s="5" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="T226" s="5"/>
-      <c r="U226" s="5" t="s">
-        <v>1057</v>
-      </c>
+      <c r="U226" s="5"/>
       <c r="V226" s="5"/>
       <c r="W226" s="5"/>
       <c r="X226" s="5"/>
@@ -20886,41 +20946,40 @@
         <v>-1</v>
       </c>
       <c r="AA226" s="18">
-        <v>-8</v>
+        <v>-35</v>
       </c>
       <c r="AB226" s="18"/>
       <c r="AC226" s="18" t="s">
-        <v>60</v>
+        <v>764</v>
       </c>
       <c r="AD226" s="18" t="s">
-        <v>826</v>
-      </c>
-      <c r="AE226" s="5"/>
+        <v>811</v>
+      </c>
+      <c r="AE226" s="18"/>
       <c r="AF226" s="5"/>
-      <c r="AG226" s="5"/>
+      <c r="AG226" s="18" t="s">
+        <v>763</v>
+      </c>
       <c r="AH226" s="18"/>
       <c r="AI226" s="18"/>
       <c r="AJ226" s="18"/>
-      <c r="AK226" s="18"/>
+      <c r="AK226" s="5"/>
       <c r="AL226" s="19">
-        <v>42795</v>
-      </c>
-      <c r="AM226" s="18">
-        <v>65</v>
-      </c>
-      <c r="AN226" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO226" s="18"/>
+        <v>42705</v>
+      </c>
+      <c r="AN226" s="18"/>
+      <c r="AO226" s="18">
+        <v>42</v>
+      </c>
       <c r="AP226" s="17"/>
       <c r="AQ226" s="17"/>
     </row>
     <row r="227" spans="1:43">
       <c r="A227" s="3" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>51</v>
@@ -20961,11 +21020,11 @@
         <v>731</v>
       </c>
       <c r="S227" s="5" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="T227" s="5"/>
       <c r="U227" s="5" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="V227" s="5"/>
       <c r="W227" s="5"/>
@@ -20975,40 +21034,41 @@
         <v>-1</v>
       </c>
       <c r="AA227" s="18">
-        <v>-31</v>
+        <v>-8</v>
       </c>
       <c r="AB227" s="18"/>
       <c r="AC227" s="18" t="s">
-        <v>764</v>
+        <v>60</v>
       </c>
       <c r="AD227" s="18" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="AE227" s="5"/>
       <c r="AF227" s="5"/>
-      <c r="AG227" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="AH227" s="5"/>
+      <c r="AG227" s="5"/>
+      <c r="AH227" s="18"/>
       <c r="AI227" s="18"/>
       <c r="AJ227" s="18"/>
       <c r="AK227" s="18"/>
       <c r="AL227" s="19">
-        <v>43070</v>
-      </c>
-      <c r="AN227" s="16"/>
-      <c r="AO227" s="18">
-        <v>44</v>
-      </c>
+        <v>42795</v>
+      </c>
+      <c r="AM227" s="18">
+        <v>65</v>
+      </c>
+      <c r="AN227" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO227" s="18"/>
       <c r="AP227" s="17"/>
       <c r="AQ227" s="17"/>
     </row>
     <row r="228" spans="1:43">
       <c r="A228" s="3" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>51</v>
@@ -21049,10 +21109,12 @@
         <v>731</v>
       </c>
       <c r="S228" s="5" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="T228" s="5"/>
-      <c r="U228" s="5"/>
+      <c r="U228" s="5" t="s">
+        <v>1070</v>
+      </c>
       <c r="V228" s="5"/>
       <c r="W228" s="5"/>
       <c r="X228" s="5"/>
@@ -21068,33 +21130,33 @@
         <v>764</v>
       </c>
       <c r="AD228" s="18" t="s">
-        <v>810</v>
-      </c>
-      <c r="AE228" s="18"/>
+        <v>811</v>
+      </c>
+      <c r="AE228" s="5"/>
       <c r="AF228" s="5"/>
       <c r="AG228" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="AH228" s="18"/>
+      <c r="AH228" s="5"/>
       <c r="AI228" s="18"/>
       <c r="AJ228" s="18"/>
-      <c r="AK228" s="5"/>
+      <c r="AK228" s="18"/>
       <c r="AL228" s="19">
         <v>43070</v>
       </c>
-      <c r="AN228" s="18"/>
+      <c r="AN228" s="16"/>
       <c r="AO228" s="18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP228" s="17"/>
       <c r="AQ228" s="17"/>
     </row>
     <row r="229" spans="1:43">
       <c r="A229" s="3" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>51</v>
@@ -21135,74 +21197,75 @@
         <v>731</v>
       </c>
       <c r="S229" s="5" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="T229" s="5"/>
-      <c r="U229" s="5" t="s">
-        <v>1068</v>
-      </c>
+      <c r="U229" s="5"/>
       <c r="V229" s="5"/>
       <c r="W229" s="5"/>
       <c r="X229" s="5"/>
       <c r="Y229" s="5"/>
       <c r="Z229" s="18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA229" s="18">
-        <v>98</v>
+        <v>-31</v>
       </c>
       <c r="AB229" s="18"/>
       <c r="AC229" s="18" t="s">
-        <v>1069</v>
+        <v>764</v>
       </c>
       <c r="AD229" s="18" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AE229" s="5"/>
+        <v>811</v>
+      </c>
+      <c r="AE229" s="18"/>
       <c r="AF229" s="5"/>
-      <c r="AG229" s="18"/>
-      <c r="AH229" s="5"/>
-      <c r="AI229" s="18" t="s">
-        <v>1071</v>
-      </c>
+      <c r="AG229" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="AH229" s="18"/>
+      <c r="AI229" s="18"/>
       <c r="AJ229" s="18"/>
-      <c r="AK229" s="18" t="s">
-        <v>1072</v>
-      </c>
+      <c r="AK229" s="5"/>
       <c r="AL229" s="19">
-        <v>43405</v>
-      </c>
-      <c r="AN229" s="16"/>
+        <v>43070</v>
+      </c>
+      <c r="AN229" s="18"/>
       <c r="AO229" s="18">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AP229" s="17"/>
       <c r="AQ229" s="17"/>
     </row>
     <row r="230" spans="1:43">
       <c r="A230" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B230" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B230" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
       <c r="I230" s="7">
         <v>1</v>
       </c>
       <c r="J230" s="7">
         <v>1</v>
       </c>
-      <c r="K230" s="3">
+      <c r="K230" s="7">
         <v>1</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="N230" s="3" t="s">
         <v>114</v>
@@ -21219,31 +21282,57 @@
       <c r="R230" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="S230" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="U230" s="3" t="s">
+      <c r="S230" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="AI230" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="AK230" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL230" s="4">
-        <v>28672</v>
-      </c>
-      <c r="AM230" s="3" t="s">
+      <c r="T230" s="5"/>
+      <c r="U230" s="5" t="s">
         <v>1077</v>
       </c>
+      <c r="V230" s="5"/>
+      <c r="W230" s="5"/>
+      <c r="X230" s="5"/>
+      <c r="Y230" s="5"/>
+      <c r="Z230" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA230" s="18">
+        <v>98</v>
+      </c>
+      <c r="AB230" s="18"/>
+      <c r="AC230" s="18" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AD230" s="18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AE230" s="5"/>
+      <c r="AF230" s="5"/>
+      <c r="AG230" s="18"/>
+      <c r="AH230" s="5"/>
+      <c r="AI230" s="18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AJ230" s="18"/>
+      <c r="AK230" s="18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL230" s="19">
+        <v>43405</v>
+      </c>
+      <c r="AN230" s="16"/>
+      <c r="AO230" s="18">
+        <v>11</v>
+      </c>
+      <c r="AP230" s="17"/>
+      <c r="AQ230" s="17"/>
     </row>
     <row r="231" spans="1:43">
       <c r="A231" s="3" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>51</v>
@@ -21279,30 +21368,30 @@
         <v>731</v>
       </c>
       <c r="S231" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AC231" s="3" t="s">
-        <v>1081</v>
+        <v>1084</v>
+      </c>
+      <c r="U231" s="3" t="s">
+        <v>1085</v>
       </c>
       <c r="AI231" s="3" t="s">
-        <v>1082</v>
+        <v>795</v>
       </c>
       <c r="AK231" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AL231" s="4">
-        <v>30103</v>
+        <v>28672</v>
       </c>
       <c r="AM231" s="3" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="232" spans="1:43">
       <c r="A232" s="3" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>51</v>
@@ -21338,33 +21427,30 @@
         <v>731</v>
       </c>
       <c r="S232" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="U232" s="3" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="AC232" s="3" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="AI232" s="3" t="s">
-        <v>314</v>
+        <v>1091</v>
       </c>
       <c r="AK232" s="3" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="AL232" s="4">
-        <v>30256</v>
+        <v>30103</v>
       </c>
       <c r="AM232" s="3" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="233" spans="1:43">
       <c r="A233" s="3" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>51</v>
@@ -21400,27 +21486,33 @@
         <v>731</v>
       </c>
       <c r="S233" s="3" t="s">
-        <v>1092</v>
+        <v>1095</v>
+      </c>
+      <c r="U233" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AC233" s="3" t="s">
+        <v>1097</v>
       </c>
       <c r="AI233" s="3" t="s">
-        <v>1082</v>
+        <v>314</v>
       </c>
       <c r="AK233" s="3" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="AL233" s="4">
-        <v>30713</v>
+        <v>30256</v>
       </c>
       <c r="AM233" s="3" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="234" spans="1:43">
       <c r="A234" s="3" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>51</v>
@@ -21432,7 +21524,7 @@
         <v>1</v>
       </c>
       <c r="K234" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L234" s="3" t="s">
         <v>113</v>
@@ -21456,27 +21548,27 @@
         <v>731</v>
       </c>
       <c r="S234" s="3" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="AI234" s="3" t="s">
-        <v>409</v>
+        <v>1091</v>
       </c>
       <c r="AK234" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AL234" s="4">
-        <v>30895</v>
+        <v>30713</v>
       </c>
       <c r="AM234" s="3" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="235" spans="1:43">
       <c r="A235" s="3" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>51</v>
@@ -21512,33 +21604,27 @@
         <v>731</v>
       </c>
       <c r="S235" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="U235" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AC235" s="3" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="AI235" s="3" t="s">
-        <v>794</v>
+        <v>409</v>
       </c>
       <c r="AK235" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AL235" s="4">
-        <v>31168</v>
+        <v>30895</v>
       </c>
       <c r="AM235" s="3" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="236" spans="1:43">
       <c r="A236" s="3" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>51</v>
@@ -21574,30 +21660,33 @@
         <v>731</v>
       </c>
       <c r="S236" s="3" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="U236" s="3" t="s">
-        <v>1106</v>
+        <v>1110</v>
+      </c>
+      <c r="AC236" s="3" t="s">
+        <v>1111</v>
       </c>
       <c r="AI236" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AK236" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AL236" s="4">
-        <v>31564</v>
+        <v>31168</v>
       </c>
       <c r="AM236" s="3" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="237" spans="1:43">
       <c r="A237" s="3" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>51</v>
@@ -21633,30 +21722,30 @@
         <v>731</v>
       </c>
       <c r="S237" s="3" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="U237" s="3" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="AI237" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AK237" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AL237" s="4">
-        <v>32143</v>
+        <v>31564</v>
       </c>
       <c r="AM237" s="3" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="238" spans="1:43">
       <c r="A238" s="3" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>51</v>
@@ -21692,30 +21781,30 @@
         <v>731</v>
       </c>
       <c r="S238" s="3" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="U238" s="3" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="AI238" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AK238" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AL238" s="4">
-        <v>32782</v>
+        <v>32143</v>
       </c>
       <c r="AM238" s="3" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="239" spans="1:43">
       <c r="A239" s="3" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>51</v>
@@ -21751,30 +21840,30 @@
         <v>731</v>
       </c>
       <c r="S239" s="3" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="U239" s="3" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="AI239" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AK239" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AL239" s="4">
-        <v>32905</v>
+        <v>32782</v>
       </c>
       <c r="AM239" s="3" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="240" spans="1:43">
       <c r="A240" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>51</v>
@@ -21786,7 +21875,7 @@
         <v>1</v>
       </c>
       <c r="K240" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L240" s="3" t="s">
         <v>113</v>
@@ -21810,27 +21899,30 @@
         <v>731</v>
       </c>
       <c r="S240" s="3" t="s">
-        <v>1122</v>
+        <v>1109</v>
+      </c>
+      <c r="U240" s="3" t="s">
+        <v>1127</v>
       </c>
       <c r="AI240" s="3" t="s">
-        <v>314</v>
+        <v>795</v>
       </c>
       <c r="AK240" s="3" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="AL240" s="4">
-        <v>33482</v>
+        <v>32905</v>
       </c>
       <c r="AM240" s="3" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="241" spans="1:39">
       <c r="A241" s="3" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>51</v>
@@ -21842,7 +21934,7 @@
         <v>1</v>
       </c>
       <c r="K241" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L241" s="3" t="s">
         <v>113</v>
@@ -21866,25 +21958,87 @@
         <v>731</v>
       </c>
       <c r="S241" s="3" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="AI241" s="3" t="s">
-        <v>1127</v>
+        <v>314</v>
       </c>
       <c r="AK241" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL241" s="4">
+        <v>33482</v>
+      </c>
+      <c r="AM241" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="242" spans="1:39">
+      <c r="A242" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I242" s="7">
+        <v>1</v>
+      </c>
+      <c r="J242" s="7">
+        <v>1</v>
+      </c>
+      <c r="K242" s="3">
+        <v>2</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P242" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q242" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R242" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="S242" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AI242" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AK242" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AL241" s="4">
+      <c r="AL242" s="4">
         <v>34639</v>
       </c>
-      <c r="AM241" s="3" t="s">
-        <v>1128</v>
+      <c r="AM242" s="3" t="s">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="E178" r:id="rId1" display="https://www.ykbi.edu.tw/modules/journal/journal_p6.php" xr:uid="{95701311-0E02-4F8A-A46C-E9B406731F7E}"/>
+    <hyperlink ref="F178" r:id="rId2" xr:uid="{C6B8D8B4-35C6-45EC-A9A5-D266EDDEF63F}"/>
+    <hyperlink ref="E179" r:id="rId3" display="https://www.ykbi.edu.tw/modules/journal/journal_p6.php" xr:uid="{C840CC28-D4AF-4183-A92B-D6257CE98C5C}"/>
+    <hyperlink ref="F179" r:id="rId4" display="https://www.ykbi.edu.tw/modules/journal/data_6/journal_6_1.pdf" xr:uid="{F3A06E5F-E73E-4A75-BC9D-6B61A0C562AB}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/data/master-2.xlsx
+++ b/data/master-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93f37494ca9b136a/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F35E5B5-5672-424A-89E3-F1E565A557C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC97C4F-08D1-4F42-B2E8-9CEE054361EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4840" yWindow="500" windowWidth="38260" windowHeight="25460" xr2:uid="{4B520F98-5930-514C-BD16-7DA1FF5F44D9}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3509" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1154">
   <si>
     <t>ProjectID</t>
   </si>
@@ -2860,13 +2860,13 @@
     <t>https://www.amazon.com/Three-Mountains-Seven-Rivers-Felicitation/dp/8120824687</t>
   </si>
   <si>
-    <t>SADĀNANDA'S CRITICISM OF BUDDHISM</t>
+    <t>SADĀNANDA’S CRITICISM OF BUDDHISM</t>
   </si>
   <si>
     <t>Three Mountains and Seven Rivers</t>
   </si>
   <si>
-    <t xml:space="preserve"> Prof. Musashi Tachikawa's Felicitation Volume</t>
+    <t xml:space="preserve"> Prof. Musashi Tachikawa’s Felicitation Volume</t>
   </si>
   <si>
     <t>Shoun Hino, Toshihiro Wada, Motilal Banarsidass</t>
@@ -3001,7 +3001,13 @@
     <t>存在の把握</t>
   </si>
   <si>
-    <t>五蘊と界 （dhātu　要素）</t>
+    <t>五蘊と界 （dhātu，要素）</t>
+  </si>
+  <si>
+    <t>msk1971</t>
+  </si>
+  <si>
+    <t>msk1970の英文要旨（タイトル不明）</t>
   </si>
   <si>
     <t>msk1980</t>
@@ -3034,9 +3040,6 @@
     <t>名古屋</t>
   </si>
   <si>
-    <t>2008年</t>
-  </si>
-  <si>
     <t>msk2000</t>
   </si>
   <si>
@@ -3052,13 +3055,19 @@
     <t>論文-200</t>
   </si>
   <si>
-    <t>BUDDHISM'S UNIQUE POSSIBILITY TO PURSUE INNER PEACEFULNESS TO AVOID VIOLENCE AND WAR</t>
+    <t>https://ayk.gov.tr/wp-content/uploads/2015/01/MURAKAMI-Shinkan-BUDDHISM%E2%80%99S-UNIQUE-POSSIBILITY-TO-PURSUE-INNER-PEACEFULNESS-TO-AVOID-VIOLENCE-AND-WAR.pdf（ただし当該論文は見当たらない）</t>
+  </si>
+  <si>
+    <t>BUDDHISM’S UNIQUE POSSIBILITY TO PURSUE INNER PEACEFULNESS TO AVOID VIOLENCE AND WAR</t>
   </si>
   <si>
     <t>ICANAS 38 Proceedings</t>
   </si>
   <si>
-    <t>Ankara</t>
+    <t>トルコ共和国</t>
+  </si>
+  <si>
+    <t>アンカラ</t>
   </si>
   <si>
     <t>msk2020</t>
@@ -3067,25 +3076,19 @@
     <t>論文-201</t>
   </si>
   <si>
-    <t>"Reasons and motives for meritorious deeds" (Skt. Puṇyakriyāvastu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> written in Turkic and Sanskrit</t>
-  </si>
-  <si>
-    <t>突厥語文学研究</t>
-  </si>
-  <si>
-    <t>トッケツゴブンガクケンキュウ</t>
-  </si>
-  <si>
-    <t>Studies in Turkic Philology</t>
-  </si>
-  <si>
-    <t>張定京 阿不都熱西提 亞庫甫</t>
-  </si>
-  <si>
-    <t>中央民族大学出版社</t>
+    <t>“Reasons and motives for meritorious deeds” (Skt. Puṇyakriyāvastu), written in Turkic and Sanskrit, transcribed and translated in collaboration with Professor Shinkan Murakami, by Juten Oda（小田寿典）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Studies in Turkic Philology, Festschrift in honour of the 80th birthday of Professor Geng Shimin</t>
+  </si>
+  <si>
+    <t>Zhang Dingjing, Abdurishid Yakup</t>
+  </si>
+  <si>
+    <t>China Minzu University Press</t>
   </si>
   <si>
     <t>中華人民共和国</t>
@@ -3094,9 +3097,6 @@
     <t>北京</t>
   </si>
   <si>
-    <t>2009年</t>
-  </si>
-  <si>
     <t>msk2030</t>
   </si>
   <si>
@@ -3136,12 +3136,12 @@
     <t>論文-205</t>
   </si>
   <si>
+    <t>（及川真介著；村上真完　補註付記）</t>
+  </si>
+  <si>
     <t>『パラマッタ・ジョーティカー』における文法的記述</t>
   </si>
   <si>
-    <t>及川真介著　村上真完補註付記</t>
-  </si>
-  <si>
     <t>msk2070</t>
   </si>
   <si>
@@ -3166,6 +3166,12 @@
     <t>仏典における原意と訳語の考察</t>
   </si>
   <si>
+    <t>msk2081</t>
+  </si>
+  <si>
+    <t>msk2080の英文要旨（タイトル不明）</t>
+  </si>
+  <si>
     <t>msk2090</t>
   </si>
   <si>
@@ -3202,19 +3208,28 @@
     <t>法（dharma）と存在（bhāva）と存在しているもの（sat）</t>
   </si>
   <si>
+    <t>msk2111</t>
+  </si>
+  <si>
     <t>msk2120</t>
   </si>
   <si>
     <t>論文-211</t>
   </si>
   <si>
+    <t>（7）法と諸法と縁起⸺教団の形成と発展</t>
+  </si>
+  <si>
     <t>msk2130</t>
   </si>
   <si>
     <t>論文-212</t>
   </si>
   <si>
-    <t>日本仏教における絆の問題：原始仏教との対比</t>
+    <t>日本仏教における絆の問題</t>
+  </si>
+  <si>
+    <t>原始仏教との対比</t>
   </si>
   <si>
     <t>msk2140</t>
@@ -4691,11 +4706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B5C9C-E65E-5147-8F7A-F897A99FA9F3}">
-  <dimension ref="A1:AW242"/>
+  <dimension ref="A1:AW245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="U177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK205" sqref="AK205"/>
+      <pane ySplit="1" topLeftCell="N199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V219" sqref="V219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5"/>
@@ -16427,7 +16442,7 @@
         <v>1</v>
       </c>
       <c r="J167" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K167" s="7">
         <v>1</v>
@@ -16791,7 +16806,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K171" s="7">
         <v>1</v>
@@ -19004,7 +19019,7 @@
         <v>1</v>
       </c>
       <c r="J195" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K195" s="7">
         <v>1</v>
@@ -19411,10 +19426,10 @@
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
       <c r="Z199" s="18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA199" s="18">
-        <v>-59</v>
+        <v>59</v>
       </c>
       <c r="AB199" s="18"/>
       <c r="AC199" s="18" t="s">
@@ -19450,7 +19465,7 @@
       <c r="A200" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="5" t="s">
         <v>954</v>
       </c>
       <c r="C200" s="7" t="s">
@@ -19529,7 +19544,7 @@
         <v>62</v>
       </c>
       <c r="AL200" s="19">
-        <v>39508</v>
+        <v>39479</v>
       </c>
       <c r="AM200" s="18">
         <v>56</v>
@@ -19545,22 +19560,24 @@
       <c r="A201" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
       <c r="I201" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J201" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K201" s="7">
         <v>1</v>
@@ -19586,59 +19603,58 @@
       <c r="R201" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="S201" s="5" t="s">
-        <v>930</v>
-      </c>
+      <c r="S201" s="5"/>
       <c r="T201" s="5"/>
-      <c r="U201" s="5" t="s">
-        <v>959</v>
-      </c>
+      <c r="U201" s="5"/>
       <c r="V201" s="5"/>
       <c r="W201" s="5"/>
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
       <c r="Z201" s="18">
-        <v>63</v>
+        <v>1295</v>
       </c>
       <c r="AA201" s="18">
-        <v>133</v>
+        <v>1296</v>
       </c>
       <c r="AB201" s="18"/>
       <c r="AC201" s="18" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="AD201" s="18" t="s">
-        <v>789</v>
+        <v>835</v>
       </c>
       <c r="AE201" s="5"/>
       <c r="AF201" s="5"/>
       <c r="AG201" s="18"/>
       <c r="AH201" s="18"/>
-      <c r="AI201" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ201" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK201" s="18" t="s">
-        <v>227</v>
+      <c r="AI201" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ201" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK201" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="AL201" s="19">
         <v>39508</v>
       </c>
-      <c r="AN201" s="18"/>
-      <c r="AO201" s="18">
-        <v>36</v>
-      </c>
+      <c r="AM201" s="18">
+        <v>56</v>
+      </c>
+      <c r="AN201" s="18">
+        <v>3</v>
+      </c>
+      <c r="AO201" s="18"/>
       <c r="AP201" s="17"/>
       <c r="AQ201" s="17"/>
     </row>
     <row r="202" spans="1:43">
       <c r="A202" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B202" s="7" t="s">
         <v>960</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>961</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>51</v>
@@ -19679,56 +19695,58 @@
         <v>736</v>
       </c>
       <c r="S202" s="5" t="s">
-        <v>962</v>
+        <v>930</v>
       </c>
       <c r="T202" s="5"/>
-      <c r="U202" s="5"/>
+      <c r="U202" s="5" t="s">
+        <v>961</v>
+      </c>
       <c r="V202" s="5"/>
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
       <c r="Z202" s="18">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="AA202" s="18">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="AB202" s="18"/>
       <c r="AC202" s="18" t="s">
-        <v>963</v>
+        <v>225</v>
       </c>
       <c r="AD202" s="18" t="s">
-        <v>964</v>
-      </c>
-      <c r="AE202" s="18"/>
-      <c r="AF202" s="18"/>
+        <v>789</v>
+      </c>
+      <c r="AE202" s="5"/>
+      <c r="AF202" s="5"/>
       <c r="AG202" s="18"/>
       <c r="AH202" s="18"/>
       <c r="AI202" s="18" t="s">
-        <v>965</v>
-      </c>
-      <c r="AJ202" s="18">
+        <v>226</v>
+      </c>
+      <c r="AJ202" s="5">
         <v>1</v>
       </c>
       <c r="AK202" s="18" t="s">
-        <v>966</v>
-      </c>
-      <c r="AL202" s="18" t="s">
-        <v>967</v>
-      </c>
-      <c r="AM202" s="18"/>
+        <v>227</v>
+      </c>
+      <c r="AL202" s="19">
+        <v>39508</v>
+      </c>
+      <c r="AN202" s="18"/>
       <c r="AO202" s="18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AP202" s="17"/>
       <c r="AQ202" s="17"/>
     </row>
     <row r="203" spans="1:43">
       <c r="A203" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>51</v>
@@ -19742,7 +19760,7 @@
         <v>1</v>
       </c>
       <c r="J203" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K203" s="7">
         <v>1</v>
@@ -19769,58 +19787,56 @@
         <v>736</v>
       </c>
       <c r="S203" s="5" t="s">
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="T203" s="5"/>
-      <c r="U203" s="5" t="s">
-        <v>970</v>
-      </c>
+      <c r="U203" s="5"/>
       <c r="V203" s="5"/>
       <c r="W203" s="5"/>
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
       <c r="Z203" s="18">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AA203" s="18">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AB203" s="18"/>
       <c r="AC203" s="18" t="s">
-        <v>225</v>
+        <v>965</v>
       </c>
       <c r="AD203" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="AE203" s="5"/>
-      <c r="AF203" s="5"/>
+        <v>966</v>
+      </c>
+      <c r="AE203" s="18"/>
+      <c r="AF203" s="18"/>
       <c r="AG203" s="18"/>
       <c r="AH203" s="18"/>
       <c r="AI203" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ203" s="5">
+        <v>967</v>
+      </c>
+      <c r="AJ203" s="18">
         <v>1</v>
       </c>
       <c r="AK203" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL203" s="19">
-        <v>39873</v>
-      </c>
-      <c r="AN203" s="18"/>
+        <v>968</v>
+      </c>
+      <c r="AL203" s="18">
+        <v>2008</v>
+      </c>
+      <c r="AM203" s="18"/>
       <c r="AO203" s="18">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AP203" s="17"/>
       <c r="AQ203" s="17"/>
     </row>
     <row r="204" spans="1:43">
       <c r="A204" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>51</v>
@@ -19861,57 +19877,66 @@
         <v>736</v>
       </c>
       <c r="S204" s="5" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="T204" s="5"/>
-      <c r="U204" s="5"/>
+      <c r="U204" s="5" t="s">
+        <v>971</v>
+      </c>
       <c r="V204" s="5"/>
       <c r="W204" s="5"/>
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
       <c r="Z204" s="18">
-        <v>353</v>
+        <v>91</v>
       </c>
       <c r="AA204" s="18">
-        <v>364</v>
+        <v>140</v>
       </c>
       <c r="AB204" s="18"/>
       <c r="AC204" s="18" t="s">
-        <v>974</v>
-      </c>
-      <c r="AD204" s="18"/>
-      <c r="AE204" s="18"/>
-      <c r="AF204" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="AD204" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE204" s="5"/>
+      <c r="AF204" s="5"/>
       <c r="AG204" s="18"/>
       <c r="AH204" s="18"/>
-      <c r="AI204" s="18"/>
-      <c r="AJ204" s="18">
+      <c r="AI204" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ204" s="5">
         <v>1</v>
       </c>
       <c r="AK204" s="18" t="s">
-        <v>975</v>
+        <v>227</v>
       </c>
       <c r="AL204" s="19">
         <v>39873</v>
       </c>
-      <c r="AM204" s="5"/>
       <c r="AN204" s="18"/>
-      <c r="AO204" s="18"/>
+      <c r="AO204" s="18">
+        <v>37</v>
+      </c>
       <c r="AP204" s="17"/>
       <c r="AQ204" s="17"/>
     </row>
     <row r="205" spans="1:43">
       <c r="A205" s="3" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
+      <c r="E205" s="25" t="s">
+        <v>974</v>
+      </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
@@ -19919,7 +19944,7 @@
         <v>1</v>
       </c>
       <c r="J205" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K205" s="7">
         <v>1</v>
@@ -19946,50 +19971,40 @@
         <v>736</v>
       </c>
       <c r="S205" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="T205" s="5"/>
-      <c r="U205" s="5" t="s">
-        <v>979</v>
-      </c>
+      <c r="U205" s="5"/>
       <c r="V205" s="5"/>
       <c r="W205" s="5"/>
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
       <c r="Z205" s="18">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AA205" s="18">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AB205" s="18"/>
       <c r="AC205" s="18" t="s">
-        <v>980</v>
-      </c>
-      <c r="AD205" s="18" t="s">
-        <v>981</v>
-      </c>
-      <c r="AE205" s="5"/>
-      <c r="AF205" s="18" t="s">
-        <v>982</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="AD205" s="18"/>
+      <c r="AE205" s="18"/>
+      <c r="AF205" s="18"/>
       <c r="AG205" s="18"/>
-      <c r="AH205" s="18" t="s">
-        <v>983</v>
-      </c>
-      <c r="AI205" s="18" t="s">
-        <v>984</v>
-      </c>
+      <c r="AH205" s="18"/>
+      <c r="AI205" s="18"/>
       <c r="AJ205" s="18" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="AK205" s="18" t="s">
-        <v>986</v>
-      </c>
-      <c r="AL205" s="18" t="s">
-        <v>987</v>
-      </c>
-      <c r="AM205" s="18"/>
+        <v>978</v>
+      </c>
+      <c r="AL205" s="19">
+        <v>39873</v>
+      </c>
+      <c r="AM205" s="5"/>
       <c r="AN205" s="18"/>
       <c r="AO205" s="18"/>
       <c r="AP205" s="17"/>
@@ -19997,10 +20012,10 @@
     </row>
     <row r="206" spans="1:43">
       <c r="A206" s="3" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>51</v>
@@ -20014,10 +20029,10 @@
         <v>1</v>
       </c>
       <c r="J206" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K206" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>281</v>
@@ -20041,58 +20056,57 @@
         <v>736</v>
       </c>
       <c r="S206" s="5" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="T206" s="5"/>
       <c r="U206" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="V206" s="5"/>
       <c r="W206" s="5"/>
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
       <c r="Z206" s="18">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="AA206" s="18">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="AB206" s="18"/>
       <c r="AC206" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="AD206" s="18" t="s">
-        <v>814</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="AD206" s="18"/>
       <c r="AE206" s="5"/>
-      <c r="AF206" s="5"/>
+      <c r="AF206" s="18"/>
       <c r="AG206" s="18"/>
-      <c r="AH206" s="18"/>
+      <c r="AH206" s="18" t="s">
+        <v>984</v>
+      </c>
       <c r="AI206" s="18" t="s">
-        <v>694</v>
-      </c>
-      <c r="AJ206" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK206" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="AL206" s="19">
-        <v>40087</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="AJ206" s="18" t="s">
+        <v>986</v>
+      </c>
+      <c r="AK206" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="AL206" s="18">
+        <v>2009</v>
+      </c>
+      <c r="AM206" s="18"/>
       <c r="AN206" s="18"/>
-      <c r="AO206" s="18">
-        <v>24</v>
-      </c>
+      <c r="AO206" s="18"/>
       <c r="AP206" s="17"/>
       <c r="AQ206" s="17"/>
     </row>
     <row r="207" spans="1:43">
       <c r="A207" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>51</v>
@@ -20133,58 +20147,58 @@
         <v>736</v>
       </c>
       <c r="S207" s="5" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="T207" s="5"/>
       <c r="U207" s="5" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="V207" s="5"/>
       <c r="W207" s="5"/>
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
       <c r="Z207" s="18">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="AA207" s="18">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="AB207" s="18"/>
       <c r="AC207" s="18" t="s">
-        <v>742</v>
+        <v>693</v>
       </c>
       <c r="AD207" s="18" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="AE207" s="5"/>
       <c r="AF207" s="5"/>
       <c r="AG207" s="18"/>
-      <c r="AH207" s="5"/>
+      <c r="AH207" s="18"/>
       <c r="AI207" s="18" t="s">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="AJ207" s="18">
         <v>1</v>
       </c>
-      <c r="AK207" s="18" t="s">
-        <v>92</v>
+      <c r="AK207" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="AL207" s="19">
-        <v>40148</v>
-      </c>
-      <c r="AN207" s="16"/>
+        <v>40087</v>
+      </c>
+      <c r="AN207" s="18"/>
       <c r="AO207" s="18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AP207" s="17"/>
       <c r="AQ207" s="17"/>
     </row>
     <row r="208" spans="1:43">
       <c r="A208" s="3" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>51</v>
@@ -20225,58 +20239,58 @@
         <v>736</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>930</v>
+        <v>994</v>
       </c>
       <c r="T208" s="5"/>
       <c r="U208" s="5" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="V208" s="5"/>
       <c r="W208" s="5"/>
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
       <c r="Z208" s="18">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AA208" s="18">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="AB208" s="18"/>
       <c r="AC208" s="18" t="s">
-        <v>225</v>
+        <v>742</v>
       </c>
       <c r="AD208" s="18" t="s">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="AE208" s="5"/>
       <c r="AF208" s="5"/>
       <c r="AG208" s="18"/>
-      <c r="AH208" s="18"/>
+      <c r="AH208" s="5"/>
       <c r="AI208" s="18" t="s">
-        <v>226</v>
+        <v>743</v>
       </c>
       <c r="AJ208" s="18">
         <v>1</v>
       </c>
       <c r="AK208" s="18" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="AL208" s="19">
-        <v>40238</v>
-      </c>
-      <c r="AN208" s="18"/>
+        <v>40148</v>
+      </c>
+      <c r="AN208" s="16"/>
       <c r="AO208" s="18">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP208" s="17"/>
       <c r="AQ208" s="17"/>
     </row>
     <row r="209" spans="1:43">
       <c r="A209" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>51</v>
@@ -20317,21 +20331,21 @@
         <v>736</v>
       </c>
       <c r="S209" s="5" t="s">
-        <v>1001</v>
+        <v>930</v>
       </c>
       <c r="T209" s="5"/>
       <c r="U209" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="V209" s="5"/>
       <c r="W209" s="5"/>
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
       <c r="Z209" s="18">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AA209" s="18">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="AB209" s="18"/>
       <c r="AC209" s="18" t="s">
@@ -20365,16 +20379,18 @@
     </row>
     <row r="210" spans="1:43">
       <c r="A210" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
+      <c r="E210" s="7" t="s">
+        <v>1001</v>
+      </c>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
@@ -20385,7 +20401,7 @@
         <v>1</v>
       </c>
       <c r="K210" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L210" s="3" t="s">
         <v>281</v>
@@ -20409,58 +20425,56 @@
         <v>736</v>
       </c>
       <c r="S210" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="T210" s="5"/>
-      <c r="U210" s="5" t="s">
-        <v>1006</v>
-      </c>
+      <c r="U210" s="5"/>
       <c r="V210" s="5"/>
       <c r="W210" s="5"/>
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
       <c r="Z210" s="18">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="AA210" s="18">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="AB210" s="18"/>
       <c r="AC210" s="18" t="s">
-        <v>693</v>
+        <v>225</v>
       </c>
       <c r="AD210" s="18" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="AE210" s="5"/>
       <c r="AF210" s="5"/>
       <c r="AG210" s="18"/>
       <c r="AH210" s="18"/>
       <c r="AI210" s="18" t="s">
-        <v>693</v>
+        <v>226</v>
       </c>
       <c r="AJ210" s="18">
         <v>1</v>
       </c>
-      <c r="AK210" s="5" t="s">
-        <v>695</v>
+      <c r="AK210" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="AL210" s="19">
-        <v>40452</v>
+        <v>40238</v>
       </c>
       <c r="AN210" s="18"/>
       <c r="AO210" s="18">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AP210" s="17"/>
       <c r="AQ210" s="17"/>
     </row>
     <row r="211" spans="1:43">
       <c r="A211" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>51</v>
@@ -20501,67 +20515,63 @@
         <v>736</v>
       </c>
       <c r="S211" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="T211" s="5"/>
       <c r="U211" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="V211" s="5"/>
       <c r="W211" s="5"/>
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
       <c r="Z211" s="18">
-        <v>858</v>
+        <v>21</v>
       </c>
       <c r="AA211" s="18">
-        <v>851</v>
+        <v>42</v>
       </c>
       <c r="AB211" s="18"/>
       <c r="AC211" s="18" t="s">
-        <v>60</v>
+        <v>693</v>
       </c>
       <c r="AD211" s="18" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="AE211" s="5"/>
       <c r="AF211" s="5"/>
       <c r="AG211" s="18"/>
       <c r="AH211" s="18"/>
-      <c r="AI211" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ211" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK211" s="3" t="s">
-        <v>62</v>
+      <c r="AI211" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="AJ211" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK211" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="AL211" s="19">
-        <v>40603</v>
-      </c>
-      <c r="AM211" s="18">
-        <v>59</v>
-      </c>
-      <c r="AN211" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO211" s="18"/>
+        <v>40452</v>
+      </c>
+      <c r="AN211" s="18"/>
+      <c r="AO211" s="18">
+        <v>25</v>
+      </c>
       <c r="AP211" s="17"/>
       <c r="AQ211" s="17"/>
     </row>
     <row r="212" spans="1:43">
       <c r="A212" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>1012</v>
+        <v>1007</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1008</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
@@ -20596,72 +20606,77 @@
         <v>736</v>
       </c>
       <c r="S212" s="5" t="s">
-        <v>930</v>
+        <v>1009</v>
       </c>
       <c r="T212" s="5"/>
-      <c r="U212" s="9" t="s">
-        <v>1013</v>
+      <c r="U212" s="5" t="s">
+        <v>1010</v>
       </c>
       <c r="V212" s="5"/>
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
       <c r="Z212" s="18">
-        <v>95</v>
+        <v>858</v>
       </c>
       <c r="AA212" s="18">
-        <v>125</v>
+        <v>851</v>
       </c>
       <c r="AB212" s="18"/>
       <c r="AC212" s="18" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="AD212" s="18" t="s">
-        <v>789</v>
+        <v>835</v>
       </c>
       <c r="AE212" s="5"/>
       <c r="AF212" s="5"/>
       <c r="AG212" s="18"/>
       <c r="AH212" s="18"/>
-      <c r="AI212" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ212" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK212" s="18" t="s">
-        <v>227</v>
+      <c r="AI212" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ212" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK212" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="AL212" s="19">
         <v>40603</v>
       </c>
-      <c r="AN212" s="18"/>
-      <c r="AO212" s="18">
-        <v>39</v>
-      </c>
+      <c r="AM212" s="18">
+        <v>59</v>
+      </c>
+      <c r="AN212" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO212" s="18"/>
       <c r="AP212" s="17"/>
       <c r="AQ212" s="17"/>
     </row>
     <row r="213" spans="1:43">
       <c r="A213" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>1015</v>
+        <v>1011</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1008</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
+      <c r="E213" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
       <c r="I213" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J213" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K213" s="7">
         <v>1</v>
@@ -20687,56 +20702,58 @@
       <c r="R213" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="S213" s="5" t="s">
-        <v>1016</v>
-      </c>
+      <c r="S213" s="5"/>
       <c r="T213" s="5"/>
-      <c r="U213" s="5" t="s">
-        <v>1017</v>
-      </c>
+      <c r="U213" s="5"/>
       <c r="V213" s="5"/>
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
       <c r="Z213" s="18">
-        <v>1</v>
+        <v>1373</v>
       </c>
       <c r="AA213" s="18">
-        <v>31</v>
+        <v>1373</v>
       </c>
       <c r="AB213" s="18"/>
       <c r="AC213" s="18" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AD213" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="AD213" s="18" t="s">
+        <v>835</v>
+      </c>
       <c r="AE213" s="5"/>
       <c r="AF213" s="5"/>
       <c r="AG213" s="18"/>
       <c r="AH213" s="18"/>
-      <c r="AI213" s="18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AJ213" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK213" s="18" t="s">
-        <v>69</v>
+      <c r="AI213" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ213" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK213" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="AL213" s="19">
-        <v>40969</v>
-      </c>
-      <c r="AM213" s="18"/>
-      <c r="AN213" s="18"/>
+        <v>40603</v>
+      </c>
+      <c r="AM213" s="18">
+        <v>59</v>
+      </c>
+      <c r="AN213" s="18">
+        <v>3</v>
+      </c>
       <c r="AO213" s="18"/>
       <c r="AP213" s="17"/>
       <c r="AQ213" s="17"/>
     </row>
     <row r="214" spans="1:43">
       <c r="A214" s="3" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>51</v>
@@ -20777,59 +20794,58 @@
         <v>736</v>
       </c>
       <c r="S214" s="5" t="s">
-        <v>1022</v>
+        <v>930</v>
       </c>
       <c r="T214" s="5"/>
-      <c r="U214" s="5"/>
+      <c r="U214" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="V214" s="5"/>
       <c r="W214" s="5"/>
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
       <c r="Z214" s="18">
-        <v>892</v>
+        <v>95</v>
       </c>
       <c r="AA214" s="18">
-        <v>885</v>
+        <v>125</v>
       </c>
       <c r="AB214" s="18"/>
       <c r="AC214" s="18" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="AD214" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="AE214" s="18"/>
-      <c r="AF214" s="18"/>
+        <v>789</v>
+      </c>
+      <c r="AE214" s="5"/>
+      <c r="AF214" s="5"/>
       <c r="AG214" s="18"/>
       <c r="AH214" s="18"/>
-      <c r="AI214" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ214" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK214" s="3" t="s">
-        <v>62</v>
+      <c r="AI214" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ214" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK214" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="AL214" s="19">
-        <v>40969</v>
-      </c>
-      <c r="AM214" s="18">
-        <v>60</v>
-      </c>
-      <c r="AN214" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO214" s="18"/>
+        <v>40603</v>
+      </c>
+      <c r="AN214" s="18"/>
+      <c r="AO214" s="18">
+        <v>39</v>
+      </c>
       <c r="AP214" s="17"/>
       <c r="AQ214" s="17"/>
     </row>
     <row r="215" spans="1:43">
       <c r="A215" s="3" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>51</v>
@@ -20870,56 +20886,55 @@
         <v>736</v>
       </c>
       <c r="S215" s="5" t="s">
-        <v>930</v>
+        <v>1018</v>
       </c>
       <c r="T215" s="5"/>
-      <c r="U215" s="5"/>
+      <c r="U215" s="5" t="s">
+        <v>1019</v>
+      </c>
       <c r="V215" s="5"/>
       <c r="W215" s="5"/>
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
       <c r="Z215" s="18">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AA215" s="18">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="AB215" s="18"/>
       <c r="AC215" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD215" s="18" t="s">
-        <v>789</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="AD215" s="18"/>
       <c r="AE215" s="5"/>
       <c r="AF215" s="5"/>
       <c r="AG215" s="18"/>
       <c r="AH215" s="18"/>
       <c r="AI215" s="18" t="s">
-        <v>226</v>
+        <v>1021</v>
       </c>
       <c r="AJ215" s="18">
         <v>1</v>
       </c>
       <c r="AK215" s="18" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="AL215" s="19">
         <v>40969</v>
       </c>
+      <c r="AM215" s="18"/>
       <c r="AN215" s="18"/>
-      <c r="AO215" s="18">
-        <v>40</v>
-      </c>
+      <c r="AO215" s="18"/>
       <c r="AP215" s="17"/>
       <c r="AQ215" s="17"/>
     </row>
     <row r="216" spans="1:43">
       <c r="A216" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>1026</v>
+        <v>1022</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1023</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>51</v>
@@ -20960,7 +20975,7 @@
         <v>736</v>
       </c>
       <c r="S216" s="5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="T216" s="5"/>
       <c r="U216" s="5"/>
@@ -20969,61 +20984,66 @@
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
       <c r="Z216" s="18">
-        <v>208</v>
+        <v>892</v>
       </c>
       <c r="AA216" s="18">
-        <v>186</v>
+        <v>885</v>
       </c>
       <c r="AB216" s="18"/>
       <c r="AC216" s="18" t="s">
-        <v>742</v>
+        <v>60</v>
       </c>
       <c r="AD216" s="18" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AE216" s="18"/>
-      <c r="AF216" s="5"/>
+      <c r="AF216" s="18"/>
       <c r="AG216" s="18"/>
       <c r="AH216" s="18"/>
-      <c r="AI216" s="18" t="s">
-        <v>743</v>
-      </c>
-      <c r="AJ216" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK216" s="5" t="s">
-        <v>92</v>
+      <c r="AI216" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ216" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK216" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="AL216" s="19">
-        <v>41244</v>
-      </c>
-      <c r="AN216" s="18"/>
-      <c r="AO216" s="18">
-        <v>36</v>
-      </c>
+        <v>40969</v>
+      </c>
+      <c r="AM216" s="18">
+        <v>60</v>
+      </c>
+      <c r="AN216" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO216" s="18"/>
       <c r="AP216" s="17"/>
       <c r="AQ216" s="17"/>
     </row>
     <row r="217" spans="1:43">
       <c r="A217" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>1029</v>
+        <v>1025</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1023</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
+      <c r="E217" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
       <c r="I217" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J217" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K217" s="7">
         <v>1</v>
@@ -21049,58 +21069,58 @@
       <c r="R217" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="S217" s="5" t="s">
-        <v>1030</v>
-      </c>
+      <c r="S217" s="5"/>
       <c r="T217" s="5"/>
-      <c r="U217" s="5" t="s">
-        <v>1031</v>
-      </c>
+      <c r="U217" s="5"/>
       <c r="V217" s="5"/>
       <c r="W217" s="5"/>
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
       <c r="Z217" s="18">
-        <v>558</v>
+        <v>1390</v>
       </c>
       <c r="AA217" s="18">
-        <v>602</v>
+        <v>1390</v>
       </c>
       <c r="AB217" s="18"/>
       <c r="AC217" s="18" t="s">
-        <v>1032</v>
+        <v>60</v>
       </c>
       <c r="AD217" s="18" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AE217" s="5"/>
-      <c r="AF217" s="5"/>
+        <v>835</v>
+      </c>
+      <c r="AE217" s="18"/>
+      <c r="AF217" s="18"/>
       <c r="AG217" s="18"/>
       <c r="AH217" s="18"/>
-      <c r="AI217" s="18" t="s">
-        <v>612</v>
-      </c>
-      <c r="AJ217" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK217" s="18" t="s">
+      <c r="AI217" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ217" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK217" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AL217" s="19">
-        <v>41699</v>
-      </c>
-      <c r="AM217" s="18"/>
-      <c r="AN217" s="18"/>
+        <v>40969</v>
+      </c>
+      <c r="AM217" s="18">
+        <v>60</v>
+      </c>
+      <c r="AN217" s="18">
+        <v>3</v>
+      </c>
       <c r="AO217" s="18"/>
       <c r="AP217" s="17"/>
       <c r="AQ217" s="17"/>
     </row>
     <row r="218" spans="1:43">
       <c r="A218" s="3" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>51</v>
@@ -21141,61 +21161,58 @@
         <v>736</v>
       </c>
       <c r="S218" s="5" t="s">
-        <v>1036</v>
+        <v>930</v>
       </c>
       <c r="T218" s="5"/>
       <c r="U218" s="5" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="V218" s="5"/>
       <c r="W218" s="5"/>
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
       <c r="Z218" s="18">
-        <v>841</v>
+        <v>99</v>
       </c>
       <c r="AA218" s="18">
-        <v>833</v>
+        <v>132</v>
       </c>
       <c r="AB218" s="18"/>
       <c r="AC218" s="18" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="AD218" s="18" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="AE218" s="5"/>
       <c r="AF218" s="5"/>
       <c r="AG218" s="18"/>
       <c r="AH218" s="18"/>
-      <c r="AI218" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ218" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK218" s="3" t="s">
-        <v>62</v>
+      <c r="AI218" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ218" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK218" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="AL218" s="19">
-        <v>41699</v>
-      </c>
-      <c r="AM218" s="18">
-        <v>62</v>
-      </c>
-      <c r="AN218" s="18">
-        <v>2</v>
-      </c>
-      <c r="AO218" s="18"/>
+        <v>40969</v>
+      </c>
+      <c r="AN218" s="18"/>
+      <c r="AO218" s="18">
+        <v>40</v>
+      </c>
       <c r="AP218" s="17"/>
       <c r="AQ218" s="17"/>
     </row>
     <row r="219" spans="1:43">
       <c r="A219" s="3" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>51</v>
@@ -21236,61 +21253,58 @@
         <v>736</v>
       </c>
       <c r="S219" s="5" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="T219" s="5"/>
       <c r="U219" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="V219" s="5"/>
       <c r="W219" s="5"/>
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
       <c r="Z219" s="18">
-        <v>552</v>
+        <v>208</v>
       </c>
       <c r="AA219" s="18">
-        <v>545</v>
+        <v>186</v>
       </c>
       <c r="AB219" s="18"/>
       <c r="AC219" s="18" t="s">
-        <v>60</v>
+        <v>742</v>
       </c>
       <c r="AD219" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="AE219" s="5"/>
+        <v>819</v>
+      </c>
+      <c r="AE219" s="18"/>
       <c r="AF219" s="5"/>
       <c r="AG219" s="18"/>
       <c r="AH219" s="18"/>
-      <c r="AI219" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ219" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK219" s="3" t="s">
-        <v>62</v>
+      <c r="AI219" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="AJ219" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK219" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="AL219" s="19">
-        <v>41974</v>
-      </c>
-      <c r="AM219" s="18">
-        <v>63</v>
-      </c>
-      <c r="AN219" s="18">
-        <v>1</v>
-      </c>
-      <c r="AO219" s="18"/>
+        <v>41244</v>
+      </c>
+      <c r="AN219" s="18"/>
+      <c r="AO219" s="18">
+        <v>36</v>
+      </c>
       <c r="AP219" s="17"/>
       <c r="AQ219" s="17"/>
     </row>
     <row r="220" spans="1:43">
       <c r="A220" s="3" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>51</v>
@@ -21331,52 +21345,57 @@
         <v>736</v>
       </c>
       <c r="S220" s="5" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="T220" s="5"/>
       <c r="U220" s="5" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="V220" s="5"/>
       <c r="W220" s="5"/>
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
       <c r="Z220" s="18">
-        <v>19</v>
+        <v>558</v>
       </c>
       <c r="AA220" s="18">
-        <v>42</v>
+        <v>602</v>
       </c>
       <c r="AB220" s="18"/>
       <c r="AC220" s="18" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD220" s="18"/>
+        <v>1037</v>
+      </c>
+      <c r="AD220" s="18" t="s">
+        <v>1038</v>
+      </c>
       <c r="AE220" s="5"/>
       <c r="AF220" s="5"/>
       <c r="AG220" s="18"/>
       <c r="AH220" s="18"/>
-      <c r="AI220" s="18"/>
+      <c r="AI220" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="AJ220" s="18">
         <v>1</v>
       </c>
-      <c r="AK220" s="5"/>
+      <c r="AK220" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="AL220" s="19">
-        <v>42036</v>
+        <v>41699</v>
       </c>
       <c r="AM220" s="18"/>
-      <c r="AO220" s="18">
-        <v>108</v>
-      </c>
+      <c r="AN220" s="18"/>
+      <c r="AO220" s="18"/>
       <c r="AP220" s="17"/>
       <c r="AQ220" s="17"/>
     </row>
     <row r="221" spans="1:43">
       <c r="A221" s="3" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>51</v>
@@ -21417,58 +21436,61 @@
         <v>736</v>
       </c>
       <c r="S221" s="5" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="T221" s="5"/>
       <c r="U221" s="5" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="V221" s="5"/>
       <c r="W221" s="5"/>
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
       <c r="Z221" s="18">
-        <v>-1</v>
+        <v>841</v>
       </c>
       <c r="AA221" s="18">
-        <v>-25</v>
+        <v>833</v>
       </c>
       <c r="AB221" s="18"/>
       <c r="AC221" s="18" t="s">
-        <v>742</v>
+        <v>60</v>
       </c>
       <c r="AD221" s="18" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="AE221" s="5"/>
       <c r="AF221" s="5"/>
       <c r="AG221" s="18"/>
       <c r="AH221" s="18"/>
-      <c r="AI221" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="AJ221" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK221" s="18" t="s">
-        <v>92</v>
+      <c r="AI221" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ221" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK221" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="AL221" s="19">
-        <v>42339</v>
-      </c>
-      <c r="AN221" s="16"/>
-      <c r="AO221" s="18">
-        <v>42</v>
-      </c>
+        <v>41699</v>
+      </c>
+      <c r="AM221" s="18">
+        <v>62</v>
+      </c>
+      <c r="AN221" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO221" s="18"/>
       <c r="AP221" s="17"/>
       <c r="AQ221" s="17"/>
     </row>
     <row r="222" spans="1:43">
       <c r="A222" s="3" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>51</v>
@@ -21509,19 +21531,21 @@
         <v>736</v>
       </c>
       <c r="S222" s="5" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="T222" s="5"/>
-      <c r="U222" s="5"/>
+      <c r="U222" s="5" t="s">
+        <v>1046</v>
+      </c>
       <c r="V222" s="5"/>
       <c r="W222" s="5"/>
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
       <c r="Z222" s="18">
-        <v>841</v>
+        <v>552</v>
       </c>
       <c r="AA222" s="18">
-        <v>833</v>
+        <v>545</v>
       </c>
       <c r="AB222" s="18"/>
       <c r="AC222" s="18" t="s">
@@ -21530,8 +21554,8 @@
       <c r="AD222" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="AE222" s="18"/>
-      <c r="AF222" s="18"/>
+      <c r="AE222" s="5"/>
+      <c r="AF222" s="5"/>
       <c r="AG222" s="18"/>
       <c r="AH222" s="18"/>
       <c r="AI222" s="3" t="s">
@@ -21544,13 +21568,13 @@
         <v>62</v>
       </c>
       <c r="AL222" s="19">
-        <v>42430</v>
+        <v>41974</v>
       </c>
       <c r="AM222" s="18">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AN222" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO222" s="18"/>
       <c r="AP222" s="17"/>
@@ -21558,10 +21582,10 @@
     </row>
     <row r="223" spans="1:43">
       <c r="A223" s="3" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>51</v>
@@ -21602,61 +21626,52 @@
         <v>736</v>
       </c>
       <c r="S223" s="5" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="T223" s="5"/>
       <c r="U223" s="5" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="V223" s="5"/>
       <c r="W223" s="5"/>
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
       <c r="Z223" s="18">
-        <v>406</v>
+        <v>19</v>
       </c>
       <c r="AA223" s="18">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="AB223" s="18"/>
       <c r="AC223" s="18" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AD223" s="18" t="s">
-        <v>1059</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="AD223" s="18"/>
       <c r="AE223" s="5"/>
-      <c r="AF223" s="18" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AG223" s="18" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AH223" s="5"/>
-      <c r="AI223" s="18" t="s">
-        <v>213</v>
-      </c>
+      <c r="AF223" s="5"/>
+      <c r="AG223" s="18"/>
+      <c r="AH223" s="18"/>
+      <c r="AI223" s="18"/>
       <c r="AJ223" s="18">
         <v>1</v>
       </c>
-      <c r="AK223" s="18" t="s">
-        <v>62</v>
-      </c>
+      <c r="AK223" s="5"/>
       <c r="AL223" s="19">
-        <v>42430</v>
-      </c>
-      <c r="AM223" s="5"/>
-      <c r="AN223" s="18"/>
-      <c r="AO223" s="18"/>
+        <v>42036</v>
+      </c>
+      <c r="AM223" s="18"/>
+      <c r="AO223" s="18">
+        <v>108</v>
+      </c>
       <c r="AP223" s="17"/>
       <c r="AQ223" s="17"/>
     </row>
     <row r="224" spans="1:43">
       <c r="A224" s="3" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>51</v>
@@ -21697,55 +21712,58 @@
         <v>736</v>
       </c>
       <c r="S224" s="5" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="T224" s="5"/>
-      <c r="U224" s="5"/>
+      <c r="U224" s="5" t="s">
+        <v>1055</v>
+      </c>
       <c r="V224" s="5"/>
       <c r="W224" s="5"/>
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
       <c r="Z224" s="18">
-        <v>68</v>
+        <v>-1</v>
       </c>
       <c r="AA224" s="18">
-        <v>69</v>
+        <v>-25</v>
       </c>
       <c r="AB224" s="18"/>
       <c r="AC224" s="18" t="s">
-        <v>1065</v>
+        <v>742</v>
       </c>
       <c r="AD224" s="18" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AE224" s="18"/>
-      <c r="AF224" s="18"/>
+        <v>819</v>
+      </c>
+      <c r="AE224" s="5"/>
+      <c r="AF224" s="5"/>
       <c r="AG224" s="18"/>
-      <c r="AH224" s="5"/>
-      <c r="AI224" s="18" t="s">
-        <v>1067</v>
+      <c r="AH224" s="18"/>
+      <c r="AI224" s="5" t="s">
+        <v>743</v>
       </c>
       <c r="AJ224" s="18">
         <v>1</v>
       </c>
       <c r="AK224" s="18" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="AL224" s="19">
-        <v>42644</v>
-      </c>
-      <c r="AM224" s="18"/>
-      <c r="AN224" s="18"/>
-      <c r="AO224" s="18"/>
+        <v>42339</v>
+      </c>
+      <c r="AN224" s="16"/>
+      <c r="AO224" s="18">
+        <v>42</v>
+      </c>
       <c r="AP224" s="17"/>
       <c r="AQ224" s="17"/>
     </row>
     <row r="225" spans="1:43">
       <c r="A225" s="3" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>51</v>
@@ -21786,7 +21804,7 @@
         <v>736</v>
       </c>
       <c r="S225" s="5" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="T225" s="5"/>
       <c r="U225" s="5"/>
@@ -21795,46 +21813,50 @@
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
       <c r="Z225" s="18">
-        <v>78</v>
+        <v>841</v>
       </c>
       <c r="AA225" s="18">
-        <v>81</v>
+        <v>833</v>
       </c>
       <c r="AB225" s="18"/>
       <c r="AC225" s="18" t="s">
-        <v>1065</v>
+        <v>60</v>
       </c>
       <c r="AD225" s="18" t="s">
-        <v>1066</v>
+        <v>835</v>
       </c>
       <c r="AE225" s="18"/>
       <c r="AF225" s="18"/>
       <c r="AG225" s="18"/>
-      <c r="AH225" s="5"/>
-      <c r="AI225" s="18" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AJ225" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK225" s="18" t="s">
+      <c r="AH225" s="18"/>
+      <c r="AI225" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ225" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK225" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AL225" s="19">
-        <v>42644</v>
-      </c>
-      <c r="AM225" s="18"/>
-      <c r="AN225" s="18"/>
+        <v>42430</v>
+      </c>
+      <c r="AM225" s="18">
+        <v>64</v>
+      </c>
+      <c r="AN225" s="18">
+        <v>2</v>
+      </c>
       <c r="AO225" s="18"/>
       <c r="AP225" s="17"/>
       <c r="AQ225" s="17"/>
     </row>
     <row r="226" spans="1:43">
       <c r="A226" s="3" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>51</v>
@@ -21875,56 +21897,61 @@
         <v>736</v>
       </c>
       <c r="S226" s="5" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="T226" s="5"/>
-      <c r="U226" s="5"/>
+      <c r="U226" s="5" t="s">
+        <v>1062</v>
+      </c>
       <c r="V226" s="5"/>
       <c r="W226" s="5"/>
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
       <c r="Z226" s="18">
-        <v>-1</v>
+        <v>406</v>
       </c>
       <c r="AA226" s="18">
-        <v>-35</v>
+        <v>381</v>
       </c>
       <c r="AB226" s="18"/>
       <c r="AC226" s="18" t="s">
-        <v>742</v>
+        <v>1063</v>
       </c>
       <c r="AD226" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="AE226" s="18"/>
-      <c r="AF226" s="5"/>
-      <c r="AG226" s="18"/>
-      <c r="AH226" s="18"/>
+        <v>1064</v>
+      </c>
+      <c r="AE226" s="5"/>
+      <c r="AF226" s="18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AG226" s="18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AH226" s="5"/>
       <c r="AI226" s="18" t="s">
-        <v>743</v>
+        <v>213</v>
       </c>
       <c r="AJ226" s="18">
         <v>1</v>
       </c>
-      <c r="AK226" s="5" t="s">
-        <v>92</v>
+      <c r="AK226" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="AL226" s="19">
-        <v>42705</v>
-      </c>
+        <v>42430</v>
+      </c>
+      <c r="AM226" s="5"/>
       <c r="AN226" s="18"/>
-      <c r="AO226" s="18">
-        <v>42</v>
-      </c>
+      <c r="AO226" s="18"/>
       <c r="AP226" s="17"/>
       <c r="AQ226" s="17"/>
     </row>
     <row r="227" spans="1:43">
       <c r="A227" s="3" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>51</v>
@@ -21965,61 +21992,55 @@
         <v>736</v>
       </c>
       <c r="S227" s="5" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="T227" s="5"/>
-      <c r="U227" s="5" t="s">
-        <v>1077</v>
-      </c>
+      <c r="U227" s="5"/>
       <c r="V227" s="5"/>
       <c r="W227" s="5"/>
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
       <c r="Z227" s="18">
-        <v>-1</v>
+        <v>68</v>
       </c>
       <c r="AA227" s="18">
-        <v>-8</v>
+        <v>69</v>
       </c>
       <c r="AB227" s="18"/>
       <c r="AC227" s="18" t="s">
-        <v>60</v>
+        <v>1070</v>
       </c>
       <c r="AD227" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="AE227" s="5"/>
-      <c r="AF227" s="5"/>
-      <c r="AG227" s="5"/>
-      <c r="AH227" s="18"/>
-      <c r="AI227" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ227" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK227" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AE227" s="18"/>
+      <c r="AF227" s="18"/>
+      <c r="AG227" s="18"/>
+      <c r="AH227" s="5"/>
+      <c r="AI227" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AJ227" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK227" s="18" t="s">
         <v>62</v>
       </c>
       <c r="AL227" s="19">
-        <v>42795</v>
-      </c>
-      <c r="AM227" s="18">
-        <v>65</v>
-      </c>
-      <c r="AN227" s="18">
-        <v>2</v>
-      </c>
+        <v>42644</v>
+      </c>
+      <c r="AM227" s="18"/>
+      <c r="AN227" s="18"/>
       <c r="AO227" s="18"/>
       <c r="AP227" s="17"/>
       <c r="AQ227" s="17"/>
     </row>
     <row r="228" spans="1:43">
       <c r="A228" s="3" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>51</v>
@@ -22060,58 +22081,55 @@
         <v>736</v>
       </c>
       <c r="S228" s="5" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="T228" s="5"/>
-      <c r="U228" s="5" t="s">
-        <v>1081</v>
-      </c>
+      <c r="U228" s="5"/>
       <c r="V228" s="5"/>
       <c r="W228" s="5"/>
       <c r="X228" s="5"/>
       <c r="Y228" s="5"/>
       <c r="Z228" s="18">
-        <v>-1</v>
+        <v>78</v>
       </c>
       <c r="AA228" s="18">
-        <v>-31</v>
+        <v>81</v>
       </c>
       <c r="AB228" s="18"/>
       <c r="AC228" s="18" t="s">
-        <v>742</v>
+        <v>1070</v>
       </c>
       <c r="AD228" s="18" t="s">
-        <v>819</v>
-      </c>
-      <c r="AE228" s="5"/>
-      <c r="AF228" s="5"/>
+        <v>1071</v>
+      </c>
+      <c r="AE228" s="18"/>
+      <c r="AF228" s="18"/>
       <c r="AG228" s="18"/>
       <c r="AH228" s="5"/>
       <c r="AI228" s="18" t="s">
-        <v>743</v>
+        <v>1072</v>
       </c>
       <c r="AJ228" s="18">
         <v>1</v>
       </c>
       <c r="AK228" s="18" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="AL228" s="19">
-        <v>43070</v>
-      </c>
-      <c r="AN228" s="16"/>
-      <c r="AO228" s="18">
-        <v>44</v>
-      </c>
+        <v>42644</v>
+      </c>
+      <c r="AM228" s="18"/>
+      <c r="AN228" s="18"/>
+      <c r="AO228" s="18"/>
       <c r="AP228" s="17"/>
       <c r="AQ228" s="17"/>
     </row>
     <row r="229" spans="1:43">
       <c r="A229" s="3" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>51</v>
@@ -22152,7 +22170,7 @@
         <v>736</v>
       </c>
       <c r="S229" s="5" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="T229" s="5"/>
       <c r="U229" s="5"/>
@@ -22164,7 +22182,7 @@
         <v>-1</v>
       </c>
       <c r="AA229" s="18">
-        <v>-31</v>
+        <v>-35</v>
       </c>
       <c r="AB229" s="18"/>
       <c r="AC229" s="18" t="s">
@@ -22187,21 +22205,21 @@
         <v>92</v>
       </c>
       <c r="AL229" s="19">
-        <v>43070</v>
+        <v>42705</v>
       </c>
       <c r="AN229" s="18"/>
       <c r="AO229" s="18">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AP229" s="17"/>
       <c r="AQ229" s="17"/>
     </row>
     <row r="230" spans="1:43">
       <c r="A230" s="3" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>51</v>
@@ -22242,76 +22260,84 @@
         <v>736</v>
       </c>
       <c r="S230" s="5" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="T230" s="5"/>
       <c r="U230" s="5" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="V230" s="5"/>
       <c r="W230" s="5"/>
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
       <c r="Z230" s="18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA230" s="18">
-        <v>98</v>
+        <v>-8</v>
       </c>
       <c r="AB230" s="18"/>
       <c r="AC230" s="18" t="s">
-        <v>1089</v>
+        <v>60</v>
       </c>
       <c r="AD230" s="18" t="s">
-        <v>1090</v>
+        <v>835</v>
       </c>
       <c r="AE230" s="5"/>
       <c r="AF230" s="5"/>
-      <c r="AG230" s="18"/>
-      <c r="AH230" s="5"/>
-      <c r="AI230" s="18" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AJ230" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK230" s="18" t="s">
-        <v>1092</v>
+      <c r="AG230" s="5"/>
+      <c r="AH230" s="18"/>
+      <c r="AI230" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ230" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK230" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="AL230" s="19">
-        <v>43405</v>
-      </c>
-      <c r="AN230" s="16"/>
-      <c r="AO230" s="18">
-        <v>11</v>
-      </c>
+        <v>42795</v>
+      </c>
+      <c r="AM230" s="18">
+        <v>65</v>
+      </c>
+      <c r="AN230" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO230" s="18"/>
       <c r="AP230" s="17"/>
       <c r="AQ230" s="17"/>
     </row>
     <row r="231" spans="1:43">
       <c r="A231" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
       <c r="I231" s="7">
         <v>1</v>
       </c>
       <c r="J231" s="7">
         <v>1</v>
       </c>
-      <c r="K231" s="3">
+      <c r="K231" s="7">
         <v>1</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="N231" s="3" t="s">
         <v>117</v>
@@ -22328,52 +22354,82 @@
       <c r="R231" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="S231" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="U231" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AI231" s="3" t="s">
-        <v>803</v>
+      <c r="S231" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="T231" s="5"/>
+      <c r="U231" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="V231" s="5"/>
+      <c r="W231" s="5"/>
+      <c r="X231" s="5"/>
+      <c r="Y231" s="5"/>
+      <c r="Z231" s="18">
+        <v>-1</v>
+      </c>
+      <c r="AA231" s="18">
+        <v>-31</v>
+      </c>
+      <c r="AB231" s="18"/>
+      <c r="AC231" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD231" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE231" s="5"/>
+      <c r="AF231" s="5"/>
+      <c r="AG231" s="18"/>
+      <c r="AH231" s="5"/>
+      <c r="AI231" s="18" t="s">
+        <v>743</v>
       </c>
       <c r="AJ231" s="18">
         <v>1</v>
       </c>
-      <c r="AK231" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL231" s="4">
-        <v>28672</v>
-      </c>
-      <c r="AM231" s="3" t="s">
-        <v>1097</v>
-      </c>
+      <c r="AK231" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL231" s="19">
+        <v>43070</v>
+      </c>
+      <c r="AN231" s="16"/>
+      <c r="AO231" s="18">
+        <v>44</v>
+      </c>
+      <c r="AP231" s="17"/>
+      <c r="AQ231" s="17"/>
     </row>
     <row r="232" spans="1:43">
       <c r="A232" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>1087</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
       <c r="I232" s="7">
         <v>1</v>
       </c>
       <c r="J232" s="7">
         <v>1</v>
       </c>
-      <c r="K232" s="3">
+      <c r="K232" s="7">
         <v>1</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="N232" s="3" t="s">
         <v>117</v>
@@ -22390,52 +22446,80 @@
       <c r="R232" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="S232" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AC232" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AI232" s="3" t="s">
-        <v>1102</v>
+      <c r="S232" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="T232" s="5"/>
+      <c r="U232" s="5"/>
+      <c r="V232" s="5"/>
+      <c r="W232" s="5"/>
+      <c r="X232" s="5"/>
+      <c r="Y232" s="5"/>
+      <c r="Z232" s="18">
+        <v>-1</v>
+      </c>
+      <c r="AA232" s="18">
+        <v>-31</v>
+      </c>
+      <c r="AB232" s="18"/>
+      <c r="AC232" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD232" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE232" s="18"/>
+      <c r="AF232" s="5"/>
+      <c r="AG232" s="18"/>
+      <c r="AH232" s="18"/>
+      <c r="AI232" s="18" t="s">
+        <v>743</v>
       </c>
       <c r="AJ232" s="18">
         <v>1</v>
       </c>
-      <c r="AK232" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL232" s="4">
-        <v>30103</v>
-      </c>
-      <c r="AM232" s="3" t="s">
-        <v>1103</v>
-      </c>
+      <c r="AK232" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL232" s="19">
+        <v>43070</v>
+      </c>
+      <c r="AN232" s="18"/>
+      <c r="AO232" s="18">
+        <v>45</v>
+      </c>
+      <c r="AP232" s="17"/>
+      <c r="AQ232" s="17"/>
     </row>
     <row r="233" spans="1:43">
       <c r="A233" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
       <c r="I233" s="7">
         <v>1</v>
       </c>
       <c r="J233" s="7">
         <v>1</v>
       </c>
-      <c r="K233" s="3">
+      <c r="K233" s="7">
         <v>1</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="N233" s="3" t="s">
         <v>117</v>
@@ -22452,37 +22536,59 @@
       <c r="R233" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="S233" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="U233" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AC233" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AI233" s="3" t="s">
-        <v>318</v>
+      <c r="S233" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="T233" s="5"/>
+      <c r="U233" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="V233" s="5"/>
+      <c r="W233" s="5"/>
+      <c r="X233" s="5"/>
+      <c r="Y233" s="5"/>
+      <c r="Z233" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA233" s="18">
+        <v>98</v>
+      </c>
+      <c r="AB233" s="18"/>
+      <c r="AC233" s="18" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AD233" s="18" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AE233" s="5"/>
+      <c r="AF233" s="5"/>
+      <c r="AG233" s="18"/>
+      <c r="AH233" s="5"/>
+      <c r="AI233" s="18" t="s">
+        <v>1096</v>
       </c>
       <c r="AJ233" s="18">
         <v>1</v>
       </c>
-      <c r="AK233" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL233" s="4">
-        <v>30256</v>
-      </c>
-      <c r="AM233" s="3" t="s">
-        <v>1109</v>
-      </c>
+      <c r="AK233" s="18" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL233" s="19">
+        <v>43405</v>
+      </c>
+      <c r="AN233" s="16"/>
+      <c r="AO233" s="18">
+        <v>11</v>
+      </c>
+      <c r="AP233" s="17"/>
+      <c r="AQ233" s="17"/>
     </row>
     <row r="234" spans="1:43">
       <c r="A234" s="3" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>51</v>
@@ -22518,10 +22624,13 @@
         <v>736</v>
       </c>
       <c r="S234" s="3" t="s">
-        <v>1112</v>
+        <v>1100</v>
+      </c>
+      <c r="U234" s="3" t="s">
+        <v>1101</v>
       </c>
       <c r="AI234" s="3" t="s">
-        <v>1102</v>
+        <v>803</v>
       </c>
       <c r="AJ234" s="18">
         <v>1</v>
@@ -22530,18 +22639,18 @@
         <v>62</v>
       </c>
       <c r="AL234" s="4">
-        <v>30713</v>
+        <v>28672</v>
       </c>
       <c r="AM234" s="3" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="235" spans="1:43">
       <c r="A235" s="3" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>51</v>
@@ -22553,7 +22662,7 @@
         <v>1</v>
       </c>
       <c r="K235" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L235" s="3" t="s">
         <v>116</v>
@@ -22577,10 +22686,13 @@
         <v>736</v>
       </c>
       <c r="S235" s="3" t="s">
-        <v>1116</v>
+        <v>1105</v>
+      </c>
+      <c r="AC235" s="3" t="s">
+        <v>1106</v>
       </c>
       <c r="AI235" s="3" t="s">
-        <v>412</v>
+        <v>1107</v>
       </c>
       <c r="AJ235" s="18">
         <v>1</v>
@@ -22589,18 +22701,18 @@
         <v>62</v>
       </c>
       <c r="AL235" s="4">
-        <v>30895</v>
+        <v>30103</v>
       </c>
       <c r="AM235" s="3" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="236" spans="1:43">
       <c r="A236" s="3" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>51</v>
@@ -22612,7 +22724,7 @@
         <v>1</v>
       </c>
       <c r="K236" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L236" s="3" t="s">
         <v>116</v>
@@ -22636,36 +22748,36 @@
         <v>736</v>
       </c>
       <c r="S236" s="3" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="U236" s="3" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="AC236" s="3" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="AI236" s="3" t="s">
-        <v>803</v>
+        <v>318</v>
       </c>
       <c r="AJ236" s="18">
         <v>1</v>
       </c>
       <c r="AK236" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AL236" s="4">
-        <v>31168</v>
+        <v>30256</v>
       </c>
       <c r="AM236" s="3" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="237" spans="1:43">
       <c r="A237" s="3" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>51</v>
@@ -22677,7 +22789,7 @@
         <v>1</v>
       </c>
       <c r="K237" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L237" s="3" t="s">
         <v>116</v>
@@ -22701,13 +22813,10 @@
         <v>736</v>
       </c>
       <c r="S237" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="U237" s="3" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="AI237" s="3" t="s">
-        <v>803</v>
+        <v>1107</v>
       </c>
       <c r="AJ237" s="18">
         <v>1</v>
@@ -22716,18 +22825,18 @@
         <v>62</v>
       </c>
       <c r="AL237" s="4">
-        <v>31564</v>
+        <v>30713</v>
       </c>
       <c r="AM237" s="3" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="238" spans="1:43">
       <c r="A238" s="3" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>51</v>
@@ -22763,13 +22872,10 @@
         <v>736</v>
       </c>
       <c r="S238" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="U238" s="3" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="AI238" s="3" t="s">
-        <v>803</v>
+        <v>412</v>
       </c>
       <c r="AJ238" s="18">
         <v>1</v>
@@ -22778,18 +22884,18 @@
         <v>62</v>
       </c>
       <c r="AL238" s="4">
-        <v>32143</v>
+        <v>30895</v>
       </c>
       <c r="AM238" s="3" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="239" spans="1:43">
       <c r="A239" s="3" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>51</v>
@@ -22825,10 +22931,13 @@
         <v>736</v>
       </c>
       <c r="S239" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="U239" s="3" t="s">
-        <v>1134</v>
+        <v>1126</v>
+      </c>
+      <c r="AC239" s="3" t="s">
+        <v>1127</v>
       </c>
       <c r="AI239" s="3" t="s">
         <v>803</v>
@@ -22840,18 +22949,18 @@
         <v>62</v>
       </c>
       <c r="AL239" s="4">
-        <v>32782</v>
+        <v>31168</v>
       </c>
       <c r="AM239" s="3" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="240" spans="1:43">
       <c r="A240" s="3" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>51</v>
@@ -22887,10 +22996,10 @@
         <v>736</v>
       </c>
       <c r="S240" s="3" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="U240" s="3" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="AI240" s="3" t="s">
         <v>803</v>
@@ -22902,18 +23011,18 @@
         <v>62</v>
       </c>
       <c r="AL240" s="4">
-        <v>32905</v>
+        <v>31564</v>
       </c>
       <c r="AM240" s="3" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="241" spans="1:39">
       <c r="A241" s="3" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>51</v>
@@ -22925,7 +23034,7 @@
         <v>1</v>
       </c>
       <c r="K241" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L241" s="3" t="s">
         <v>116</v>
@@ -22949,30 +23058,33 @@
         <v>736</v>
       </c>
       <c r="S241" s="3" t="s">
-        <v>1142</v>
+        <v>1125</v>
+      </c>
+      <c r="U241" s="3" t="s">
+        <v>1135</v>
       </c>
       <c r="AI241" s="3" t="s">
-        <v>318</v>
+        <v>803</v>
       </c>
       <c r="AJ241" s="18">
         <v>1</v>
       </c>
       <c r="AK241" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AL241" s="4">
-        <v>33482</v>
+        <v>32143</v>
       </c>
       <c r="AM241" s="3" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="242" spans="1:39">
       <c r="A242" s="3" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>51</v>
@@ -23008,10 +23120,13 @@
         <v>736</v>
       </c>
       <c r="S242" s="3" t="s">
-        <v>1146</v>
+        <v>1125</v>
+      </c>
+      <c r="U242" s="3" t="s">
+        <v>1139</v>
       </c>
       <c r="AI242" s="3" t="s">
-        <v>1147</v>
+        <v>803</v>
       </c>
       <c r="AJ242" s="18">
         <v>1</v>
@@ -23020,10 +23135,190 @@
         <v>62</v>
       </c>
       <c r="AL242" s="4">
+        <v>32782</v>
+      </c>
+      <c r="AM242" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="243" spans="1:39">
+      <c r="A243" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I243" s="7">
+        <v>1</v>
+      </c>
+      <c r="J243" s="7">
+        <v>1</v>
+      </c>
+      <c r="K243" s="3">
+        <v>2</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q243" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R243" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="S243" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U243" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AI243" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="AJ243" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK243" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL243" s="4">
+        <v>32905</v>
+      </c>
+      <c r="AM243" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="244" spans="1:39">
+      <c r="A244" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I244" s="7">
+        <v>1</v>
+      </c>
+      <c r="J244" s="7">
+        <v>1</v>
+      </c>
+      <c r="K244" s="3">
+        <v>1</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R244" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="S244" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AI244" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ244" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK244" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL244" s="4">
+        <v>33482</v>
+      </c>
+      <c r="AM244" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="245" spans="1:39">
+      <c r="A245" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I245" s="7">
+        <v>1</v>
+      </c>
+      <c r="J245" s="7">
+        <v>1</v>
+      </c>
+      <c r="K245" s="3">
+        <v>2</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N245" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O245" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P245" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q245" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R245" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="S245" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AI245" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AJ245" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK245" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL245" s="4">
         <v>34639</v>
       </c>
-      <c r="AM242" s="3" t="s">
-        <v>1148</v>
+      <c r="AM245" s="3" t="s">
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -23037,9 +23332,10 @@
     <hyperlink ref="E181" r:id="rId6" xr:uid="{CF7D5C4F-FBE8-45E9-AC22-85EA7D11D115}"/>
     <hyperlink ref="E167" r:id="rId7" xr:uid="{A4AB491C-BF9E-439D-98FC-108DBCF6A3B1}"/>
     <hyperlink ref="E78" r:id="rId8" xr:uid="{2A1256DB-D081-4C2E-8337-46E6DD1A80ED}"/>
+    <hyperlink ref="E205" r:id="rId9" xr:uid="{F80A992A-C327-448E-9457-B33E99C45C4F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>